--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -1,37 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076E5FC2-B654-48DD-AA3B-06718AF694F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalValueProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D84" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>刷新概率,每天刷新上限,刷新随机列表</t>
@@ -43,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="172">
   <si>
     <t>#</t>
   </si>
@@ -105,9 +111,6 @@
     <t>每日活跃任务</t>
   </si>
   <si>
-    <t>100011;100021;100031;100041;100051;100061;100071;100081;100091;100101;100111;100121</t>
-  </si>
-  <si>
     <t>初始化药剂</t>
   </si>
   <si>
@@ -144,9 +147,15 @@
     <t>1;1000</t>
   </si>
   <si>
+    <t>兑换宠物道具消耗</t>
+  </si>
+  <si>
     <t>10010001;10</t>
   </si>
   <si>
+    <t>兑换宠物钻石消耗</t>
+  </si>
+  <si>
     <t>初始化学习制造列表</t>
   </si>
   <si>
@@ -198,6 +207,9 @@
     <t>宠物最大数量</t>
   </si>
   <si>
+    <t>1;5@25;6@35;7@45;8@55;9@65;10</t>
+  </si>
+  <si>
     <t>抽卡一次免费时间</t>
   </si>
   <si>
@@ -216,6 +228,9 @@
     <t>兑换宠物蛋一次消耗</t>
   </si>
   <si>
+    <t>3;150@601800041</t>
+  </si>
+  <si>
     <t>兑换宠物蛋十次消耗</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t>装备洗练度</t>
   </si>
   <si>
+    <t>2;7</t>
+  </si>
+  <si>
     <t>最大拍卖数量</t>
   </si>
   <si>
@@ -499,101 +517,67 @@
   </si>
   <si>
     <t>宠物蛋抽奖折扣</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>300;0.8</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>家族每日次数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换宠物钻石消耗</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换宠物道具消耗</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周任务次数</t>
+  </si>
+  <si>
+    <t>兑换宠物之核一次消耗</t>
   </si>
   <si>
     <t>10000131;10@601800051</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>周任务次数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换宠物之核一次消耗</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>兑换宠物之核十次消耗</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000131;100@601800051</t>
   </si>
   <si>
     <t>宠物之核抽奖折扣</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>300;0.8</t>
   </si>
   <si>
     <t>生活技能开启第二页需要充值数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000131;100@601800051</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>活动1商店ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3;150@601800041</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;5@25;6@35;7@45;8@55;9@65;10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>账号仓库最大格子数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2;7</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>洗练折扣</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>300;0.9</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>传承鉴定次数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>宝石仓库格子数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>宠物背包数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,7 +589,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -613,14 +596,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -628,31 +609,159 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,8 +774,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -674,11 +969,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -700,24 +1237,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1004,19 +1582,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F133" sqref="F133"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
@@ -1029,13 +1607,13 @@
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.1" customHeight="1"/>
+    <row r="2" ht="20.1" customHeight="1" spans="4:4">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="20.1" customHeight="1" spans="3:8">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1051,7 +1629,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="20.1" customHeight="1" spans="3:8">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1065,7 +1643,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="20.1" customHeight="1" spans="3:8">
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1079,7 +1657,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1090,7 +1668,7 @@
         <v>30010000</v>
       </c>
     </row>
-    <row r="7" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1101,7 +1679,7 @@
         <v>60000011</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="20.1" customHeight="1" spans="3:6">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1115,7 +1693,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="20.1" customHeight="1" spans="3:6">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1129,7 +1707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="20.1" customHeight="1" spans="3:5">
       <c r="C10" s="8">
         <v>5</v>
       </c>
@@ -1140,7 +1718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="20.1" customHeight="1" spans="3:5">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1151,7 +1729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="20.1" customHeight="1" spans="3:5">
       <c r="C12" s="8">
         <v>7</v>
       </c>
@@ -1162,34 +1740,34 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="20.1" customHeight="1" spans="3:5">
       <c r="C13" s="8">
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="8">
+        <v>210000001</v>
+      </c>
+    </row>
+    <row r="14" ht="20.1" customHeight="1" spans="3:5">
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" ht="20.1" customHeight="1" spans="3:6">
       <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1">
         <v>160</v>
@@ -1198,23 +1776,23 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="20.1" customHeight="1" spans="3:5">
       <c r="C16" s="1">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" ht="20.1" customHeight="1" spans="3:6">
       <c r="C17" s="1">
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
@@ -1223,78 +1801,78 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="20.1" customHeight="1" spans="3:5">
       <c r="C18" s="1">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" ht="20.1" customHeight="1" spans="3:5">
       <c r="C19" s="1">
         <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" ht="20.1" customHeight="1" spans="3:5">
       <c r="C20" s="1">
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" ht="20.1" customHeight="1" spans="3:5">
       <c r="C21" s="1">
         <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" ht="20.1" customHeight="1" spans="3:5">
       <c r="C22" s="1">
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1">
         <v>880</v>
       </c>
     </row>
-    <row r="23" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" ht="20.1" customHeight="1" spans="3:5">
       <c r="C23" s="1">
         <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C24" s="1">
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
@@ -1303,69 +1881,69 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" ht="20.1" customHeight="1" spans="3:5">
       <c r="C25" s="1">
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E25" s="1">
         <v>200000</v>
       </c>
     </row>
-    <row r="26" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" ht="20.1" customHeight="1" spans="3:5">
       <c r="C26" s="1">
         <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E26" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="3:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C27" s="1">
         <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C28" s="1">
         <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E28" s="1">
         <v>50</v>
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C29" s="1">
         <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E29" s="1">
         <v>7</v>
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" ht="20.1" customHeight="1" spans="3:6">
       <c r="C30" s="1">
         <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E30" s="1">
         <v>5000</v>
@@ -1374,166 +1952,166 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" ht="20.1" customHeight="1" spans="3:5">
       <c r="C31" s="1">
         <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E31" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" ht="20.1" customHeight="1" spans="3:5">
       <c r="C32" s="1">
         <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E32" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" ht="20.1" customHeight="1" spans="3:5">
       <c r="C33" s="1">
         <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" ht="20.1" customHeight="1" spans="3:5">
       <c r="C34" s="1">
         <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="20.1" customHeight="1" spans="3:5">
       <c r="C35" s="1">
         <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E35" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" ht="20.1" customHeight="1" spans="3:5">
       <c r="C36" s="1">
         <v>31</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E36" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="20.1" customHeight="1" spans="3:5">
       <c r="C37" s="1">
         <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" ht="20.1" customHeight="1" spans="3:5">
       <c r="C38" s="1">
         <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" ht="20.1" customHeight="1" spans="3:5">
       <c r="C39" s="1">
         <v>35</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E39" s="1">
         <v>86400</v>
       </c>
     </row>
-    <row r="40" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" ht="20.1" customHeight="1" spans="3:5">
       <c r="C40" s="1">
         <v>36</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E40" s="1">
         <v>259200</v>
       </c>
     </row>
-    <row r="41" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" ht="20.1" customHeight="1" spans="3:5">
       <c r="C41" s="1">
         <v>37</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E41" s="1">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="20.1" customHeight="1" spans="3:5">
       <c r="C42" s="1">
         <v>38</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" ht="20.1" customHeight="1" spans="3:5">
       <c r="C43" s="1">
         <v>39</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" ht="20.1" customHeight="1" spans="3:5">
       <c r="C44" s="1">
         <v>40</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" ht="20.1" customHeight="1" spans="3:6">
       <c r="C45" s="1">
         <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E45" s="1">
         <v>65</v>
@@ -1542,37 +2120,37 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" ht="20.1" customHeight="1" spans="3:5">
       <c r="C46" s="1">
         <v>42</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" ht="20.1" customHeight="1" spans="3:7">
       <c r="C47" s="1">
         <v>43</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" ht="20.1" customHeight="1" spans="3:6">
       <c r="C48" s="1">
         <v>44</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E48" s="1">
         <v>20</v>
@@ -1581,12 +2159,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" ht="20.1" customHeight="1" spans="3:6">
       <c r="C49" s="1">
         <v>45</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E49" s="1">
         <v>500</v>
@@ -1595,12 +2173,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" ht="20.1" customHeight="1" spans="3:6">
       <c r="C50" s="1">
         <v>46</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E50" s="1">
         <v>500</v>
@@ -1609,12 +2187,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" ht="20.1" customHeight="1" spans="3:6">
       <c r="C51" s="1">
         <v>47</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E51" s="1">
         <v>101</v>
@@ -1623,34 +2201,34 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" ht="20.1" customHeight="1" spans="3:5">
       <c r="C52" s="1">
         <v>48</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" ht="20.1" customHeight="1" spans="3:5">
       <c r="C53" s="1">
         <v>49</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" ht="20.1" customHeight="1" spans="3:6">
       <c r="C54" s="1">
         <v>50</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E54" s="1">
         <v>50</v>
@@ -1659,57 +2237,57 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" ht="20.1" customHeight="1" spans="3:5">
       <c r="C55" s="1">
         <v>51</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" ht="20.1" customHeight="1" spans="3:6">
       <c r="C56" s="1">
         <v>52</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" ht="20.1" customHeight="1" spans="3:5">
       <c r="C57" s="1">
         <v>53</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" ht="20.1" customHeight="1" spans="3:5">
       <c r="C58" s="1">
         <v>54</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" ht="20.1" customHeight="1" spans="3:6">
       <c r="C59" s="1">
         <v>55</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E59" s="1">
         <v>20000001</v>
@@ -1718,23 +2296,23 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="60" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" ht="20.1" customHeight="1" spans="3:5">
       <c r="C60" s="1">
         <v>56</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" ht="20.1" customHeight="1" spans="3:6">
       <c r="C61" s="1">
         <v>57</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E61" s="1">
         <v>100</v>
@@ -1743,12 +2321,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" ht="20.1" customHeight="1" spans="3:6">
       <c r="C62" s="1">
         <v>58</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E62" s="1">
         <v>10</v>
@@ -1757,12 +2335,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" ht="20.1" customHeight="1" spans="3:6">
       <c r="C63" s="1">
         <v>59</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E63" s="1">
         <v>30</v>
@@ -1771,12 +2349,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" ht="20.1" customHeight="1" spans="3:6">
       <c r="C64" s="1">
         <v>60</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1">
         <v>60</v>
@@ -1785,45 +2363,45 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" ht="20.1" customHeight="1" spans="3:5">
       <c r="C65" s="1">
         <v>61</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" ht="20.1" customHeight="1" spans="3:5">
       <c r="C66" s="1">
         <v>62</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" ht="20.1" customHeight="1" spans="3:5">
       <c r="C67" s="1">
         <v>63</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" ht="20.1" customHeight="1" spans="3:6">
       <c r="C68" s="1">
         <v>64</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E68" s="1">
         <v>30000001</v>
@@ -1832,89 +2410,89 @@
         <v>30000001</v>
       </c>
     </row>
-    <row r="69" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" ht="20.1" customHeight="1" spans="3:5">
       <c r="C69" s="1">
         <v>65</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" ht="20.1" customHeight="1" spans="3:5">
       <c r="C70" s="1">
         <v>66</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" ht="20.1" customHeight="1" spans="3:5">
       <c r="C71" s="1">
         <v>67</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" ht="20.1" customHeight="1" spans="3:5">
       <c r="C72" s="1">
         <v>68</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E72" s="7">
         <v>60500101</v>
       </c>
     </row>
-    <row r="73" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" ht="20.1" customHeight="1" spans="3:5">
       <c r="C73" s="1">
         <v>69</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E73" s="7">
         <v>60500201</v>
       </c>
     </row>
-    <row r="74" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" ht="20.1" customHeight="1" spans="3:5">
       <c r="C74" s="1">
         <v>70</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" ht="20.1" customHeight="1" spans="3:5">
       <c r="C75" s="1">
         <v>71</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" ht="20.1" customHeight="1" spans="3:6">
       <c r="C76" s="1">
         <v>72</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E76" s="1">
         <v>180</v>
@@ -1923,12 +2501,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" ht="20.1" customHeight="1" spans="3:6">
       <c r="C77" s="1">
         <v>73</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E77" s="1">
         <v>880</v>
@@ -1937,12 +2515,12 @@
         <v>880</v>
       </c>
     </row>
-    <row r="78" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C78" s="1">
         <v>74</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E78" s="1">
         <v>3</v>
@@ -1951,23 +2529,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" ht="20.1" customHeight="1" spans="3:5">
       <c r="C79" s="1">
         <v>75</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E79" s="1">
         <v>601502001</v>
       </c>
     </row>
-    <row r="80" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" ht="20.1" customHeight="1" spans="3:6">
       <c r="C80" s="1">
         <v>76</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E80" s="1">
         <v>40000001</v>
@@ -1976,23 +2554,23 @@
         <v>40000001</v>
       </c>
     </row>
-    <row r="81" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" ht="20.1" customHeight="1" spans="3:5">
       <c r="C81" s="1">
         <v>77</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E81" s="1">
         <v>601503011</v>
       </c>
     </row>
-    <row r="82" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" ht="20.1" customHeight="1" spans="3:6">
       <c r="C82" s="1">
         <v>78</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E82" s="1">
         <v>100</v>
@@ -2001,67 +2579,67 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" ht="20.1" customHeight="1" spans="3:5">
       <c r="C83" s="1">
         <v>79</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" ht="20.1" customHeight="1" spans="3:5">
       <c r="C84" s="1">
         <v>80</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" ht="20.1" customHeight="1" spans="3:5">
       <c r="C85" s="1">
         <v>81</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E85" s="7">
         <v>60303101</v>
       </c>
     </row>
-    <row r="86" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" ht="20.1" customHeight="1" spans="3:5">
       <c r="C86" s="1">
         <v>82</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" ht="20.1" customHeight="1" spans="3:5">
       <c r="C87" s="1">
         <v>83</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" ht="20.1" customHeight="1" spans="3:6">
       <c r="C88" s="1">
         <v>84</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E88" s="1">
         <v>10</v>
@@ -2070,12 +2648,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" ht="20.1" customHeight="1" spans="3:6">
       <c r="C89" s="1">
         <v>85</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E89" s="1">
         <v>10</v>
@@ -2084,89 +2662,89 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" ht="20.1" customHeight="1" spans="3:5">
       <c r="C90" s="1">
         <v>86</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="91" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" ht="20.1" customHeight="1" spans="3:5">
       <c r="C91" s="1">
         <v>87</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="92" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" ht="20.1" customHeight="1" spans="3:5">
       <c r="C92" s="1">
         <v>88</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="93" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" ht="20.1" customHeight="1" spans="3:5">
       <c r="C93" s="1">
         <v>89</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E93" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="94" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" ht="20.1" customHeight="1" spans="3:5">
       <c r="C94" s="1">
         <v>90</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E94" s="1">
         <v>10000158</v>
       </c>
     </row>
-    <row r="95" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" ht="20.1" customHeight="1" spans="3:5">
       <c r="C95" s="1">
         <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E95" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" ht="20.1" customHeight="1" spans="3:5">
       <c r="C96" s="1">
         <v>92</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="97" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" ht="20.1" customHeight="1" spans="3:6">
       <c r="C97" s="1">
         <v>93</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E97" s="1">
         <v>30</v>
@@ -2175,12 +2753,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" ht="20.1" customHeight="1" spans="3:6">
       <c r="C98" s="1">
         <v>94</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E98" s="1">
         <v>200000</v>
@@ -2189,12 +2767,12 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="99" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" ht="20.1" customHeight="1" spans="3:6">
       <c r="C99" s="1">
         <v>95</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E99" s="1">
         <v>120</v>
@@ -2203,34 +2781,34 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" ht="20.1" customHeight="1" spans="3:5">
       <c r="C100" s="1">
         <v>96</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="101" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" ht="20.1" customHeight="1" spans="3:5">
       <c r="C101" s="1">
         <v>97</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="102" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" ht="20.1" customHeight="1" spans="3:6">
       <c r="C102" s="1">
         <v>98</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E102" s="1">
         <v>30000</v>
@@ -2239,12 +2817,12 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="103" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" ht="20.1" customHeight="1" spans="3:6">
       <c r="C103" s="1">
         <v>99</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E103" s="1">
         <v>61300001</v>
@@ -2253,45 +2831,45 @@
         <v>61300001</v>
       </c>
     </row>
-    <row r="104" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" ht="20.1" customHeight="1" spans="3:5">
       <c r="C104" s="1">
         <v>100</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="105" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" ht="20.1" customHeight="1" spans="3:5">
       <c r="C105" s="1">
         <v>101</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="106" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" ht="20.1" customHeight="1" spans="3:5">
       <c r="C106" s="1">
         <v>102</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="107" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" ht="20.1" customHeight="1" spans="3:6">
       <c r="C107" s="1">
         <v>103</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E107" s="1">
         <v>70000001</v>
@@ -2300,23 +2878,23 @@
         <v>70000001</v>
       </c>
     </row>
-    <row r="108" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" ht="20.1" customHeight="1" spans="3:5">
       <c r="C108" s="1">
         <v>104</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E108" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" ht="20.1" customHeight="1" spans="3:6">
       <c r="C109" s="1">
         <v>105</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E109" s="1">
         <v>30</v>
@@ -2325,12 +2903,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" ht="20.1" customHeight="1" spans="3:6">
       <c r="C110" s="1">
         <v>106</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E110" s="1">
         <v>80000001</v>
@@ -2339,23 +2917,23 @@
         <v>80000001</v>
       </c>
     </row>
-    <row r="111" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" ht="20.1" customHeight="1" spans="3:5">
       <c r="C111" s="1">
         <v>107</v>
       </c>
-      <c r="D111" s="10" t="s">
-        <v>151</v>
+      <c r="D111" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="112" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" ht="20.1" customHeight="1" spans="3:6">
       <c r="C112" s="1">
         <v>108</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E112" s="1">
         <v>10</v>
@@ -2364,12 +2942,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" ht="20.1" customHeight="1" spans="3:6">
       <c r="C113" s="1">
         <v>109</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -2378,45 +2956,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" ht="20.1" customHeight="1" spans="3:5">
       <c r="C114" s="1">
         <v>110</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="115" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" ht="20.1" customHeight="1" spans="3:5">
       <c r="C115" s="1">
         <v>111</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="116" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" ht="20.1" customHeight="1" spans="3:5">
       <c r="C116" s="1">
         <v>112</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="117" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" ht="20.1" customHeight="1" spans="3:6">
       <c r="C117" s="1">
         <v>113</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E117" s="1">
         <v>198</v>
@@ -2425,12 +3003,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="118" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" ht="20.1" customHeight="1" spans="3:6">
       <c r="C118" s="1">
         <v>114</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E118" s="1">
         <v>90000001</v>
@@ -2439,12 +3017,12 @@
         <v>90000001</v>
       </c>
     </row>
-    <row r="119" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" ht="20.1" customHeight="1" spans="3:6">
       <c r="C119" s="1">
         <v>115</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E119" s="1">
         <v>120</v>
@@ -2453,23 +3031,23 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" ht="20.1" customHeight="1" spans="3:5">
       <c r="C120" s="1">
         <v>116</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="121" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="121" ht="20.1" customHeight="1" spans="3:6">
       <c r="C121" s="1">
         <v>117</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E121" s="1">
         <v>3</v>
@@ -2478,12 +3056,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" ht="20.1" customHeight="1" spans="3:6">
       <c r="C122" s="1">
         <v>118</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E122" s="1">
         <v>50</v>
@@ -2492,12 +3070,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" ht="20.1" customHeight="1" spans="3:6">
       <c r="C123" s="1">
         <v>119</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E123" s="1">
         <v>60</v>
@@ -2506,15 +3084,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="20.1" customHeight="1"/>
+    <row r="125" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E115" r:id="rId1" display="1350@602100001" xr:uid="{83D71992-AE17-4664-8460-4CE4ECA81E7C}"/>
+    <hyperlink ref="E115" r:id="rId3" display="10000131;100@601800051"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E90B9F-33B5-44B2-AA44-9CC9DB2FA5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalValueProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="D84" authorId="0">
+    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -570,14 +563,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,156 +599,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -774,194 +623,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -969,253 +632,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1237,65 +658,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1582,19 +959,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
@@ -1607,13 +984,13 @@
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1" spans="4:4">
+    <row r="1" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:8">
+    <row r="3" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1629,7 +1006,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:8">
+    <row r="4" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1643,7 +1020,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:8">
+    <row r="5" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1657,7 +1034,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="6" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1668,7 +1045,7 @@
         <v>30010000</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="7" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1676,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="1">
-        <v>60000011</v>
-      </c>
-    </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:6">
+        <v>600000111</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1693,7 +1070,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:6">
+    <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1707,7 +1084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:5">
+    <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="8">
         <v>5</v>
       </c>
@@ -1718,7 +1095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:5">
+    <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1729,7 +1106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:5">
+    <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8">
         <v>7</v>
       </c>
@@ -1740,7 +1117,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:5">
+    <row r="13" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="8">
         <v>8</v>
       </c>
@@ -1751,7 +1128,7 @@
         <v>210000001</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:5">
+    <row r="14" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1762,7 +1139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:6">
+    <row r="15" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1776,7 +1153,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:5">
+    <row r="16" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -1787,7 +1164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:6">
+    <row r="17" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>12</v>
       </c>
@@ -1801,7 +1178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:5">
+    <row r="18" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>13</v>
       </c>
@@ -1812,7 +1189,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:5">
+    <row r="19" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>14</v>
       </c>
@@ -1823,7 +1200,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:5">
+    <row r="20" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -1834,7 +1211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:5">
+    <row r="21" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -1845,7 +1222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:5">
+    <row r="22" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -1856,7 +1233,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:5">
+    <row r="23" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -1867,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="24" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="1">
         <v>19</v>
       </c>
@@ -1881,7 +1258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:5">
+    <row r="25" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
         <v>20</v>
       </c>
@@ -1892,7 +1269,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="26" ht="20.1" customHeight="1" spans="3:5">
+    <row r="26" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
         <v>21</v>
       </c>
@@ -1903,7 +1280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="27" spans="3:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="1">
         <v>22</v>
       </c>
@@ -1914,7 +1291,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="28" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
         <v>23</v>
       </c>
@@ -1926,7 +1303,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="29" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>24</v>
       </c>
@@ -1938,7 +1315,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:6">
+    <row r="30" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
         <v>25</v>
       </c>
@@ -1952,7 +1329,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:5">
+    <row r="31" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
         <v>26</v>
       </c>
@@ -1963,7 +1340,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:5">
+    <row r="32" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
         <v>27</v>
       </c>
@@ -1974,7 +1351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:5">
+    <row r="33" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
         <v>28</v>
       </c>
@@ -1985,7 +1362,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:5">
+    <row r="34" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
         <v>29</v>
       </c>
@@ -1996,7 +1373,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:5">
+    <row r="35" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
         <v>30</v>
       </c>
@@ -2007,7 +1384,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" ht="20.1" customHeight="1" spans="3:5">
+    <row r="36" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
         <v>31</v>
       </c>
@@ -2018,7 +1395,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:5">
+    <row r="37" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
         <v>33</v>
       </c>
@@ -2029,7 +1406,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:5">
+    <row r="38" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="1">
         <v>34</v>
       </c>
@@ -2040,7 +1417,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:5">
+    <row r="39" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="1">
         <v>35</v>
       </c>
@@ -2051,7 +1428,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="40" ht="20.1" customHeight="1" spans="3:5">
+    <row r="40" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1">
         <v>36</v>
       </c>
@@ -2062,7 +1439,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:5">
+    <row r="41" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
         <v>37</v>
       </c>
@@ -2073,7 +1450,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="42" ht="20.1" customHeight="1" spans="3:5">
+    <row r="42" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
         <v>38</v>
       </c>
@@ -2084,7 +1461,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" ht="20.1" customHeight="1" spans="3:5">
+    <row r="43" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="1">
         <v>39</v>
       </c>
@@ -2095,7 +1472,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" ht="20.1" customHeight="1" spans="3:5">
+    <row r="44" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="1">
         <v>40</v>
       </c>
@@ -2106,7 +1483,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:6">
+    <row r="45" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="1">
         <v>41</v>
       </c>
@@ -2120,7 +1497,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:5">
+    <row r="46" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="1">
         <v>42</v>
       </c>
@@ -2131,7 +1508,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:7">
+    <row r="47" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="1">
         <v>43</v>
       </c>
@@ -2145,7 +1522,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:6">
+    <row r="48" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="1">
         <v>44</v>
       </c>
@@ -2159,7 +1536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" ht="20.1" customHeight="1" spans="3:6">
+    <row r="49" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="1">
         <v>45</v>
       </c>
@@ -2173,7 +1550,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" ht="20.1" customHeight="1" spans="3:6">
+    <row r="50" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="1">
         <v>46</v>
       </c>
@@ -2187,7 +1564,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" ht="20.1" customHeight="1" spans="3:6">
+    <row r="51" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="1">
         <v>47</v>
       </c>
@@ -2201,7 +1578,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" ht="20.1" customHeight="1" spans="3:5">
+    <row r="52" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="1">
         <v>48</v>
       </c>
@@ -2212,7 +1589,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" ht="20.1" customHeight="1" spans="3:5">
+    <row r="53" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="1">
         <v>49</v>
       </c>
@@ -2223,7 +1600,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" ht="20.1" customHeight="1" spans="3:6">
+    <row r="54" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="1">
         <v>50</v>
       </c>
@@ -2237,7 +1614,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" ht="20.1" customHeight="1" spans="3:5">
+    <row r="55" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="1">
         <v>51</v>
       </c>
@@ -2248,7 +1625,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" ht="20.1" customHeight="1" spans="3:6">
+    <row r="56" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="1">
         <v>52</v>
       </c>
@@ -2260,7 +1637,7 @@
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" ht="20.1" customHeight="1" spans="3:5">
+    <row r="57" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="1">
         <v>53</v>
       </c>
@@ -2271,7 +1648,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" ht="20.1" customHeight="1" spans="3:5">
+    <row r="58" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="1">
         <v>54</v>
       </c>
@@ -2282,7 +1659,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" ht="20.1" customHeight="1" spans="3:6">
+    <row r="59" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="1">
         <v>55</v>
       </c>
@@ -2296,7 +1673,7 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="60" ht="20.1" customHeight="1" spans="3:5">
+    <row r="60" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="1">
         <v>56</v>
       </c>
@@ -2307,7 +1684,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" ht="20.1" customHeight="1" spans="3:6">
+    <row r="61" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="1">
         <v>57</v>
       </c>
@@ -2321,7 +1698,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" ht="20.1" customHeight="1" spans="3:6">
+    <row r="62" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="1">
         <v>58</v>
       </c>
@@ -2335,7 +1712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" ht="20.1" customHeight="1" spans="3:6">
+    <row r="63" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="1">
         <v>59</v>
       </c>
@@ -2349,7 +1726,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" ht="20.1" customHeight="1" spans="3:6">
+    <row r="64" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="1">
         <v>60</v>
       </c>
@@ -2363,7 +1740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" ht="20.1" customHeight="1" spans="3:5">
+    <row r="65" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="1">
         <v>61</v>
       </c>
@@ -2374,7 +1751,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" ht="20.1" customHeight="1" spans="3:5">
+    <row r="66" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="1">
         <v>62</v>
       </c>
@@ -2385,7 +1762,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" ht="20.1" customHeight="1" spans="3:5">
+    <row r="67" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="1">
         <v>63</v>
       </c>
@@ -2396,7 +1773,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" ht="20.1" customHeight="1" spans="3:6">
+    <row r="68" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="1">
         <v>64</v>
       </c>
@@ -2410,7 +1787,7 @@
         <v>30000001</v>
       </c>
     </row>
-    <row r="69" ht="20.1" customHeight="1" spans="3:5">
+    <row r="69" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="1">
         <v>65</v>
       </c>
@@ -2421,7 +1798,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" ht="20.1" customHeight="1" spans="3:5">
+    <row r="70" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="1">
         <v>66</v>
       </c>
@@ -2432,7 +1809,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="71" ht="20.1" customHeight="1" spans="3:5">
+    <row r="71" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="1">
         <v>67</v>
       </c>
@@ -2443,7 +1820,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" ht="20.1" customHeight="1" spans="3:5">
+    <row r="72" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="1">
         <v>68</v>
       </c>
@@ -2454,7 +1831,7 @@
         <v>60500101</v>
       </c>
     </row>
-    <row r="73" ht="20.1" customHeight="1" spans="3:5">
+    <row r="73" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="1">
         <v>69</v>
       </c>
@@ -2465,7 +1842,7 @@
         <v>60500201</v>
       </c>
     </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:5">
+    <row r="74" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="1">
         <v>70</v>
       </c>
@@ -2476,7 +1853,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="75" ht="20.1" customHeight="1" spans="3:5">
+    <row r="75" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="1">
         <v>71</v>
       </c>
@@ -2487,7 +1864,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" ht="20.1" customHeight="1" spans="3:6">
+    <row r="76" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="1">
         <v>72</v>
       </c>
@@ -2501,7 +1878,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" ht="20.1" customHeight="1" spans="3:6">
+    <row r="77" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="1">
         <v>73</v>
       </c>
@@ -2515,7 +1892,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="78" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="1">
         <v>74</v>
       </c>
@@ -2529,7 +1906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" ht="20.1" customHeight="1" spans="3:5">
+    <row r="79" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="1">
         <v>75</v>
       </c>
@@ -2540,7 +1917,7 @@
         <v>601502001</v>
       </c>
     </row>
-    <row r="80" ht="20.1" customHeight="1" spans="3:6">
+    <row r="80" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="1">
         <v>76</v>
       </c>
@@ -2554,7 +1931,7 @@
         <v>40000001</v>
       </c>
     </row>
-    <row r="81" ht="20.1" customHeight="1" spans="3:5">
+    <row r="81" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="1">
         <v>77</v>
       </c>
@@ -2565,7 +1942,7 @@
         <v>601503011</v>
       </c>
     </row>
-    <row r="82" ht="20.1" customHeight="1" spans="3:6">
+    <row r="82" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="1">
         <v>78</v>
       </c>
@@ -2579,7 +1956,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" ht="20.1" customHeight="1" spans="3:5">
+    <row r="83" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="1">
         <v>79</v>
       </c>
@@ -2590,7 +1967,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="84" ht="20.1" customHeight="1" spans="3:5">
+    <row r="84" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="1">
         <v>80</v>
       </c>
@@ -2601,7 +1978,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="85" ht="20.1" customHeight="1" spans="3:5">
+    <row r="85" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="1">
         <v>81</v>
       </c>
@@ -2612,7 +1989,7 @@
         <v>60303101</v>
       </c>
     </row>
-    <row r="86" ht="20.1" customHeight="1" spans="3:5">
+    <row r="86" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="1">
         <v>82</v>
       </c>
@@ -2623,7 +2000,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="87" ht="20.1" customHeight="1" spans="3:5">
+    <row r="87" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="1">
         <v>83</v>
       </c>
@@ -2634,7 +2011,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="88" ht="20.1" customHeight="1" spans="3:6">
+    <row r="88" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="1">
         <v>84</v>
       </c>
@@ -2648,7 +2025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" ht="20.1" customHeight="1" spans="3:6">
+    <row r="89" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="1">
         <v>85</v>
       </c>
@@ -2662,7 +2039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" ht="20.1" customHeight="1" spans="3:5">
+    <row r="90" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="1">
         <v>86</v>
       </c>
@@ -2673,7 +2050,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="91" ht="20.1" customHeight="1" spans="3:5">
+    <row r="91" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="1">
         <v>87</v>
       </c>
@@ -2684,7 +2061,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" ht="20.1" customHeight="1" spans="3:5">
+    <row r="92" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="1">
         <v>88</v>
       </c>
@@ -2695,7 +2072,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="93" ht="20.1" customHeight="1" spans="3:5">
+    <row r="93" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="1">
         <v>89</v>
       </c>
@@ -2706,7 +2083,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="94" ht="20.1" customHeight="1" spans="3:5">
+    <row r="94" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="1">
         <v>90</v>
       </c>
@@ -2717,7 +2094,7 @@
         <v>10000158</v>
       </c>
     </row>
-    <row r="95" ht="20.1" customHeight="1" spans="3:5">
+    <row r="95" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="1">
         <v>91</v>
       </c>
@@ -2728,7 +2105,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" ht="20.1" customHeight="1" spans="3:5">
+    <row r="96" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="1">
         <v>92</v>
       </c>
@@ -2739,7 +2116,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="97" ht="20.1" customHeight="1" spans="3:6">
+    <row r="97" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="1">
         <v>93</v>
       </c>
@@ -2753,7 +2130,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" ht="20.1" customHeight="1" spans="3:6">
+    <row r="98" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="1">
         <v>94</v>
       </c>
@@ -2767,7 +2144,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="99" ht="20.1" customHeight="1" spans="3:6">
+    <row r="99" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="1">
         <v>95</v>
       </c>
@@ -2781,7 +2158,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" ht="20.1" customHeight="1" spans="3:5">
+    <row r="100" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="1">
         <v>96</v>
       </c>
@@ -2792,7 +2169,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="101" ht="20.1" customHeight="1" spans="3:5">
+    <row r="101" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="1">
         <v>97</v>
       </c>
@@ -2803,7 +2180,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="102" ht="20.1" customHeight="1" spans="3:6">
+    <row r="102" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="1">
         <v>98</v>
       </c>
@@ -2817,7 +2194,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="103" ht="20.1" customHeight="1" spans="3:6">
+    <row r="103" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="1">
         <v>99</v>
       </c>
@@ -2831,7 +2208,7 @@
         <v>61300001</v>
       </c>
     </row>
-    <row r="104" ht="20.1" customHeight="1" spans="3:5">
+    <row r="104" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="1">
         <v>100</v>
       </c>
@@ -2842,7 +2219,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="105" ht="20.1" customHeight="1" spans="3:5">
+    <row r="105" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="1">
         <v>101</v>
       </c>
@@ -2853,7 +2230,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="106" ht="20.1" customHeight="1" spans="3:5">
+    <row r="106" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="1">
         <v>102</v>
       </c>
@@ -2864,7 +2241,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="107" ht="20.1" customHeight="1" spans="3:6">
+    <row r="107" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="1">
         <v>103</v>
       </c>
@@ -2878,7 +2255,7 @@
         <v>70000001</v>
       </c>
     </row>
-    <row r="108" ht="20.1" customHeight="1" spans="3:5">
+    <row r="108" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="1">
         <v>104</v>
       </c>
@@ -2889,7 +2266,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="109" ht="20.1" customHeight="1" spans="3:6">
+    <row r="109" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="1">
         <v>105</v>
       </c>
@@ -2903,7 +2280,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" ht="20.1" customHeight="1" spans="3:6">
+    <row r="110" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="1">
         <v>106</v>
       </c>
@@ -2917,7 +2294,7 @@
         <v>80000001</v>
       </c>
     </row>
-    <row r="111" ht="20.1" customHeight="1" spans="3:5">
+    <row r="111" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="1">
         <v>107</v>
       </c>
@@ -2928,7 +2305,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="112" ht="20.1" customHeight="1" spans="3:6">
+    <row r="112" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C112" s="1">
         <v>108</v>
       </c>
@@ -2942,7 +2319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" ht="20.1" customHeight="1" spans="3:6">
+    <row r="113" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="1">
         <v>109</v>
       </c>
@@ -2956,7 +2333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" ht="20.1" customHeight="1" spans="3:5">
+    <row r="114" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="1">
         <v>110</v>
       </c>
@@ -2967,7 +2344,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="115" ht="20.1" customHeight="1" spans="3:5">
+    <row r="115" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="1">
         <v>111</v>
       </c>
@@ -2978,7 +2355,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="116" ht="20.1" customHeight="1" spans="3:5">
+    <row r="116" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116" s="1">
         <v>112</v>
       </c>
@@ -2989,7 +2366,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="117" ht="20.1" customHeight="1" spans="3:6">
+    <row r="117" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="1">
         <v>113</v>
       </c>
@@ -3003,7 +2380,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="118" ht="20.1" customHeight="1" spans="3:6">
+    <row r="118" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118" s="1">
         <v>114</v>
       </c>
@@ -3017,7 +2394,7 @@
         <v>90000001</v>
       </c>
     </row>
-    <row r="119" ht="20.1" customHeight="1" spans="3:6">
+    <row r="119" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="1">
         <v>115</v>
       </c>
@@ -3031,7 +2408,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" ht="20.1" customHeight="1" spans="3:5">
+    <row r="120" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="1">
         <v>116</v>
       </c>
@@ -3042,7 +2419,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="121" ht="20.1" customHeight="1" spans="3:6">
+    <row r="121" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="1">
         <v>117</v>
       </c>
@@ -3056,7 +2433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" ht="20.1" customHeight="1" spans="3:6">
+    <row r="122" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="1">
         <v>118</v>
       </c>
@@ -3070,7 +2447,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" ht="20.1" customHeight="1" spans="3:6">
+    <row r="123" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="1">
         <v>119</v>
       </c>
@@ -3084,15 +2461,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" ht="20.1" customHeight="1"/>
-    <row r="125" ht="20.1" customHeight="1"/>
+    <row r="124" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E115" r:id="rId3" display="10000131;100@601800051"/>
+    <hyperlink ref="E115" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E90B9F-33B5-44B2-AA44-9CC9DB2FA5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14603D0E-1B03-4390-A7C1-E2C784EF60F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalValueProto" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>刷新概率,每天刷新上限,刷新随机列表</t>
@@ -576,6 +577,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -583,12 +585,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -596,16 +600,19 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -968,7 +975,7 @@
   <dimension ref="C1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1042,7 +1049,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="7">
-        <v>30010000</v>
+        <v>100001</v>
       </c>
     </row>
     <row r="7" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14603D0E-1B03-4390-A7C1-E2C784EF60F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3E24FA-8971-4ED8-B9C9-7AE644D995B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="173">
   <si>
     <t>#</t>
   </si>
@@ -559,6 +559,10 @@
   </si>
   <si>
     <t>宠物背包数量</t>
+  </si>
+  <si>
+    <t>300011;300021;300031;300041;300051;300061;300071;300081;300091;300101;300111;300121</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -975,7 +979,7 @@
   <dimension ref="C1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1131,8 +1135,8 @@
       <c r="D13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="8">
-        <v>210000001</v>
+      <c r="E13" s="8" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -1,37 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3E24FA-8971-4ED8-B9C9-7AE644D995B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalValueProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D84" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>刷新概率,每天刷新上限,刷新随机列表</t>
@@ -43,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="174">
   <si>
     <t>#</t>
   </si>
@@ -105,6 +111,9 @@
     <t>每日活跃任务</t>
   </si>
   <si>
+    <t>300011;300021;300031;300041;300051;300061;300071;300081;300091;300101;300111;300121</t>
+  </si>
+  <si>
     <t>初始化药剂</t>
   </si>
   <si>
@@ -561,15 +570,20 @@
     <t>宠物背包数量</t>
   </si>
   <si>
-    <t>300011;300021;300031;300041;300051;300061;300071;300081;300091;300101;300111;300121</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>新商店ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,7 +595,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -589,14 +602,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -604,24 +615,159 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -634,8 +780,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -643,11 +975,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -669,21 +1243,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -970,19 +1588,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
@@ -995,13 +1613,13 @@
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.1" customHeight="1"/>
+    <row r="2" ht="20.1" customHeight="1" spans="4:4">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="20.1" customHeight="1" spans="3:8">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1017,7 +1635,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="20.1" customHeight="1" spans="3:8">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1031,7 +1649,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="20.1" customHeight="1" spans="3:8">
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1045,7 +1663,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1056,7 +1674,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="7" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1067,7 +1685,7 @@
         <v>600000111</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="20.1" customHeight="1" spans="3:6">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1081,7 +1699,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="20.1" customHeight="1" spans="3:6">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1095,7 +1713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="20.1" customHeight="1" spans="3:5">
       <c r="C10" s="8">
         <v>5</v>
       </c>
@@ -1106,7 +1724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="20.1" customHeight="1" spans="3:5">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1117,7 +1735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="20.1" customHeight="1" spans="3:5">
       <c r="C12" s="8">
         <v>7</v>
       </c>
@@ -1128,7 +1746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="20.1" customHeight="1" spans="3:5">
       <c r="C13" s="8">
         <v>8</v>
       </c>
@@ -1136,26 +1754,26 @@
         <v>19</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="20.1" customHeight="1" spans="3:5">
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="20.1" customHeight="1" spans="3:6">
       <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1">
         <v>160</v>
@@ -1164,23 +1782,23 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="20.1" customHeight="1" spans="3:5">
       <c r="C16" s="1">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" ht="20.1" customHeight="1" spans="3:6">
       <c r="C17" s="1">
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
@@ -1189,78 +1807,78 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="20.1" customHeight="1" spans="3:5">
       <c r="C18" s="1">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" ht="20.1" customHeight="1" spans="3:5">
       <c r="C19" s="1">
         <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" ht="20.1" customHeight="1" spans="3:5">
       <c r="C20" s="1">
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" ht="20.1" customHeight="1" spans="3:5">
       <c r="C21" s="1">
         <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" ht="20.1" customHeight="1" spans="3:5">
       <c r="C22" s="1">
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E22" s="1">
         <v>880</v>
       </c>
     </row>
-    <row r="23" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" ht="20.1" customHeight="1" spans="3:5">
       <c r="C23" s="1">
         <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C24" s="1">
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
@@ -1269,69 +1887,69 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" ht="20.1" customHeight="1" spans="3:5">
       <c r="C25" s="1">
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E25" s="1">
         <v>200000</v>
       </c>
     </row>
-    <row r="26" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" ht="20.1" customHeight="1" spans="3:5">
       <c r="C26" s="1">
         <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E26" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="3:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C27" s="1">
         <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E27" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C28" s="1">
         <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E28" s="1">
         <v>50</v>
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C29" s="1">
         <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E29" s="1">
         <v>7</v>
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" ht="20.1" customHeight="1" spans="3:6">
       <c r="C30" s="1">
         <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1">
         <v>5000</v>
@@ -1340,166 +1958,166 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" ht="20.1" customHeight="1" spans="3:5">
       <c r="C31" s="1">
         <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E31" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" ht="20.1" customHeight="1" spans="3:5">
       <c r="C32" s="1">
         <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E32" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" ht="20.1" customHeight="1" spans="3:5">
       <c r="C33" s="1">
         <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" ht="20.1" customHeight="1" spans="3:5">
       <c r="C34" s="1">
         <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E34" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="20.1" customHeight="1" spans="3:5">
       <c r="C35" s="1">
         <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E35" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" ht="20.1" customHeight="1" spans="3:5">
       <c r="C36" s="1">
         <v>31</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E36" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="20.1" customHeight="1" spans="3:5">
       <c r="C37" s="1">
         <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" ht="20.1" customHeight="1" spans="3:5">
       <c r="C38" s="1">
         <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" ht="20.1" customHeight="1" spans="3:5">
       <c r="C39" s="1">
         <v>35</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E39" s="1">
         <v>86400</v>
       </c>
     </row>
-    <row r="40" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" ht="20.1" customHeight="1" spans="3:5">
       <c r="C40" s="1">
         <v>36</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E40" s="1">
         <v>259200</v>
       </c>
     </row>
-    <row r="41" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" ht="20.1" customHeight="1" spans="3:5">
       <c r="C41" s="1">
         <v>37</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E41" s="1">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="20.1" customHeight="1" spans="3:5">
       <c r="C42" s="1">
         <v>38</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" ht="20.1" customHeight="1" spans="3:5">
       <c r="C43" s="1">
         <v>39</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" ht="20.1" customHeight="1" spans="3:5">
       <c r="C44" s="1">
         <v>40</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" ht="20.1" customHeight="1" spans="3:6">
       <c r="C45" s="1">
         <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E45" s="1">
         <v>65</v>
@@ -1508,37 +2126,37 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" ht="20.1" customHeight="1" spans="3:5">
       <c r="C46" s="1">
         <v>42</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" ht="20.1" customHeight="1" spans="3:7">
       <c r="C47" s="1">
         <v>43</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" ht="20.1" customHeight="1" spans="3:6">
       <c r="C48" s="1">
         <v>44</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E48" s="1">
         <v>20</v>
@@ -1547,12 +2165,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" ht="20.1" customHeight="1" spans="3:6">
       <c r="C49" s="1">
         <v>45</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E49" s="1">
         <v>500</v>
@@ -1561,12 +2179,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" ht="20.1" customHeight="1" spans="3:6">
       <c r="C50" s="1">
         <v>46</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E50" s="1">
         <v>500</v>
@@ -1575,12 +2193,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" ht="20.1" customHeight="1" spans="3:6">
       <c r="C51" s="1">
         <v>47</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E51" s="1">
         <v>101</v>
@@ -1589,34 +2207,34 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" ht="20.1" customHeight="1" spans="3:5">
       <c r="C52" s="1">
         <v>48</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" ht="20.1" customHeight="1" spans="3:5">
       <c r="C53" s="1">
         <v>49</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" ht="20.1" customHeight="1" spans="3:6">
       <c r="C54" s="1">
         <v>50</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E54" s="1">
         <v>50</v>
@@ -1625,57 +2243,57 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" ht="20.1" customHeight="1" spans="3:5">
       <c r="C55" s="1">
         <v>51</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" ht="20.1" customHeight="1" spans="3:6">
       <c r="C56" s="1">
         <v>52</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" ht="20.1" customHeight="1" spans="3:5">
       <c r="C57" s="1">
         <v>53</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" ht="20.1" customHeight="1" spans="3:5">
       <c r="C58" s="1">
         <v>54</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" ht="20.1" customHeight="1" spans="3:6">
       <c r="C59" s="1">
         <v>55</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59" s="1">
         <v>20000001</v>
@@ -1684,23 +2302,23 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="60" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" ht="20.1" customHeight="1" spans="3:5">
       <c r="C60" s="1">
         <v>56</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" ht="20.1" customHeight="1" spans="3:6">
       <c r="C61" s="1">
         <v>57</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E61" s="1">
         <v>100</v>
@@ -1709,12 +2327,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" ht="20.1" customHeight="1" spans="3:6">
       <c r="C62" s="1">
         <v>58</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E62" s="1">
         <v>10</v>
@@ -1723,12 +2341,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" ht="20.1" customHeight="1" spans="3:6">
       <c r="C63" s="1">
         <v>59</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1">
         <v>30</v>
@@ -1737,12 +2355,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" ht="20.1" customHeight="1" spans="3:6">
       <c r="C64" s="1">
         <v>60</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E64" s="1">
         <v>60</v>
@@ -1751,45 +2369,45 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" ht="20.1" customHeight="1" spans="3:5">
       <c r="C65" s="1">
         <v>61</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" ht="20.1" customHeight="1" spans="3:5">
       <c r="C66" s="1">
         <v>62</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" ht="20.1" customHeight="1" spans="3:5">
       <c r="C67" s="1">
         <v>63</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" ht="20.1" customHeight="1" spans="3:6">
       <c r="C68" s="1">
         <v>64</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E68" s="1">
         <v>30000001</v>
@@ -1798,89 +2416,89 @@
         <v>30000001</v>
       </c>
     </row>
-    <row r="69" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" ht="20.1" customHeight="1" spans="3:5">
       <c r="C69" s="1">
         <v>65</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" ht="20.1" customHeight="1" spans="3:5">
       <c r="C70" s="1">
         <v>66</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" ht="20.1" customHeight="1" spans="3:5">
       <c r="C71" s="1">
         <v>67</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" ht="20.1" customHeight="1" spans="3:5">
       <c r="C72" s="1">
         <v>68</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E72" s="7">
         <v>60500101</v>
       </c>
     </row>
-    <row r="73" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" ht="20.1" customHeight="1" spans="3:5">
       <c r="C73" s="1">
         <v>69</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E73" s="7">
         <v>60500201</v>
       </c>
     </row>
-    <row r="74" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" ht="20.1" customHeight="1" spans="3:5">
       <c r="C74" s="1">
         <v>70</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" ht="20.1" customHeight="1" spans="3:5">
       <c r="C75" s="1">
         <v>71</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" ht="20.1" customHeight="1" spans="3:6">
       <c r="C76" s="1">
         <v>72</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E76" s="1">
         <v>180</v>
@@ -1889,12 +2507,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" ht="20.1" customHeight="1" spans="3:6">
       <c r="C77" s="1">
         <v>73</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E77" s="1">
         <v>880</v>
@@ -1903,12 +2521,12 @@
         <v>880</v>
       </c>
     </row>
-    <row r="78" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C78" s="1">
         <v>74</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E78" s="1">
         <v>3</v>
@@ -1917,23 +2535,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" ht="20.1" customHeight="1" spans="3:5">
       <c r="C79" s="1">
         <v>75</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E79" s="1">
         <v>601502001</v>
       </c>
     </row>
-    <row r="80" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" ht="20.1" customHeight="1" spans="3:6">
       <c r="C80" s="1">
         <v>76</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E80" s="1">
         <v>40000001</v>
@@ -1942,23 +2560,23 @@
         <v>40000001</v>
       </c>
     </row>
-    <row r="81" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" ht="20.1" customHeight="1" spans="3:5">
       <c r="C81" s="1">
         <v>77</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E81" s="1">
         <v>601503011</v>
       </c>
     </row>
-    <row r="82" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" ht="20.1" customHeight="1" spans="3:6">
       <c r="C82" s="1">
         <v>78</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E82" s="1">
         <v>100</v>
@@ -1967,67 +2585,67 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" ht="20.1" customHeight="1" spans="3:5">
       <c r="C83" s="1">
         <v>79</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="84" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" ht="20.1" customHeight="1" spans="3:5">
       <c r="C84" s="1">
         <v>80</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" ht="20.1" customHeight="1" spans="3:5">
       <c r="C85" s="1">
         <v>81</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E85" s="7">
         <v>60303101</v>
       </c>
     </row>
-    <row r="86" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" ht="20.1" customHeight="1" spans="3:5">
       <c r="C86" s="1">
         <v>82</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" ht="20.1" customHeight="1" spans="3:5">
       <c r="C87" s="1">
         <v>83</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="88" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" ht="20.1" customHeight="1" spans="3:6">
       <c r="C88" s="1">
         <v>84</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E88" s="1">
         <v>10</v>
@@ -2036,12 +2654,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" ht="20.1" customHeight="1" spans="3:6">
       <c r="C89" s="1">
         <v>85</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E89" s="1">
         <v>10</v>
@@ -2050,89 +2668,89 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" ht="20.1" customHeight="1" spans="3:5">
       <c r="C90" s="1">
         <v>86</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="91" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" ht="20.1" customHeight="1" spans="3:5">
       <c r="C91" s="1">
         <v>87</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="92" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" ht="20.1" customHeight="1" spans="3:5">
       <c r="C92" s="1">
         <v>88</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="93" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" ht="20.1" customHeight="1" spans="3:5">
       <c r="C93" s="1">
         <v>89</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E93" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="94" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" ht="20.1" customHeight="1" spans="3:5">
       <c r="C94" s="1">
         <v>90</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E94" s="1">
         <v>10000158</v>
       </c>
     </row>
-    <row r="95" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" ht="20.1" customHeight="1" spans="3:5">
       <c r="C95" s="1">
         <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E95" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" ht="20.1" customHeight="1" spans="3:5">
       <c r="C96" s="1">
         <v>92</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="97" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" ht="20.1" customHeight="1" spans="3:6">
       <c r="C97" s="1">
         <v>93</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E97" s="1">
         <v>30</v>
@@ -2141,12 +2759,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" ht="20.1" customHeight="1" spans="3:6">
       <c r="C98" s="1">
         <v>94</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E98" s="1">
         <v>200000</v>
@@ -2155,12 +2773,12 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="99" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" ht="20.1" customHeight="1" spans="3:6">
       <c r="C99" s="1">
         <v>95</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E99" s="1">
         <v>120</v>
@@ -2169,34 +2787,34 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" ht="20.1" customHeight="1" spans="3:5">
       <c r="C100" s="1">
         <v>96</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="101" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" ht="20.1" customHeight="1" spans="3:5">
       <c r="C101" s="1">
         <v>97</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="102" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" ht="20.1" customHeight="1" spans="3:6">
       <c r="C102" s="1">
         <v>98</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E102" s="1">
         <v>30000</v>
@@ -2205,12 +2823,12 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="103" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" ht="20.1" customHeight="1" spans="3:6">
       <c r="C103" s="1">
         <v>99</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E103" s="1">
         <v>61300001</v>
@@ -2219,45 +2837,45 @@
         <v>61300001</v>
       </c>
     </row>
-    <row r="104" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" ht="20.1" customHeight="1" spans="3:5">
       <c r="C104" s="1">
         <v>100</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="105" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" ht="20.1" customHeight="1" spans="3:5">
       <c r="C105" s="1">
         <v>101</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="106" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" ht="20.1" customHeight="1" spans="3:5">
       <c r="C106" s="1">
         <v>102</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="107" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" ht="20.1" customHeight="1" spans="3:6">
       <c r="C107" s="1">
         <v>103</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E107" s="1">
         <v>70000001</v>
@@ -2266,23 +2884,23 @@
         <v>70000001</v>
       </c>
     </row>
-    <row r="108" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" ht="20.1" customHeight="1" spans="3:5">
       <c r="C108" s="1">
         <v>104</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E108" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" ht="20.1" customHeight="1" spans="3:6">
       <c r="C109" s="1">
         <v>105</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E109" s="1">
         <v>30</v>
@@ -2291,12 +2909,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" ht="20.1" customHeight="1" spans="3:6">
       <c r="C110" s="1">
         <v>106</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E110" s="1">
         <v>80000001</v>
@@ -2305,23 +2923,23 @@
         <v>80000001</v>
       </c>
     </row>
-    <row r="111" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" ht="20.1" customHeight="1" spans="3:5">
       <c r="C111" s="1">
         <v>107</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="112" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" ht="20.1" customHeight="1" spans="3:6">
       <c r="C112" s="1">
         <v>108</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E112" s="1">
         <v>10</v>
@@ -2330,12 +2948,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" ht="20.1" customHeight="1" spans="3:6">
       <c r="C113" s="1">
         <v>109</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -2344,45 +2962,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" ht="20.1" customHeight="1" spans="3:5">
       <c r="C114" s="1">
         <v>110</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="115" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" ht="20.1" customHeight="1" spans="3:5">
       <c r="C115" s="1">
         <v>111</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="116" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" ht="20.1" customHeight="1" spans="3:5">
       <c r="C116" s="1">
         <v>112</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="117" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" ht="20.1" customHeight="1" spans="3:6">
       <c r="C117" s="1">
         <v>113</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E117" s="1">
         <v>198</v>
@@ -2391,12 +3009,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="118" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" ht="20.1" customHeight="1" spans="3:6">
       <c r="C118" s="1">
         <v>114</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E118" s="1">
         <v>90000001</v>
@@ -2405,12 +3023,12 @@
         <v>90000001</v>
       </c>
     </row>
-    <row r="119" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" ht="20.1" customHeight="1" spans="3:6">
       <c r="C119" s="1">
         <v>115</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E119" s="1">
         <v>120</v>
@@ -2419,23 +3037,23 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" ht="20.1" customHeight="1" spans="3:5">
       <c r="C120" s="1">
         <v>116</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="121" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121" ht="20.1" customHeight="1" spans="3:6">
       <c r="C121" s="1">
         <v>117</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E121" s="1">
         <v>3</v>
@@ -2444,12 +3062,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" ht="20.1" customHeight="1" spans="3:6">
       <c r="C122" s="1">
         <v>118</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E122" s="1">
         <v>50</v>
@@ -2458,12 +3076,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" ht="20.1" customHeight="1" spans="3:6">
       <c r="C123" s="1">
         <v>119</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E123" s="1">
         <v>60</v>
@@ -2472,15 +3090,28 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="20.1" customHeight="1" spans="3:6">
+      <c r="C124" s="1">
+        <v>120</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E124" s="1">
+        <v>20000001</v>
+      </c>
+      <c r="F124" s="1">
+        <v>20000001</v>
+      </c>
+    </row>
+    <row r="125" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E115" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E115" r:id="rId3" display="10000131;100@601800051"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C1AB03-720F-46A8-BC8F-ECA86FEDDD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalValueProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="D84" authorId="0">
+    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -576,14 +569,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,156 +605,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -780,194 +629,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -975,253 +638,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1243,65 +664,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1588,19 +965,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
@@ -1613,13 +990,13 @@
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1" spans="4:4">
+    <row r="1" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:8">
+    <row r="3" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1635,7 +1012,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:8">
+    <row r="4" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1649,7 +1026,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:8">
+    <row r="5" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1663,7 +1040,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="6" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1674,7 +1051,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="7" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1685,7 +1062,7 @@
         <v>600000111</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:6">
+    <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1699,7 +1076,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:6">
+    <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1713,7 +1090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:5">
+    <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="8">
         <v>5</v>
       </c>
@@ -1724,7 +1101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:5">
+    <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1735,7 +1112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:5">
+    <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8">
         <v>7</v>
       </c>
@@ -1746,7 +1123,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:5">
+    <row r="13" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="8">
         <v>8</v>
       </c>
@@ -1757,7 +1134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:5">
+    <row r="14" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1768,7 +1145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:6">
+    <row r="15" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1782,7 +1159,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:5">
+    <row r="16" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -1793,7 +1170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:6">
+    <row r="17" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>12</v>
       </c>
@@ -1807,7 +1184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:5">
+    <row r="18" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>13</v>
       </c>
@@ -1818,7 +1195,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:5">
+    <row r="19" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>14</v>
       </c>
@@ -1829,7 +1206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:5">
+    <row r="20" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -1840,7 +1217,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:5">
+    <row r="21" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -1851,7 +1228,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:5">
+    <row r="22" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -1862,7 +1239,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:5">
+    <row r="23" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -1873,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="24" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="1">
         <v>19</v>
       </c>
@@ -1887,7 +1264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:5">
+    <row r="25" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
         <v>20</v>
       </c>
@@ -1898,7 +1275,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="26" ht="20.1" customHeight="1" spans="3:5">
+    <row r="26" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
         <v>21</v>
       </c>
@@ -1909,7 +1286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="27" spans="3:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="1">
         <v>22</v>
       </c>
@@ -1917,10 +1294,10 @@
         <v>40</v>
       </c>
       <c r="E27" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
         <v>23</v>
       </c>
@@ -1932,7 +1309,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="29" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>24</v>
       </c>
@@ -1944,7 +1321,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:6">
+    <row r="30" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
         <v>25</v>
       </c>
@@ -1958,7 +1335,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:5">
+    <row r="31" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
         <v>26</v>
       </c>
@@ -1969,7 +1346,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:5">
+    <row r="32" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
         <v>27</v>
       </c>
@@ -1980,7 +1357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:5">
+    <row r="33" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
         <v>28</v>
       </c>
@@ -1991,7 +1368,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:5">
+    <row r="34" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
         <v>29</v>
       </c>
@@ -2002,7 +1379,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:5">
+    <row r="35" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
         <v>30</v>
       </c>
@@ -2013,7 +1390,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" ht="20.1" customHeight="1" spans="3:5">
+    <row r="36" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
         <v>31</v>
       </c>
@@ -2024,7 +1401,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:5">
+    <row r="37" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
         <v>33</v>
       </c>
@@ -2035,7 +1412,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:5">
+    <row r="38" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="1">
         <v>34</v>
       </c>
@@ -2046,7 +1423,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:5">
+    <row r="39" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="1">
         <v>35</v>
       </c>
@@ -2057,7 +1434,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="40" ht="20.1" customHeight="1" spans="3:5">
+    <row r="40" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1">
         <v>36</v>
       </c>
@@ -2068,7 +1445,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:5">
+    <row r="41" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
         <v>37</v>
       </c>
@@ -2079,7 +1456,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="42" ht="20.1" customHeight="1" spans="3:5">
+    <row r="42" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
         <v>38</v>
       </c>
@@ -2090,7 +1467,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" ht="20.1" customHeight="1" spans="3:5">
+    <row r="43" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="1">
         <v>39</v>
       </c>
@@ -2101,7 +1478,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" ht="20.1" customHeight="1" spans="3:5">
+    <row r="44" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="1">
         <v>40</v>
       </c>
@@ -2112,7 +1489,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:6">
+    <row r="45" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="1">
         <v>41</v>
       </c>
@@ -2126,7 +1503,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:5">
+    <row r="46" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="1">
         <v>42</v>
       </c>
@@ -2137,7 +1514,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:7">
+    <row r="47" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="1">
         <v>43</v>
       </c>
@@ -2151,7 +1528,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:6">
+    <row r="48" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="1">
         <v>44</v>
       </c>
@@ -2165,7 +1542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" ht="20.1" customHeight="1" spans="3:6">
+    <row r="49" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="1">
         <v>45</v>
       </c>
@@ -2179,7 +1556,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" ht="20.1" customHeight="1" spans="3:6">
+    <row r="50" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="1">
         <v>46</v>
       </c>
@@ -2193,7 +1570,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" ht="20.1" customHeight="1" spans="3:6">
+    <row r="51" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="1">
         <v>47</v>
       </c>
@@ -2207,7 +1584,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" ht="20.1" customHeight="1" spans="3:5">
+    <row r="52" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="1">
         <v>48</v>
       </c>
@@ -2218,7 +1595,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" ht="20.1" customHeight="1" spans="3:5">
+    <row r="53" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="1">
         <v>49</v>
       </c>
@@ -2229,7 +1606,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" ht="20.1" customHeight="1" spans="3:6">
+    <row r="54" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="1">
         <v>50</v>
       </c>
@@ -2243,7 +1620,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" ht="20.1" customHeight="1" spans="3:5">
+    <row r="55" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="1">
         <v>51</v>
       </c>
@@ -2254,7 +1631,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" ht="20.1" customHeight="1" spans="3:6">
+    <row r="56" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="1">
         <v>52</v>
       </c>
@@ -2266,7 +1643,7 @@
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" ht="20.1" customHeight="1" spans="3:5">
+    <row r="57" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="1">
         <v>53</v>
       </c>
@@ -2277,7 +1654,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" ht="20.1" customHeight="1" spans="3:5">
+    <row r="58" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="1">
         <v>54</v>
       </c>
@@ -2288,7 +1665,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" ht="20.1" customHeight="1" spans="3:6">
+    <row r="59" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="1">
         <v>55</v>
       </c>
@@ -2302,7 +1679,7 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="60" ht="20.1" customHeight="1" spans="3:5">
+    <row r="60" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="1">
         <v>56</v>
       </c>
@@ -2313,7 +1690,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" ht="20.1" customHeight="1" spans="3:6">
+    <row r="61" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="1">
         <v>57</v>
       </c>
@@ -2327,7 +1704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" ht="20.1" customHeight="1" spans="3:6">
+    <row r="62" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="1">
         <v>58</v>
       </c>
@@ -2341,7 +1718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" ht="20.1" customHeight="1" spans="3:6">
+    <row r="63" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="1">
         <v>59</v>
       </c>
@@ -2355,7 +1732,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" ht="20.1" customHeight="1" spans="3:6">
+    <row r="64" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="1">
         <v>60</v>
       </c>
@@ -2369,7 +1746,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" ht="20.1" customHeight="1" spans="3:5">
+    <row r="65" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="1">
         <v>61</v>
       </c>
@@ -2380,7 +1757,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" ht="20.1" customHeight="1" spans="3:5">
+    <row r="66" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="1">
         <v>62</v>
       </c>
@@ -2391,7 +1768,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" ht="20.1" customHeight="1" spans="3:5">
+    <row r="67" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="1">
         <v>63</v>
       </c>
@@ -2402,7 +1779,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" ht="20.1" customHeight="1" spans="3:6">
+    <row r="68" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="1">
         <v>64</v>
       </c>
@@ -2416,7 +1793,7 @@
         <v>30000001</v>
       </c>
     </row>
-    <row r="69" ht="20.1" customHeight="1" spans="3:5">
+    <row r="69" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="1">
         <v>65</v>
       </c>
@@ -2427,7 +1804,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" ht="20.1" customHeight="1" spans="3:5">
+    <row r="70" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="1">
         <v>66</v>
       </c>
@@ -2438,7 +1815,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" ht="20.1" customHeight="1" spans="3:5">
+    <row r="71" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="1">
         <v>67</v>
       </c>
@@ -2449,7 +1826,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" ht="20.1" customHeight="1" spans="3:5">
+    <row r="72" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="1">
         <v>68</v>
       </c>
@@ -2460,7 +1837,7 @@
         <v>60500101</v>
       </c>
     </row>
-    <row r="73" ht="20.1" customHeight="1" spans="3:5">
+    <row r="73" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="1">
         <v>69</v>
       </c>
@@ -2471,7 +1848,7 @@
         <v>60500201</v>
       </c>
     </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:5">
+    <row r="74" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="1">
         <v>70</v>
       </c>
@@ -2482,7 +1859,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" ht="20.1" customHeight="1" spans="3:5">
+    <row r="75" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="1">
         <v>71</v>
       </c>
@@ -2493,7 +1870,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" ht="20.1" customHeight="1" spans="3:6">
+    <row r="76" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="1">
         <v>72</v>
       </c>
@@ -2507,7 +1884,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" ht="20.1" customHeight="1" spans="3:6">
+    <row r="77" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="1">
         <v>73</v>
       </c>
@@ -2521,7 +1898,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="78" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="1">
         <v>74</v>
       </c>
@@ -2535,7 +1912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" ht="20.1" customHeight="1" spans="3:5">
+    <row r="79" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="1">
         <v>75</v>
       </c>
@@ -2546,7 +1923,7 @@
         <v>601502001</v>
       </c>
     </row>
-    <row r="80" ht="20.1" customHeight="1" spans="3:6">
+    <row r="80" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="1">
         <v>76</v>
       </c>
@@ -2560,7 +1937,7 @@
         <v>40000001</v>
       </c>
     </row>
-    <row r="81" ht="20.1" customHeight="1" spans="3:5">
+    <row r="81" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="1">
         <v>77</v>
       </c>
@@ -2571,7 +1948,7 @@
         <v>601503011</v>
       </c>
     </row>
-    <row r="82" ht="20.1" customHeight="1" spans="3:6">
+    <row r="82" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="1">
         <v>78</v>
       </c>
@@ -2585,7 +1962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" ht="20.1" customHeight="1" spans="3:5">
+    <row r="83" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="1">
         <v>79</v>
       </c>
@@ -2596,7 +1973,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="84" ht="20.1" customHeight="1" spans="3:5">
+    <row r="84" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="1">
         <v>80</v>
       </c>
@@ -2607,7 +1984,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="85" ht="20.1" customHeight="1" spans="3:5">
+    <row r="85" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="1">
         <v>81</v>
       </c>
@@ -2618,7 +1995,7 @@
         <v>60303101</v>
       </c>
     </row>
-    <row r="86" ht="20.1" customHeight="1" spans="3:5">
+    <row r="86" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="1">
         <v>82</v>
       </c>
@@ -2629,7 +2006,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="87" ht="20.1" customHeight="1" spans="3:5">
+    <row r="87" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="1">
         <v>83</v>
       </c>
@@ -2640,7 +2017,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="88" ht="20.1" customHeight="1" spans="3:6">
+    <row r="88" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="1">
         <v>84</v>
       </c>
@@ -2654,7 +2031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" ht="20.1" customHeight="1" spans="3:6">
+    <row r="89" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="1">
         <v>85</v>
       </c>
@@ -2668,7 +2045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" ht="20.1" customHeight="1" spans="3:5">
+    <row r="90" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="1">
         <v>86</v>
       </c>
@@ -2679,7 +2056,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="91" ht="20.1" customHeight="1" spans="3:5">
+    <row r="91" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="1">
         <v>87</v>
       </c>
@@ -2690,7 +2067,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" ht="20.1" customHeight="1" spans="3:5">
+    <row r="92" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="1">
         <v>88</v>
       </c>
@@ -2701,7 +2078,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="93" ht="20.1" customHeight="1" spans="3:5">
+    <row r="93" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="1">
         <v>89</v>
       </c>
@@ -2712,7 +2089,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="94" ht="20.1" customHeight="1" spans="3:5">
+    <row r="94" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="1">
         <v>90</v>
       </c>
@@ -2723,7 +2100,7 @@
         <v>10000158</v>
       </c>
     </row>
-    <row r="95" ht="20.1" customHeight="1" spans="3:5">
+    <row r="95" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="1">
         <v>91</v>
       </c>
@@ -2734,7 +2111,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" ht="20.1" customHeight="1" spans="3:5">
+    <row r="96" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="1">
         <v>92</v>
       </c>
@@ -2745,7 +2122,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="97" ht="20.1" customHeight="1" spans="3:6">
+    <row r="97" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="1">
         <v>93</v>
       </c>
@@ -2759,7 +2136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" ht="20.1" customHeight="1" spans="3:6">
+    <row r="98" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="1">
         <v>94</v>
       </c>
@@ -2773,7 +2150,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="99" ht="20.1" customHeight="1" spans="3:6">
+    <row r="99" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="1">
         <v>95</v>
       </c>
@@ -2787,7 +2164,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" ht="20.1" customHeight="1" spans="3:5">
+    <row r="100" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="1">
         <v>96</v>
       </c>
@@ -2798,7 +2175,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" ht="20.1" customHeight="1" spans="3:5">
+    <row r="101" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="1">
         <v>97</v>
       </c>
@@ -2809,7 +2186,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="102" ht="20.1" customHeight="1" spans="3:6">
+    <row r="102" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="1">
         <v>98</v>
       </c>
@@ -2823,7 +2200,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="103" ht="20.1" customHeight="1" spans="3:6">
+    <row r="103" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="1">
         <v>99</v>
       </c>
@@ -2837,7 +2214,7 @@
         <v>61300001</v>
       </c>
     </row>
-    <row r="104" ht="20.1" customHeight="1" spans="3:5">
+    <row r="104" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="1">
         <v>100</v>
       </c>
@@ -2848,7 +2225,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="105" ht="20.1" customHeight="1" spans="3:5">
+    <row r="105" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="1">
         <v>101</v>
       </c>
@@ -2859,7 +2236,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="106" ht="20.1" customHeight="1" spans="3:5">
+    <row r="106" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="1">
         <v>102</v>
       </c>
@@ -2870,7 +2247,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="107" ht="20.1" customHeight="1" spans="3:6">
+    <row r="107" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="1">
         <v>103</v>
       </c>
@@ -2884,7 +2261,7 @@
         <v>70000001</v>
       </c>
     </row>
-    <row r="108" ht="20.1" customHeight="1" spans="3:5">
+    <row r="108" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="1">
         <v>104</v>
       </c>
@@ -2895,7 +2272,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="109" ht="20.1" customHeight="1" spans="3:6">
+    <row r="109" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="1">
         <v>105</v>
       </c>
@@ -2909,7 +2286,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" ht="20.1" customHeight="1" spans="3:6">
+    <row r="110" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="1">
         <v>106</v>
       </c>
@@ -2923,7 +2300,7 @@
         <v>80000001</v>
       </c>
     </row>
-    <row r="111" ht="20.1" customHeight="1" spans="3:5">
+    <row r="111" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="1">
         <v>107</v>
       </c>
@@ -2934,7 +2311,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="112" ht="20.1" customHeight="1" spans="3:6">
+    <row r="112" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C112" s="1">
         <v>108</v>
       </c>
@@ -2948,7 +2325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" ht="20.1" customHeight="1" spans="3:6">
+    <row r="113" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="1">
         <v>109</v>
       </c>
@@ -2962,7 +2339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" ht="20.1" customHeight="1" spans="3:5">
+    <row r="114" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="1">
         <v>110</v>
       </c>
@@ -2973,7 +2350,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="115" ht="20.1" customHeight="1" spans="3:5">
+    <row r="115" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="1">
         <v>111</v>
       </c>
@@ -2984,7 +2361,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="116" ht="20.1" customHeight="1" spans="3:5">
+    <row r="116" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116" s="1">
         <v>112</v>
       </c>
@@ -2995,7 +2372,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="117" ht="20.1" customHeight="1" spans="3:6">
+    <row r="117" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="1">
         <v>113</v>
       </c>
@@ -3009,7 +2386,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="118" ht="20.1" customHeight="1" spans="3:6">
+    <row r="118" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118" s="1">
         <v>114</v>
       </c>
@@ -3023,7 +2400,7 @@
         <v>90000001</v>
       </c>
     </row>
-    <row r="119" ht="20.1" customHeight="1" spans="3:6">
+    <row r="119" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="1">
         <v>115</v>
       </c>
@@ -3037,7 +2414,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" ht="20.1" customHeight="1" spans="3:5">
+    <row r="120" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="1">
         <v>116</v>
       </c>
@@ -3048,7 +2425,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="121" ht="20.1" customHeight="1" spans="3:6">
+    <row r="121" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="1">
         <v>117</v>
       </c>
@@ -3062,7 +2439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" ht="20.1" customHeight="1" spans="3:6">
+    <row r="122" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="1">
         <v>118</v>
       </c>
@@ -3076,7 +2453,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" ht="20.1" customHeight="1" spans="3:6">
+    <row r="123" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="1">
         <v>119</v>
       </c>
@@ -3090,7 +2467,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" ht="20.1" customHeight="1" spans="3:6">
+    <row r="124" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="1">
         <v>120</v>
       </c>
@@ -3104,14 +2481,14 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="125" ht="20.1" customHeight="1"/>
+    <row r="125" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E115" r:id="rId3" display="10000131;100@601800051"/>
+    <hyperlink ref="E115" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C1AB03-720F-46A8-BC8F-ECA86FEDDD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72890C7B-7C42-4BD6-9882-38E406B07C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalValueProto" sheetId="1" r:id="rId1"/>
@@ -185,9 +185,6 @@
     <t>月卡奖励</t>
   </si>
   <si>
-    <t>3;500@10010041;5@10010042;5@10010083;5@10010088;2</t>
-  </si>
-  <si>
     <t>经验修炼系数</t>
   </si>
   <si>
@@ -245,332 +242,344 @@
     <t>初始制造列表</t>
   </si>
   <si>
+    <t>锻造&amp;裁缝&amp;炼金&amp;附魔</t>
+  </si>
+  <si>
+    <t>购买鉴定符初始品质</t>
+  </si>
+  <si>
+    <t>最大熟练度</t>
+  </si>
+  <si>
+    <t>生活技能重置消耗</t>
+  </si>
+  <si>
+    <t>主城地图ID</t>
+  </si>
+  <si>
+    <t>重置专精</t>
+  </si>
+  <si>
+    <t>3;100</t>
+  </si>
+  <si>
+    <t>装备洗练度</t>
+  </si>
+  <si>
+    <t>2;7</t>
+  </si>
+  <si>
+    <t>最大拍卖数量</t>
+  </si>
+  <si>
+    <t>转移消耗</t>
+  </si>
+  <si>
+    <t>1;100000</t>
+  </si>
+  <si>
+    <t>神兽:精灵麋鹿</t>
+  </si>
+  <si>
+    <t>神兽:幽光晴晴</t>
+  </si>
+  <si>
+    <t>神兽:仙界魔龙</t>
+  </si>
+  <si>
+    <t>战场商店ID</t>
+  </si>
+  <si>
+    <t>战场获胜奖励</t>
+  </si>
+  <si>
+    <t>战场胜利条件(击败人数)</t>
+  </si>
+  <si>
+    <t>赏金任务每日次数</t>
+  </si>
+  <si>
+    <t>战场最大怪物数量</t>
+  </si>
+  <si>
+    <t>宠物天梯时间限制</t>
+  </si>
+  <si>
+    <t>挑战之地奖励展示</t>
+  </si>
+  <si>
+    <t>挑战之地进入等级限制</t>
+  </si>
+  <si>
+    <t>12;25;45</t>
+  </si>
+  <si>
+    <t>挑战之地进入等级建议</t>
+  </si>
+  <si>
+    <t>挑战之地商店</t>
+  </si>
+  <si>
+    <t>挑战等级进入起始波数</t>
+  </si>
+  <si>
+    <t>100101;100201;100301</t>
+  </si>
+  <si>
+    <t>战力排行每周领取时间</t>
+  </si>
+  <si>
+    <t>4,1</t>
+  </si>
+  <si>
+    <t>宠物排行每周领取时间</t>
+  </si>
+  <si>
+    <t>3,7</t>
+  </si>
+  <si>
+    <t>宠物天梯对战奖励掉落ID</t>
+  </si>
+  <si>
+    <t>宠物闯关对战奖励掉落ID</t>
+  </si>
+  <si>
+    <t>重命名消耗道具</t>
+  </si>
+  <si>
+    <t>10010036;1</t>
+  </si>
+  <si>
+    <t>挑战等级进入结束波数</t>
+  </si>
+  <si>
+    <t>100130;100240;100350</t>
+  </si>
+  <si>
+    <t>活力上限值</t>
+  </si>
+  <si>
+    <t>五连洗炼钻石消耗</t>
+  </si>
+  <si>
+    <t>组队副本协助每日次数</t>
+  </si>
+  <si>
+    <t>协助副本BOSS额外掉落ID</t>
+  </si>
+  <si>
+    <t>组队副本商店</t>
+  </si>
+  <si>
+    <t>深渊副本BOSS额外掉落</t>
+  </si>
+  <si>
+    <t>宝藏之地最大怪物数量限制</t>
+  </si>
+  <si>
+    <t>剧情副本刷新</t>
+  </si>
+  <si>
+    <t>80004001;0.005;10@80004002;0.001;2@80004003;0.0005;1</t>
+  </si>
+  <si>
+    <t>剧情副本怪物刷新</t>
+  </si>
+  <si>
+    <t>0.0065;6;100,80005001&amp;100,80005002&amp;100,80005003&amp;50,80005004&amp;50,80005005&amp;50,80005006&amp;50,80005007&amp;30,80005008&amp;30,80005009&amp;30,80005010&amp;30,80005011&amp;30,80005012&amp;30,80005013&amp;30,80005014@0.003;2;100,80006001&amp;100,80006002&amp;100,80006003&amp;80,80006004&amp;80,80006005&amp;80,80006006&amp;60,80006007&amp;60,80006008&amp;40,80006009&amp;40,80006010</t>
+  </si>
+  <si>
+    <t>经验兑换道具</t>
+  </si>
+  <si>
+    <t>抓捕道具</t>
+  </si>
+  <si>
+    <t>10000153;200@10000154;500@10000155;1000</t>
+  </si>
+  <si>
+    <t>购买格子消耗</t>
+  </si>
+  <si>
+    <t>10000156;1</t>
+  </si>
+  <si>
+    <t>可购买背包格子数</t>
+  </si>
+  <si>
+    <t>可购买仓库格子数</t>
+  </si>
+  <si>
+    <t>开启家园仓库消耗道具</t>
+  </si>
+  <si>
+    <t>13;200000@13;500000@13;1000000</t>
+  </si>
+  <si>
+    <t>家园神秘商人起始ID</t>
+  </si>
+  <si>
+    <t>300001;8</t>
+  </si>
+  <si>
+    <t>传承道具消耗</t>
+  </si>
+  <si>
+    <t>10000157;25</t>
+  </si>
+  <si>
+    <t>封印之塔消耗钻石</t>
+  </si>
+  <si>
+    <t>封印之塔挑战凭证ConfigID</t>
+  </si>
+  <si>
+    <t>战场召唤上限</t>
+  </si>
+  <si>
+    <t>600001;8</t>
+  </si>
+  <si>
+    <t>喜从天降免费刷新时间（S）</t>
+  </si>
+  <si>
+    <t>喜从天降金币刷新消耗</t>
+  </si>
+  <si>
+    <t>喜从天降钻石刷新消耗</t>
+  </si>
+  <si>
+    <t>喜从天降掉落ID</t>
+  </si>
+  <si>
+    <t>1;61201001@2;61202001@3;61203001@5;61204001@7;61205001</t>
+  </si>
+  <si>
+    <t>小龟大赛竞猜奖励</t>
+  </si>
+  <si>
+    <t>1;300000@10010085;100</t>
+  </si>
+  <si>
+    <t>小龟大赛支持消耗金币</t>
+  </si>
+  <si>
+    <t>小龟大赛随机奖励</t>
+  </si>
+  <si>
+    <t>恶魔活动阵营胜利奖励</t>
+  </si>
+  <si>
+    <t>恶魔活动阵营参与奖励</t>
+  </si>
+  <si>
+    <t>13;100000@13;100000</t>
+  </si>
+  <si>
+    <t>个人副本喜从天降掉落ID</t>
+  </si>
+  <si>
+    <t>赛季商店</t>
+  </si>
+  <si>
+    <t>拍卖行每页数量</t>
+  </si>
+  <si>
+    <t>加速科技每小时消耗钻石</t>
+  </si>
+  <si>
+    <t>家族商店ID</t>
+  </si>
+  <si>
+    <t>宠物蛋抽奖折扣</t>
+  </si>
+  <si>
+    <t>300;0.8</t>
+  </si>
+  <si>
+    <t>家族每日次数</t>
+  </si>
+  <si>
+    <t>周任务次数</t>
+  </si>
+  <si>
+    <t>兑换宠物之核一次消耗</t>
+  </si>
+  <si>
+    <t>兑换宠物之核十次消耗</t>
+  </si>
+  <si>
+    <t>宠物之核抽奖折扣</t>
+  </si>
+  <si>
+    <t>生活技能开启第二页需要充值数量</t>
+  </si>
+  <si>
+    <t>活动1商店ID</t>
+  </si>
+  <si>
+    <t>账号仓库最大格子数量</t>
+  </si>
+  <si>
+    <t>洗练折扣</t>
+  </si>
+  <si>
+    <t>300;0.9</t>
+  </si>
+  <si>
+    <t>传承鉴定次数</t>
+  </si>
+  <si>
+    <t>宝石仓库格子数量</t>
+  </si>
+  <si>
+    <t>宠物背包数量</t>
+  </si>
+  <si>
+    <t>新商店ID</t>
+  </si>
+  <si>
+    <t>3;500@1010034;5@1010035;5@1000018;5@1010032;1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>100119;300003;100101;100102;100103;200001;200002;6101001</t>
-  </si>
-  <si>
-    <t>锻造&amp;裁缝&amp;炼金&amp;附魔</t>
-  </si>
-  <si>
-    <t>购买鉴定符初始品质</t>
-  </si>
-  <si>
-    <t>最大熟练度</t>
-  </si>
-  <si>
-    <t>生活技能重置消耗</t>
-  </si>
-  <si>
-    <t>主城地图ID</t>
-  </si>
-  <si>
-    <t>重置专精</t>
-  </si>
-  <si>
-    <t>3;100</t>
-  </si>
-  <si>
-    <t>装备洗练度</t>
-  </si>
-  <si>
-    <t>2;7</t>
-  </si>
-  <si>
-    <t>最大拍卖数量</t>
-  </si>
-  <si>
-    <t>转移消耗</t>
-  </si>
-  <si>
-    <t>1;100000</t>
-  </si>
-  <si>
-    <t>神兽:精灵麋鹿</t>
-  </si>
-  <si>
-    <t>10000136;100@2000001</t>
-  </si>
-  <si>
-    <t>神兽:幽光晴晴</t>
-  </si>
-  <si>
-    <t>10000136;100@2000002</t>
-  </si>
-  <si>
-    <t>神兽:仙界魔龙</t>
-  </si>
-  <si>
-    <t>10000136;100@2000003</t>
-  </si>
-  <si>
-    <t>战场商店ID</t>
-  </si>
-  <si>
-    <t>战场获胜奖励</t>
-  </si>
-  <si>
-    <t>1;50000@10010043;1@10010083;5@10010035;10</t>
-  </si>
-  <si>
-    <t>战场胜利条件(击败人数)</t>
-  </si>
-  <si>
-    <t>赏金任务每日次数</t>
-  </si>
-  <si>
-    <t>战场最大怪物数量</t>
-  </si>
-  <si>
-    <t>宠物天梯时间限制</t>
-  </si>
-  <si>
-    <t>挑战之地奖励展示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000002;100@2000001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000002;100@2000002</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000002;100@2000003</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;50000@1000018;5;10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1;0@2;0@10000148;0</t>
-  </si>
-  <si>
-    <t>挑战之地进入等级限制</t>
-  </si>
-  <si>
-    <t>12;25;45</t>
-  </si>
-  <si>
-    <t>挑战之地进入等级建议</t>
-  </si>
-  <si>
-    <t>挑战之地商店</t>
-  </si>
-  <si>
-    <t>挑战等级进入起始波数</t>
-  </si>
-  <si>
-    <t>100101;100201;100301</t>
-  </si>
-  <si>
-    <t>战力排行每周领取时间</t>
-  </si>
-  <si>
-    <t>4,1</t>
-  </si>
-  <si>
-    <t>宠物排行每周领取时间</t>
-  </si>
-  <si>
-    <t>3,7</t>
-  </si>
-  <si>
-    <t>宠物天梯对战奖励掉落ID</t>
-  </si>
-  <si>
-    <t>宠物闯关对战奖励掉落ID</t>
-  </si>
-  <si>
-    <t>重命名消耗道具</t>
-  </si>
-  <si>
-    <t>10010036;1</t>
-  </si>
-  <si>
-    <t>挑战等级进入结束波数</t>
-  </si>
-  <si>
-    <t>100130;100240;100350</t>
-  </si>
-  <si>
-    <t>活力上限值</t>
-  </si>
-  <si>
-    <t>五连洗炼钻石消耗</t>
-  </si>
-  <si>
-    <t>组队副本协助每日次数</t>
-  </si>
-  <si>
-    <t>协助副本BOSS额外掉落ID</t>
-  </si>
-  <si>
-    <t>组队副本商店</t>
-  </si>
-  <si>
-    <t>深渊副本BOSS额外掉落</t>
-  </si>
-  <si>
-    <t>宝藏之地最大怪物数量限制</t>
-  </si>
-  <si>
-    <t>剧情副本刷新</t>
-  </si>
-  <si>
-    <t>80004001;0.005;10@80004002;0.001;2@80004003;0.0005;1</t>
-  </si>
-  <si>
-    <t>剧情副本怪物刷新</t>
-  </si>
-  <si>
-    <t>0.0065;6;100,80005001&amp;100,80005002&amp;100,80005003&amp;50,80005004&amp;50,80005005&amp;50,80005006&amp;50,80005007&amp;30,80005008&amp;30,80005009&amp;30,80005010&amp;30,80005011&amp;30,80005012&amp;30,80005013&amp;30,80005014@0.003;2;100,80006001&amp;100,80006002&amp;100,80006003&amp;80,80006004&amp;80,80006005&amp;80,80006006&amp;60,80006007&amp;60,80006008&amp;40,80006009&amp;40,80006010</t>
-  </si>
-  <si>
-    <t>经验兑换道具</t>
-  </si>
-  <si>
-    <t>抓捕道具</t>
-  </si>
-  <si>
-    <t>10000153;200@10000154;500@10000155;1000</t>
-  </si>
-  <si>
-    <t>购买格子消耗</t>
-  </si>
-  <si>
-    <t>10000156;1</t>
-  </si>
-  <si>
-    <t>可购买背包格子数</t>
-  </si>
-  <si>
-    <t>可购买仓库格子数</t>
-  </si>
-  <si>
-    <t>开启家园仓库消耗道具</t>
-  </si>
-  <si>
-    <t>13;200000@13;500000@13;1000000</t>
-  </si>
-  <si>
-    <t>家园神秘商人起始ID</t>
-  </si>
-  <si>
-    <t>300001;8</t>
-  </si>
-  <si>
-    <t>传承道具消耗</t>
-  </si>
-  <si>
-    <t>10000157;25</t>
-  </si>
-  <si>
-    <t>封印之塔消耗钻石</t>
-  </si>
-  <si>
-    <t>封印之塔挑战凭证ConfigID</t>
-  </si>
-  <si>
-    <t>战场召唤上限</t>
-  </si>
-  <si>
-    <t>600001;8</t>
-  </si>
-  <si>
-    <t>喜从天降免费刷新时间（S）</t>
-  </si>
-  <si>
-    <t>喜从天降金币刷新消耗</t>
-  </si>
-  <si>
-    <t>喜从天降钻石刷新消耗</t>
-  </si>
-  <si>
-    <t>喜从天降掉落ID</t>
-  </si>
-  <si>
-    <t>1;61201001@2;61202001@3;61203001@5;61204001@7;61205001</t>
-  </si>
-  <si>
-    <t>小龟大赛竞猜奖励</t>
-  </si>
-  <si>
-    <t>1;300000@10010085;100</t>
-  </si>
-  <si>
-    <t>小龟大赛支持消耗金币</t>
-  </si>
-  <si>
-    <t>小龟大赛随机奖励</t>
-  </si>
-  <si>
-    <t>恶魔活动阵营胜利奖励</t>
-  </si>
-  <si>
-    <t>恶魔活动阵营参与奖励</t>
-  </si>
-  <si>
-    <t>13;100000@13;100000</t>
-  </si>
-  <si>
-    <t>个人副本喜从天降掉落ID</t>
-  </si>
-  <si>
-    <t>赛季商店</t>
-  </si>
-  <si>
-    <t>拍卖行每页数量</t>
-  </si>
-  <si>
-    <t>加速科技每小时消耗钻石</t>
-  </si>
-  <si>
-    <t>家族商店ID</t>
-  </si>
-  <si>
-    <t>宠物蛋抽奖折扣</t>
-  </si>
-  <si>
-    <t>300;0.8</t>
-  </si>
-  <si>
-    <t>家族每日次数</t>
-  </si>
-  <si>
-    <t>周任务次数</t>
-  </si>
-  <si>
-    <t>兑换宠物之核一次消耗</t>
-  </si>
-  <si>
-    <t>10000131;10@601800051</t>
-  </si>
-  <si>
-    <t>兑换宠物之核十次消耗</t>
-  </si>
-  <si>
-    <t>10000131;100@601800051</t>
-  </si>
-  <si>
-    <t>宠物之核抽奖折扣</t>
-  </si>
-  <si>
-    <t>生活技能开启第二页需要充值数量</t>
-  </si>
-  <si>
-    <t>活动1商店ID</t>
-  </si>
-  <si>
-    <t>账号仓库最大格子数量</t>
-  </si>
-  <si>
-    <t>洗练折扣</t>
-  </si>
-  <si>
-    <t>300;0.9</t>
-  </si>
-  <si>
-    <t>传承鉴定次数</t>
-  </si>
-  <si>
-    <t>宝石仓库格子数量</t>
-  </si>
-  <si>
-    <t>宠物背包数量</t>
-  </si>
-  <si>
-    <t>新商店ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000001;10@601800051</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000001;100@601800051</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,6 +624,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -642,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -665,6 +681,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -973,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1364,8 +1383,8 @@
       <c r="D33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>47</v>
+      <c r="E33" s="10" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1373,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" s="1">
         <v>1000</v>
@@ -1384,7 +1403,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E35" s="1">
         <v>200</v>
@@ -1395,7 +1414,7 @@
         <v>31</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E36" s="1">
         <v>500</v>
@@ -1406,7 +1425,7 @@
         <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>32</v>
@@ -1417,10 +1436,10 @@
         <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="39" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1428,7 +1447,7 @@
         <v>35</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E39" s="1">
         <v>86400</v>
@@ -1439,7 +1458,7 @@
         <v>36</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E40" s="1">
         <v>259200</v>
@@ -1450,7 +1469,7 @@
         <v>37</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E41" s="1">
         <v>3000</v>
@@ -1461,10 +1480,10 @@
         <v>38</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="43" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1472,10 +1491,10 @@
         <v>39</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="44" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1483,10 +1502,10 @@
         <v>40</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="45" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1494,7 +1513,7 @@
         <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E45" s="1">
         <v>65</v>
@@ -1508,10 +1527,10 @@
         <v>42</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="47" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1519,13 +1538,13 @@
         <v>43</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="48" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1533,7 +1552,7 @@
         <v>44</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E48" s="1">
         <v>20</v>
@@ -1547,7 +1566,7 @@
         <v>45</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E49" s="1">
         <v>500</v>
@@ -1561,7 +1580,7 @@
         <v>46</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E50" s="1">
         <v>500</v>
@@ -1575,7 +1594,7 @@
         <v>47</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E51" s="1">
         <v>101</v>
@@ -1589,10 +1608,10 @@
         <v>48</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1600,10 +1619,10 @@
         <v>49</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1611,7 +1630,7 @@
         <v>50</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E54" s="1">
         <v>50</v>
@@ -1625,10 +1644,10 @@
         <v>51</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1636,10 +1655,10 @@
         <v>52</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="F56" s="4"/>
     </row>
@@ -1648,10 +1667,10 @@
         <v>53</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1659,10 +1678,10 @@
         <v>54</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1670,7 +1689,7 @@
         <v>55</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E59" s="1">
         <v>20000001</v>
@@ -1684,10 +1703,10 @@
         <v>56</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1695,7 +1714,7 @@
         <v>57</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E61" s="1">
         <v>100</v>
@@ -1709,7 +1728,7 @@
         <v>58</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E62" s="1">
         <v>10</v>
@@ -1723,7 +1742,7 @@
         <v>59</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E63" s="1">
         <v>30</v>
@@ -1737,7 +1756,7 @@
         <v>60</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E64" s="1">
         <v>60</v>
@@ -1751,10 +1770,10 @@
         <v>61</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1762,10 +1781,10 @@
         <v>62</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1773,10 +1792,10 @@
         <v>63</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1784,7 +1803,7 @@
         <v>64</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1">
         <v>30000001</v>
@@ -1798,10 +1817,10 @@
         <v>65</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1809,10 +1828,10 @@
         <v>66</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1820,10 +1839,10 @@
         <v>67</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1831,7 +1850,7 @@
         <v>68</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E72" s="7">
         <v>60500101</v>
@@ -1842,7 +1861,7 @@
         <v>69</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E73" s="7">
         <v>60500201</v>
@@ -1853,10 +1872,10 @@
         <v>70</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1864,10 +1883,10 @@
         <v>71</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1875,7 +1894,7 @@
         <v>72</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E76" s="1">
         <v>180</v>
@@ -1889,7 +1908,7 @@
         <v>73</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E77" s="1">
         <v>880</v>
@@ -1903,7 +1922,7 @@
         <v>74</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E78" s="1">
         <v>3</v>
@@ -1917,7 +1936,7 @@
         <v>75</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E79" s="1">
         <v>601502001</v>
@@ -1928,7 +1947,7 @@
         <v>76</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E80" s="1">
         <v>40000001</v>
@@ -1942,7 +1961,7 @@
         <v>77</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E81" s="1">
         <v>601503011</v>
@@ -1953,7 +1972,7 @@
         <v>78</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E82" s="1">
         <v>100</v>
@@ -1967,10 +1986,10 @@
         <v>79</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1978,10 +1997,10 @@
         <v>80</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1989,7 +2008,7 @@
         <v>81</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E85" s="7">
         <v>60303101</v>
@@ -2000,10 +2019,10 @@
         <v>82</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2011,10 +2030,10 @@
         <v>83</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2022,7 +2041,7 @@
         <v>84</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E88" s="1">
         <v>10</v>
@@ -2036,7 +2055,7 @@
         <v>85</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E89" s="1">
         <v>10</v>
@@ -2050,10 +2069,10 @@
         <v>86</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2061,10 +2080,10 @@
         <v>87</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2072,10 +2091,10 @@
         <v>88</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2083,7 +2102,7 @@
         <v>89</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E93" s="1">
         <v>520</v>
@@ -2094,7 +2113,7 @@
         <v>90</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E94" s="1">
         <v>10000158</v>
@@ -2105,7 +2124,7 @@
         <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E95" s="1">
         <v>100</v>
@@ -2119,7 +2138,7 @@
         <v>24</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2127,7 +2146,7 @@
         <v>93</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E97" s="1">
         <v>30</v>
@@ -2141,7 +2160,7 @@
         <v>94</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E98" s="1">
         <v>200000</v>
@@ -2155,7 +2174,7 @@
         <v>95</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E99" s="1">
         <v>120</v>
@@ -2169,10 +2188,10 @@
         <v>96</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2180,10 +2199,10 @@
         <v>97</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2191,7 +2210,7 @@
         <v>98</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E102" s="1">
         <v>30000</v>
@@ -2205,7 +2224,7 @@
         <v>99</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E103" s="1">
         <v>61300001</v>
@@ -2219,10 +2238,10 @@
         <v>100</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2230,10 +2249,10 @@
         <v>101</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2241,10 +2260,10 @@
         <v>102</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2252,7 +2271,7 @@
         <v>103</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E107" s="1">
         <v>70000001</v>
@@ -2266,7 +2285,7 @@
         <v>104</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E108" s="1">
         <v>300</v>
@@ -2277,7 +2296,7 @@
         <v>105</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E109" s="1">
         <v>30</v>
@@ -2291,7 +2310,7 @@
         <v>106</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E110" s="1">
         <v>80000001</v>
@@ -2305,10 +2324,10 @@
         <v>107</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2316,7 +2335,7 @@
         <v>108</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E112" s="1">
         <v>10</v>
@@ -2330,7 +2349,7 @@
         <v>109</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -2344,10 +2363,10 @@
         <v>110</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="115" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2355,10 +2374,10 @@
         <v>111</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="116" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2366,10 +2385,10 @@
         <v>112</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2377,7 +2396,7 @@
         <v>113</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E117" s="1">
         <v>198</v>
@@ -2391,7 +2410,7 @@
         <v>114</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E118" s="1">
         <v>90000001</v>
@@ -2405,7 +2424,7 @@
         <v>115</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E119" s="1">
         <v>120</v>
@@ -2419,10 +2438,10 @@
         <v>116</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2430,7 +2449,7 @@
         <v>117</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E121" s="1">
         <v>3</v>
@@ -2444,7 +2463,7 @@
         <v>118</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E122" s="1">
         <v>50</v>
@@ -2458,7 +2477,7 @@
         <v>119</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E123" s="1">
         <v>60</v>
@@ -2472,7 +2491,7 @@
         <v>120</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E124" s="1">
         <v>20000001</v>
@@ -2485,7 +2504,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E115" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E115" r:id="rId1" display="10000131;100@601800051" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72890C7B-7C42-4BD6-9882-38E406B07C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4EE316-200E-4B58-BBAC-30A029A4C3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalValueProto" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>刷新概率,每天刷新上限,刷新随机列表</t>
@@ -563,15 +564,15 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1;0@2;0@10000148;0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>1000001;10@601800051</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1000001;100@601800051</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;0@2;0@1000030;0</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -591,6 +592,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -598,12 +600,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -611,16 +615,19 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -992,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1772,8 +1779,8 @@
       <c r="D65" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="10" t="s">
-        <v>171</v>
+      <c r="E65" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2366,7 +2373,7 @@
         <v>153</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2377,7 +2384,7 @@
         <v>154</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="116" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4EE316-200E-4B58-BBAC-30A029A4C3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E36D96-43A8-41A9-9DAC-5BB1E134901B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>神秘商人每天出现的道具数量</t>
   </si>
   <si>
-    <t>100001;8@200001;8</t>
-  </si>
-  <si>
     <t>正能量答题数量</t>
   </si>
   <si>
@@ -573,6 +570,10 @@
   </si>
   <si>
     <t>1;0@2;0@1000030;0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001;8@100001;0</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -999,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1193,7 +1194,7 @@
         <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1201,7 +1202,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
@@ -1215,10 +1216,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1226,10 +1227,10 @@
         <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1237,10 +1238,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1248,10 +1249,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1259,7 +1260,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1">
         <v>880</v>
@@ -1270,7 +1271,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -1281,7 +1282,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
@@ -1295,7 +1296,7 @@
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="1">
         <v>200000</v>
@@ -1306,7 +1307,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="1">
         <v>10</v>
@@ -1317,7 +1318,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1">
         <v>1000</v>
@@ -1328,7 +1329,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="1">
         <v>50</v>
@@ -1340,7 +1341,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="1">
         <v>7</v>
@@ -1352,7 +1353,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" s="1">
         <v>5000</v>
@@ -1366,7 +1367,7 @@
         <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" s="1">
         <v>200</v>
@@ -1377,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E32" s="1">
         <v>20</v>
@@ -1388,10 +1389,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1399,7 +1400,7 @@
         <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E34" s="1">
         <v>1000</v>
@@ -1410,7 +1411,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E35" s="1">
         <v>200</v>
@@ -1421,7 +1422,7 @@
         <v>31</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E36" s="1">
         <v>500</v>
@@ -1432,10 +1433,10 @@
         <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1443,10 +1444,10 @@
         <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="39" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1454,7 +1455,7 @@
         <v>35</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E39" s="1">
         <v>86400</v>
@@ -1465,7 +1466,7 @@
         <v>36</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E40" s="1">
         <v>259200</v>
@@ -1476,7 +1477,7 @@
         <v>37</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E41" s="1">
         <v>3000</v>
@@ -1487,10 +1488,10 @@
         <v>38</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="43" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1498,10 +1499,10 @@
         <v>39</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="44" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1509,10 +1510,10 @@
         <v>40</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="45" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1520,7 +1521,7 @@
         <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E45" s="1">
         <v>65</v>
@@ -1534,10 +1535,10 @@
         <v>42</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="47" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1545,13 +1546,13 @@
         <v>43</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="48" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1559,7 +1560,7 @@
         <v>44</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E48" s="1">
         <v>20</v>
@@ -1573,7 +1574,7 @@
         <v>45</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E49" s="1">
         <v>500</v>
@@ -1587,7 +1588,7 @@
         <v>46</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E50" s="1">
         <v>500</v>
@@ -1601,7 +1602,7 @@
         <v>47</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E51" s="1">
         <v>101</v>
@@ -1615,10 +1616,10 @@
         <v>48</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="53" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1626,10 +1627,10 @@
         <v>49</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="54" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1637,7 +1638,7 @@
         <v>50</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E54" s="1">
         <v>50</v>
@@ -1651,10 +1652,10 @@
         <v>51</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="56" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1662,10 +1663,10 @@
         <v>52</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F56" s="4"/>
     </row>
@@ -1674,10 +1675,10 @@
         <v>53</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1685,10 +1686,10 @@
         <v>54</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1696,7 +1697,7 @@
         <v>55</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E59" s="1">
         <v>20000001</v>
@@ -1710,10 +1711,10 @@
         <v>56</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1721,7 +1722,7 @@
         <v>57</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E61" s="1">
         <v>100</v>
@@ -1735,7 +1736,7 @@
         <v>58</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E62" s="1">
         <v>10</v>
@@ -1749,7 +1750,7 @@
         <v>59</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E63" s="1">
         <v>30</v>
@@ -1763,7 +1764,7 @@
         <v>60</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E64" s="1">
         <v>60</v>
@@ -1777,10 +1778,10 @@
         <v>61</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1788,10 +1789,10 @@
         <v>62</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="67" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1799,10 +1800,10 @@
         <v>63</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1810,7 +1811,7 @@
         <v>64</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E68" s="1">
         <v>30000001</v>
@@ -1824,10 +1825,10 @@
         <v>65</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="70" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1835,10 +1836,10 @@
         <v>66</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="71" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1846,10 +1847,10 @@
         <v>67</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="72" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1857,7 +1858,7 @@
         <v>68</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E72" s="7">
         <v>60500101</v>
@@ -1868,7 +1869,7 @@
         <v>69</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E73" s="7">
         <v>60500201</v>
@@ -1879,10 +1880,10 @@
         <v>70</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="75" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1890,10 +1891,10 @@
         <v>71</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="76" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1901,7 +1902,7 @@
         <v>72</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E76" s="1">
         <v>180</v>
@@ -1915,7 +1916,7 @@
         <v>73</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E77" s="1">
         <v>880</v>
@@ -1929,7 +1930,7 @@
         <v>74</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E78" s="1">
         <v>3</v>
@@ -1943,7 +1944,7 @@
         <v>75</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E79" s="1">
         <v>601502001</v>
@@ -1954,7 +1955,7 @@
         <v>76</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E80" s="1">
         <v>40000001</v>
@@ -1968,7 +1969,7 @@
         <v>77</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E81" s="1">
         <v>601503011</v>
@@ -1979,7 +1980,7 @@
         <v>78</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E82" s="1">
         <v>100</v>
@@ -1993,10 +1994,10 @@
         <v>79</v>
       </c>
       <c r="D83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="84" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2004,10 +2005,10 @@
         <v>80</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="85" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2015,7 +2016,7 @@
         <v>81</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E85" s="7">
         <v>60303101</v>
@@ -2026,10 +2027,10 @@
         <v>82</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="87" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2037,10 +2038,10 @@
         <v>83</v>
       </c>
       <c r="D87" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="88" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2048,7 +2049,7 @@
         <v>84</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E88" s="1">
         <v>10</v>
@@ -2062,7 +2063,7 @@
         <v>85</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E89" s="1">
         <v>10</v>
@@ -2076,10 +2077,10 @@
         <v>86</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="91" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2087,10 +2088,10 @@
         <v>87</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="92" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2098,10 +2099,10 @@
         <v>88</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="93" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2109,7 +2110,7 @@
         <v>89</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E93" s="1">
         <v>520</v>
@@ -2120,7 +2121,7 @@
         <v>90</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E94" s="1">
         <v>10000158</v>
@@ -2131,7 +2132,7 @@
         <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E95" s="1">
         <v>100</v>
@@ -2145,7 +2146,7 @@
         <v>24</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2153,7 +2154,7 @@
         <v>93</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E97" s="1">
         <v>30</v>
@@ -2167,7 +2168,7 @@
         <v>94</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E98" s="1">
         <v>200000</v>
@@ -2181,7 +2182,7 @@
         <v>95</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E99" s="1">
         <v>120</v>
@@ -2195,10 +2196,10 @@
         <v>96</v>
       </c>
       <c r="D100" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="101" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2206,10 +2207,10 @@
         <v>97</v>
       </c>
       <c r="D101" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="102" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2217,7 +2218,7 @@
         <v>98</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E102" s="1">
         <v>30000</v>
@@ -2231,7 +2232,7 @@
         <v>99</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E103" s="1">
         <v>61300001</v>
@@ -2245,10 +2246,10 @@
         <v>100</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2256,10 +2257,10 @@
         <v>101</v>
       </c>
       <c r="D105" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="106" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2267,10 +2268,10 @@
         <v>102</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2278,7 +2279,7 @@
         <v>103</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E107" s="1">
         <v>70000001</v>
@@ -2292,7 +2293,7 @@
         <v>104</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E108" s="1">
         <v>300</v>
@@ -2303,7 +2304,7 @@
         <v>105</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E109" s="1">
         <v>30</v>
@@ -2317,7 +2318,7 @@
         <v>106</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E110" s="1">
         <v>80000001</v>
@@ -2331,10 +2332,10 @@
         <v>107</v>
       </c>
       <c r="D111" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="112" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2342,7 +2343,7 @@
         <v>108</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E112" s="1">
         <v>10</v>
@@ -2356,7 +2357,7 @@
         <v>109</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -2370,10 +2371,10 @@
         <v>110</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2381,10 +2382,10 @@
         <v>111</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2392,10 +2393,10 @@
         <v>112</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2403,7 +2404,7 @@
         <v>113</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E117" s="1">
         <v>198</v>
@@ -2417,7 +2418,7 @@
         <v>114</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E118" s="1">
         <v>90000001</v>
@@ -2431,7 +2432,7 @@
         <v>115</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E119" s="1">
         <v>120</v>
@@ -2445,10 +2446,10 @@
         <v>116</v>
       </c>
       <c r="D120" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="121" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2456,7 +2457,7 @@
         <v>117</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E121" s="1">
         <v>3</v>
@@ -2470,7 +2471,7 @@
         <v>118</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E122" s="1">
         <v>50</v>
@@ -2484,7 +2485,7 @@
         <v>119</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E123" s="1">
         <v>60</v>
@@ -2498,7 +2499,7 @@
         <v>120</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E124" s="1">
         <v>20000001</v>

--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E36D96-43A8-41A9-9DAC-5BB1E134901B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195DF6CA-9A43-46F0-AB2A-E9071A4BE357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>副本复活消耗道具</t>
   </si>
   <si>
-    <t>10010087;1</t>
-  </si>
-  <si>
     <t>实名认证奖励</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>初始化药剂</t>
   </si>
   <si>
-    <t>10010001;20@10010011;20@10010076;1</t>
-  </si>
-  <si>
     <t>疲劳值上限</t>
   </si>
   <si>
@@ -211,9 +205,6 @@
   </si>
   <si>
     <t>开启仓库消耗道具</t>
-  </si>
-  <si>
-    <t>10000133;1</t>
   </si>
   <si>
     <t>兑换宠物蛋一次消耗</t>
@@ -574,6 +565,18 @@
   </si>
   <si>
     <t>100001;8@100001;0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000021;1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1030001;20@1030011;20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010047;1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1000,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1125,7 +1128,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1133,10 +1136,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1144,10 +1147,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1155,10 +1158,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1166,10 +1169,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1177,7 +1180,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1">
         <v>160</v>
@@ -1191,10 +1194,10 @@
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1202,7 +1205,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
@@ -1216,10 +1219,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1227,10 +1230,10 @@
         <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1238,10 +1241,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1249,10 +1252,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1260,7 +1263,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E22" s="1">
         <v>880</v>
@@ -1271,7 +1274,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -1282,7 +1285,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
@@ -1296,7 +1299,7 @@
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E25" s="1">
         <v>200000</v>
@@ -1307,7 +1310,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E26" s="1">
         <v>10</v>
@@ -1318,7 +1321,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E27" s="1">
         <v>1000</v>
@@ -1329,7 +1332,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E28" s="1">
         <v>50</v>
@@ -1341,7 +1344,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E29" s="1">
         <v>7</v>
@@ -1353,7 +1356,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E30" s="1">
         <v>5000</v>
@@ -1367,7 +1370,7 @@
         <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E31" s="1">
         <v>200</v>
@@ -1378,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E32" s="1">
         <v>20</v>
@@ -1389,10 +1392,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1400,7 +1403,7 @@
         <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E34" s="1">
         <v>1000</v>
@@ -1411,7 +1414,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E35" s="1">
         <v>200</v>
@@ -1422,7 +1425,7 @@
         <v>31</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E36" s="1">
         <v>500</v>
@@ -1433,10 +1436,10 @@
         <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1444,10 +1447,10 @@
         <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1455,7 +1458,7 @@
         <v>35</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E39" s="1">
         <v>86400</v>
@@ -1466,7 +1469,7 @@
         <v>36</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E40" s="1">
         <v>259200</v>
@@ -1477,7 +1480,7 @@
         <v>37</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E41" s="1">
         <v>3000</v>
@@ -1488,10 +1491,10 @@
         <v>38</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>56</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1499,10 +1502,10 @@
         <v>39</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1510,10 +1513,10 @@
         <v>40</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1521,7 +1524,7 @@
         <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E45" s="1">
         <v>65</v>
@@ -1535,10 +1538,10 @@
         <v>42</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1546,13 +1549,13 @@
         <v>43</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1560,7 +1563,7 @@
         <v>44</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E48" s="1">
         <v>20</v>
@@ -1574,7 +1577,7 @@
         <v>45</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E49" s="1">
         <v>500</v>
@@ -1588,7 +1591,7 @@
         <v>46</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E50" s="1">
         <v>500</v>
@@ -1602,7 +1605,7 @@
         <v>47</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E51" s="1">
         <v>101</v>
@@ -1616,10 +1619,10 @@
         <v>48</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1627,10 +1630,10 @@
         <v>49</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1638,7 +1641,7 @@
         <v>50</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E54" s="1">
         <v>50</v>
@@ -1652,10 +1655,10 @@
         <v>51</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1663,10 +1666,10 @@
         <v>52</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F56" s="4"/>
     </row>
@@ -1675,10 +1678,10 @@
         <v>53</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1686,10 +1689,10 @@
         <v>54</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1697,7 +1700,7 @@
         <v>55</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E59" s="1">
         <v>20000001</v>
@@ -1711,10 +1714,10 @@
         <v>56</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1722,7 +1725,7 @@
         <v>57</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E61" s="1">
         <v>100</v>
@@ -1736,7 +1739,7 @@
         <v>58</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E62" s="1">
         <v>10</v>
@@ -1750,7 +1753,7 @@
         <v>59</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E63" s="1">
         <v>30</v>
@@ -1764,7 +1767,7 @@
         <v>60</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E64" s="1">
         <v>60</v>
@@ -1778,10 +1781,10 @@
         <v>61</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1789,10 +1792,10 @@
         <v>62</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1800,10 +1803,10 @@
         <v>63</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1811,7 +1814,7 @@
         <v>64</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E68" s="1">
         <v>30000001</v>
@@ -1825,10 +1828,10 @@
         <v>65</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1836,10 +1839,10 @@
         <v>66</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1847,10 +1850,10 @@
         <v>67</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1858,7 +1861,7 @@
         <v>68</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E72" s="7">
         <v>60500101</v>
@@ -1869,7 +1872,7 @@
         <v>69</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E73" s="7">
         <v>60500201</v>
@@ -1880,10 +1883,10 @@
         <v>70</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1891,10 +1894,10 @@
         <v>71</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1902,7 +1905,7 @@
         <v>72</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E76" s="1">
         <v>180</v>
@@ -1916,7 +1919,7 @@
         <v>73</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E77" s="1">
         <v>880</v>
@@ -1930,7 +1933,7 @@
         <v>74</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E78" s="1">
         <v>3</v>
@@ -1944,7 +1947,7 @@
         <v>75</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E79" s="1">
         <v>601502001</v>
@@ -1955,7 +1958,7 @@
         <v>76</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E80" s="1">
         <v>40000001</v>
@@ -1969,7 +1972,7 @@
         <v>77</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E81" s="1">
         <v>601503011</v>
@@ -1980,7 +1983,7 @@
         <v>78</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E82" s="1">
         <v>100</v>
@@ -1994,10 +1997,10 @@
         <v>79</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2005,10 +2008,10 @@
         <v>80</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2016,7 +2019,7 @@
         <v>81</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E85" s="7">
         <v>60303101</v>
@@ -2027,10 +2030,10 @@
         <v>82</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2038,10 +2041,10 @@
         <v>83</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2049,7 +2052,7 @@
         <v>84</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E88" s="1">
         <v>10</v>
@@ -2063,7 +2066,7 @@
         <v>85</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E89" s="1">
         <v>10</v>
@@ -2077,10 +2080,10 @@
         <v>86</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2088,10 +2091,10 @@
         <v>87</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2099,10 +2102,10 @@
         <v>88</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2110,7 +2113,7 @@
         <v>89</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E93" s="1">
         <v>520</v>
@@ -2121,7 +2124,7 @@
         <v>90</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E94" s="1">
         <v>10000158</v>
@@ -2132,7 +2135,7 @@
         <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E95" s="1">
         <v>100</v>
@@ -2143,10 +2146,10 @@
         <v>92</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2154,7 +2157,7 @@
         <v>93</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E97" s="1">
         <v>30</v>
@@ -2168,7 +2171,7 @@
         <v>94</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E98" s="1">
         <v>200000</v>
@@ -2182,7 +2185,7 @@
         <v>95</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E99" s="1">
         <v>120</v>
@@ -2196,10 +2199,10 @@
         <v>96</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2207,10 +2210,10 @@
         <v>97</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2218,7 +2221,7 @@
         <v>98</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E102" s="1">
         <v>30000</v>
@@ -2232,7 +2235,7 @@
         <v>99</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E103" s="1">
         <v>61300001</v>
@@ -2246,10 +2249,10 @@
         <v>100</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2257,10 +2260,10 @@
         <v>101</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="106" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2268,10 +2271,10 @@
         <v>102</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2279,7 +2282,7 @@
         <v>103</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E107" s="1">
         <v>70000001</v>
@@ -2293,7 +2296,7 @@
         <v>104</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E108" s="1">
         <v>300</v>
@@ -2304,7 +2307,7 @@
         <v>105</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E109" s="1">
         <v>30</v>
@@ -2318,7 +2321,7 @@
         <v>106</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E110" s="1">
         <v>80000001</v>
@@ -2332,10 +2335,10 @@
         <v>107</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2343,7 +2346,7 @@
         <v>108</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E112" s="1">
         <v>10</v>
@@ -2357,7 +2360,7 @@
         <v>109</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -2371,10 +2374,10 @@
         <v>110</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2382,10 +2385,10 @@
         <v>111</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2393,10 +2396,10 @@
         <v>112</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2404,7 +2407,7 @@
         <v>113</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E117" s="1">
         <v>198</v>
@@ -2418,7 +2421,7 @@
         <v>114</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E118" s="1">
         <v>90000001</v>
@@ -2432,7 +2435,7 @@
         <v>115</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E119" s="1">
         <v>120</v>
@@ -2446,10 +2449,10 @@
         <v>116</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2457,7 +2460,7 @@
         <v>117</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E121" s="1">
         <v>3</v>
@@ -2471,7 +2474,7 @@
         <v>118</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E122" s="1">
         <v>50</v>
@@ -2485,7 +2488,7 @@
         <v>119</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E123" s="1">
         <v>60</v>
@@ -2499,7 +2502,7 @@
         <v>120</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E124" s="1">
         <v>20000001</v>

--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -1,37 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195DF6CA-9A43-46F0-AB2A-E9071A4BE357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalValueProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D84" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>刷新概率,每天刷新上限,刷新随机列表</t>
@@ -87,6 +93,9 @@
     <t>副本复活消耗道具</t>
   </si>
   <si>
+    <t>1000021;1</t>
+  </si>
+  <si>
     <t>实名认证奖励</t>
   </si>
   <si>
@@ -108,12 +117,18 @@
     <t>初始化药剂</t>
   </si>
   <si>
+    <t>1030001;20@1030011;20</t>
+  </si>
+  <si>
     <t>疲劳值上限</t>
   </si>
   <si>
     <t>神秘商人每天出现的道具数量</t>
   </si>
   <si>
+    <t>100001;8@100001;0</t>
+  </si>
+  <si>
     <t>正能量答题数量</t>
   </si>
   <si>
@@ -177,6 +192,9 @@
     <t>月卡奖励</t>
   </si>
   <si>
+    <t>3;500@1010034;5@1010035;5@1000018;5@1010032;1</t>
+  </si>
+  <si>
     <t>经验修炼系数</t>
   </si>
   <si>
@@ -207,6 +225,9 @@
     <t>开启仓库消耗道具</t>
   </si>
   <si>
+    <t>1010047;1</t>
+  </si>
+  <si>
     <t>兑换宠物蛋一次消耗</t>
   </si>
   <si>
@@ -231,6 +252,9 @@
     <t>初始制造列表</t>
   </si>
   <si>
+    <t>100119;300003;100101;100102;100103;200001;200002;6101001</t>
+  </si>
+  <si>
     <t>锻造&amp;裁缝&amp;炼金&amp;附魔</t>
   </si>
   <si>
@@ -270,18 +294,30 @@
     <t>神兽:精灵麋鹿</t>
   </si>
   <si>
+    <t>1000002;100@2000001</t>
+  </si>
+  <si>
     <t>神兽:幽光晴晴</t>
   </si>
   <si>
+    <t>1000002;100@2000002</t>
+  </si>
+  <si>
     <t>神兽:仙界魔龙</t>
   </si>
   <si>
+    <t>1000002;100@2000003</t>
+  </si>
+  <si>
     <t>战场商店ID</t>
   </si>
   <si>
     <t>战场获胜奖励</t>
   </si>
   <si>
+    <t>1;50000@1000018;5;10</t>
+  </si>
+  <si>
     <t>战场胜利条件(击败人数)</t>
   </si>
   <si>
@@ -297,6 +333,9 @@
     <t>挑战之地奖励展示</t>
   </si>
   <si>
+    <t>1;0@2;0@1000030;0</t>
+  </si>
+  <si>
     <t>挑战之地进入等级限制</t>
   </si>
   <si>
@@ -495,9 +534,15 @@
     <t>兑换宠物之核一次消耗</t>
   </si>
   <si>
+    <t>1000001;10@601800051</t>
+  </si>
+  <si>
     <t>兑换宠物之核十次消耗</t>
   </si>
   <si>
+    <t>1000001;100@601800051</t>
+  </si>
+  <si>
     <t>宠物之核抽奖折扣</t>
   </si>
   <si>
@@ -526,65 +571,19 @@
   </si>
   <si>
     <t>新商店ID</t>
-  </si>
-  <si>
-    <t>3;500@1010034;5@1010035;5@1000018;5@1010032;1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>100119;300003;100101;100102;100103;200001;200002;6101001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000002;100@2000001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000002;100@2000002</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000002;100@2000003</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;50000@1000018;5;10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000001;10@601800051</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000001;100@601800051</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;0@2;0@1000030;0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>100001;8@100001;0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000021;1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1030001;20@1030011;20</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010047;1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,7 +595,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -604,14 +602,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -619,31 +615,159 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -656,8 +780,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -665,11 +975,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -691,24 +1243,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -995,19 +1588,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
@@ -1020,13 +1613,13 @@
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.1" customHeight="1"/>
+    <row r="2" ht="20.1" customHeight="1" spans="4:4">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="20.1" customHeight="1" spans="3:8">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1042,7 +1635,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="20.1" customHeight="1" spans="3:8">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1056,7 +1649,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="20.1" customHeight="1" spans="3:8">
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1070,7 +1663,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1081,7 +1674,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="7" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1092,7 +1685,7 @@
         <v>600000111</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="20.1" customHeight="1" spans="3:6">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1106,7 +1699,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="20.1" customHeight="1" spans="3:6">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1120,7 +1713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="20.1" customHeight="1" spans="3:5">
       <c r="C10" s="8">
         <v>5</v>
       </c>
@@ -1128,59 +1721,59 @@
         <v>13</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" ht="20.1" customHeight="1" spans="3:5">
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="20.1" customHeight="1" spans="3:5">
       <c r="C12" s="8">
         <v>7</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="20.1" customHeight="1" spans="3:5">
       <c r="C13" s="8">
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="20.1" customHeight="1" spans="3:5">
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="20.1" customHeight="1" spans="3:6">
       <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1">
         <v>160</v>
@@ -1189,23 +1782,23 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="20.1" customHeight="1" spans="3:5">
       <c r="C16" s="1">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" ht="20.1" customHeight="1" spans="3:6">
       <c r="C17" s="1">
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
@@ -1214,78 +1807,78 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="20.1" customHeight="1" spans="3:5">
       <c r="C18" s="1">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" ht="20.1" customHeight="1" spans="3:5">
       <c r="C19" s="1">
         <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" ht="20.1" customHeight="1" spans="3:5">
       <c r="C20" s="1">
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" ht="20.1" customHeight="1" spans="3:5">
       <c r="C21" s="1">
         <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" ht="20.1" customHeight="1" spans="3:5">
       <c r="C22" s="1">
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E22" s="1">
         <v>880</v>
       </c>
     </row>
-    <row r="23" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" ht="20.1" customHeight="1" spans="3:5">
       <c r="C23" s="1">
         <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C24" s="1">
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
@@ -1294,69 +1887,69 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" ht="20.1" customHeight="1" spans="3:5">
       <c r="C25" s="1">
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E25" s="1">
         <v>200000</v>
       </c>
     </row>
-    <row r="26" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" ht="20.1" customHeight="1" spans="3:5">
       <c r="C26" s="1">
         <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E26" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="3:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C27" s="1">
         <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E27" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C28" s="1">
         <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E28" s="1">
         <v>50</v>
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C29" s="1">
         <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E29" s="1">
         <v>7</v>
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" ht="20.1" customHeight="1" spans="3:6">
       <c r="C30" s="1">
         <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1">
         <v>5000</v>
@@ -1365,166 +1958,166 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" ht="20.1" customHeight="1" spans="3:5">
       <c r="C31" s="1">
         <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E31" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" ht="20.1" customHeight="1" spans="3:5">
       <c r="C32" s="1">
         <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E32" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" ht="20.1" customHeight="1" spans="3:5">
       <c r="C33" s="1">
         <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" ht="20.1" customHeight="1" spans="3:5">
       <c r="C34" s="1">
         <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E34" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="20.1" customHeight="1" spans="3:5">
       <c r="C35" s="1">
         <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E35" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" ht="20.1" customHeight="1" spans="3:5">
       <c r="C36" s="1">
         <v>31</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E36" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="20.1" customHeight="1" spans="3:5">
       <c r="C37" s="1">
         <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" ht="20.1" customHeight="1" spans="3:5">
       <c r="C38" s="1">
         <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" ht="20.1" customHeight="1" spans="3:5">
       <c r="C39" s="1">
         <v>35</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E39" s="1">
         <v>86400</v>
       </c>
     </row>
-    <row r="40" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" ht="20.1" customHeight="1" spans="3:5">
       <c r="C40" s="1">
         <v>36</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E40" s="1">
         <v>259200</v>
       </c>
     </row>
-    <row r="41" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" ht="20.1" customHeight="1" spans="3:5">
       <c r="C41" s="1">
         <v>37</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E41" s="1">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="20.1" customHeight="1" spans="3:5">
       <c r="C42" s="1">
         <v>38</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" ht="20.1" customHeight="1" spans="3:5">
       <c r="C43" s="1">
         <v>39</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" ht="20.1" customHeight="1" spans="3:5">
       <c r="C44" s="1">
         <v>40</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" ht="20.1" customHeight="1" spans="3:6">
       <c r="C45" s="1">
         <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E45" s="1">
         <v>65</v>
@@ -1533,37 +2126,37 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" ht="20.1" customHeight="1" spans="3:5">
       <c r="C46" s="1">
         <v>42</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" ht="20.1" customHeight="1" spans="3:7">
       <c r="C47" s="1">
         <v>43</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>162</v>
+        <v>66</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" ht="20.1" customHeight="1" spans="3:6">
       <c r="C48" s="1">
         <v>44</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E48" s="1">
         <v>20</v>
@@ -1572,12 +2165,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" ht="20.1" customHeight="1" spans="3:6">
       <c r="C49" s="1">
         <v>45</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E49" s="1">
         <v>500</v>
@@ -1586,12 +2179,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" ht="20.1" customHeight="1" spans="3:6">
       <c r="C50" s="1">
         <v>46</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E50" s="1">
         <v>500</v>
@@ -1600,12 +2193,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" ht="20.1" customHeight="1" spans="3:6">
       <c r="C51" s="1">
         <v>47</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E51" s="1">
         <v>101</v>
@@ -1614,34 +2207,34 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" ht="20.1" customHeight="1" spans="3:5">
       <c r="C52" s="1">
         <v>48</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" ht="20.1" customHeight="1" spans="3:5">
       <c r="C53" s="1">
         <v>49</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" ht="20.1" customHeight="1" spans="3:6">
       <c r="C54" s="1">
         <v>50</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E54" s="1">
         <v>50</v>
@@ -1650,57 +2243,57 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" ht="20.1" customHeight="1" spans="3:5">
       <c r="C55" s="1">
         <v>51</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" ht="20.1" customHeight="1" spans="3:6">
       <c r="C56" s="1">
         <v>52</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>163</v>
+        <v>80</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" ht="20.1" customHeight="1" spans="3:5">
       <c r="C57" s="1">
         <v>53</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" ht="20.1" customHeight="1" spans="3:5">
       <c r="C58" s="1">
         <v>54</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" ht="20.1" customHeight="1" spans="3:6">
       <c r="C59" s="1">
         <v>55</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E59" s="1">
         <v>20000001</v>
@@ -1709,23 +2302,23 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="60" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" ht="20.1" customHeight="1" spans="3:5">
       <c r="C60" s="1">
         <v>56</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" ht="20.1" customHeight="1" spans="3:6">
       <c r="C61" s="1">
         <v>57</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E61" s="1">
         <v>100</v>
@@ -1734,12 +2327,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" ht="20.1" customHeight="1" spans="3:6">
       <c r="C62" s="1">
         <v>58</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E62" s="1">
         <v>10</v>
@@ -1748,12 +2341,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" ht="20.1" customHeight="1" spans="3:6">
       <c r="C63" s="1">
         <v>59</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1">
         <v>30</v>
@@ -1762,12 +2355,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" ht="20.1" customHeight="1" spans="3:6">
       <c r="C64" s="1">
         <v>60</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E64" s="1">
         <v>60</v>
@@ -1776,45 +2369,45 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" ht="20.1" customHeight="1" spans="3:5">
       <c r="C65" s="1">
         <v>61</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" ht="20.1" customHeight="1" spans="3:5">
       <c r="C66" s="1">
         <v>62</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" ht="20.1" customHeight="1" spans="3:5">
       <c r="C67" s="1">
         <v>63</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" ht="20.1" customHeight="1" spans="3:6">
       <c r="C68" s="1">
         <v>64</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E68" s="1">
         <v>30000001</v>
@@ -1823,89 +2416,89 @@
         <v>30000001</v>
       </c>
     </row>
-    <row r="69" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" ht="20.1" customHeight="1" spans="3:5">
       <c r="C69" s="1">
         <v>65</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" ht="20.1" customHeight="1" spans="3:5">
       <c r="C70" s="1">
         <v>66</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" ht="20.1" customHeight="1" spans="3:5">
       <c r="C71" s="1">
         <v>67</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" ht="20.1" customHeight="1" spans="3:5">
       <c r="C72" s="1">
         <v>68</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E72" s="7">
         <v>60500101</v>
       </c>
     </row>
-    <row r="73" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" ht="20.1" customHeight="1" spans="3:5">
       <c r="C73" s="1">
         <v>69</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E73" s="7">
         <v>60500201</v>
       </c>
     </row>
-    <row r="74" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" ht="20.1" customHeight="1" spans="3:5">
       <c r="C74" s="1">
         <v>70</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" ht="20.1" customHeight="1" spans="3:5">
       <c r="C75" s="1">
         <v>71</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" ht="20.1" customHeight="1" spans="3:6">
       <c r="C76" s="1">
         <v>72</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E76" s="1">
         <v>180</v>
@@ -1914,12 +2507,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" ht="20.1" customHeight="1" spans="3:6">
       <c r="C77" s="1">
         <v>73</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E77" s="1">
         <v>880</v>
@@ -1928,12 +2521,12 @@
         <v>880</v>
       </c>
     </row>
-    <row r="78" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C78" s="1">
         <v>74</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E78" s="1">
         <v>3</v>
@@ -1942,23 +2535,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" ht="20.1" customHeight="1" spans="3:5">
       <c r="C79" s="1">
         <v>75</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E79" s="1">
         <v>601502001</v>
       </c>
     </row>
-    <row r="80" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" ht="20.1" customHeight="1" spans="3:6">
       <c r="C80" s="1">
         <v>76</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E80" s="1">
         <v>40000001</v>
@@ -1967,23 +2560,23 @@
         <v>40000001</v>
       </c>
     </row>
-    <row r="81" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" ht="20.1" customHeight="1" spans="3:5">
       <c r="C81" s="1">
         <v>77</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E81" s="1">
         <v>601503011</v>
       </c>
     </row>
-    <row r="82" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" ht="20.1" customHeight="1" spans="3:6">
       <c r="C82" s="1">
         <v>78</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E82" s="1">
         <v>100</v>
@@ -1992,172 +2585,172 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" ht="20.1" customHeight="1" spans="3:5">
       <c r="C83" s="1">
         <v>79</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" ht="20.1" customHeight="1" spans="3:5">
       <c r="C84" s="1">
         <v>80</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" ht="20.1" customHeight="1" spans="3:5">
       <c r="C85" s="1">
         <v>81</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E85" s="7">
         <v>60303101</v>
       </c>
     </row>
-    <row r="86" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" ht="20.1" customHeight="1" spans="3:5">
       <c r="C86" s="1">
         <v>82</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" ht="20.1" customHeight="1" spans="3:5">
       <c r="C87" s="1">
         <v>83</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" ht="20.1" customHeight="1" spans="3:6">
       <c r="C88" s="1">
         <v>84</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E88" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F88" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" ht="20.1" customHeight="1" spans="3:6">
       <c r="C89" s="1">
         <v>85</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E89" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F89" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" ht="20.1" customHeight="1" spans="3:5">
       <c r="C90" s="1">
         <v>86</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="91" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" ht="20.1" customHeight="1" spans="3:5">
       <c r="C91" s="1">
         <v>87</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" ht="20.1" customHeight="1" spans="3:5">
       <c r="C92" s="1">
         <v>88</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" ht="20.1" customHeight="1" spans="3:5">
       <c r="C93" s="1">
         <v>89</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E93" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="94" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" ht="20.1" customHeight="1" spans="3:5">
       <c r="C94" s="1">
         <v>90</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E94" s="1">
         <v>10000158</v>
       </c>
     </row>
-    <row r="95" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" ht="20.1" customHeight="1" spans="3:5">
       <c r="C95" s="1">
         <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E95" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" ht="20.1" customHeight="1" spans="3:5">
       <c r="C96" s="1">
         <v>92</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="97" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" ht="20.1" customHeight="1" spans="3:6">
       <c r="C97" s="1">
         <v>93</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E97" s="1">
         <v>30</v>
@@ -2166,12 +2759,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" ht="20.1" customHeight="1" spans="3:6">
       <c r="C98" s="1">
         <v>94</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E98" s="1">
         <v>200000</v>
@@ -2180,12 +2773,12 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="99" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" ht="20.1" customHeight="1" spans="3:6">
       <c r="C99" s="1">
         <v>95</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E99" s="1">
         <v>120</v>
@@ -2194,34 +2787,34 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" ht="20.1" customHeight="1" spans="3:5">
       <c r="C100" s="1">
         <v>96</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="101" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" ht="20.1" customHeight="1" spans="3:5">
       <c r="C101" s="1">
         <v>97</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" ht="20.1" customHeight="1" spans="3:6">
       <c r="C102" s="1">
         <v>98</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E102" s="1">
         <v>30000</v>
@@ -2230,12 +2823,12 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="103" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" ht="20.1" customHeight="1" spans="3:6">
       <c r="C103" s="1">
         <v>99</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E103" s="1">
         <v>61300001</v>
@@ -2244,45 +2837,45 @@
         <v>61300001</v>
       </c>
     </row>
-    <row r="104" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" ht="20.1" customHeight="1" spans="3:5">
       <c r="C104" s="1">
         <v>100</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" ht="20.1" customHeight="1" spans="3:5">
       <c r="C105" s="1">
         <v>101</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="106" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" ht="20.1" customHeight="1" spans="3:5">
       <c r="C106" s="1">
         <v>102</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="107" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" ht="20.1" customHeight="1" spans="3:6">
       <c r="C107" s="1">
         <v>103</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E107" s="1">
         <v>70000001</v>
@@ -2291,23 +2884,23 @@
         <v>70000001</v>
       </c>
     </row>
-    <row r="108" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" ht="20.1" customHeight="1" spans="3:5">
       <c r="C108" s="1">
         <v>104</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E108" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" ht="20.1" customHeight="1" spans="3:6">
       <c r="C109" s="1">
         <v>105</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E109" s="1">
         <v>30</v>
@@ -2316,12 +2909,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" ht="20.1" customHeight="1" spans="3:6">
       <c r="C110" s="1">
         <v>106</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E110" s="1">
         <v>80000001</v>
@@ -2330,23 +2923,23 @@
         <v>80000001</v>
       </c>
     </row>
-    <row r="111" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" ht="20.1" customHeight="1" spans="3:5">
       <c r="C111" s="1">
         <v>107</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="112" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" ht="20.1" customHeight="1" spans="3:6">
       <c r="C112" s="1">
         <v>108</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E112" s="1">
         <v>10</v>
@@ -2355,12 +2948,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" ht="20.1" customHeight="1" spans="3:6">
       <c r="C113" s="1">
         <v>109</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -2369,45 +2962,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" ht="20.1" customHeight="1" spans="3:5">
       <c r="C114" s="1">
         <v>110</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E114" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="115" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" ht="20.1" customHeight="1" spans="3:5">
       <c r="C115" s="1">
         <v>111</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="116" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" ht="20.1" customHeight="1" spans="3:5">
       <c r="C116" s="1">
         <v>112</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="117" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" ht="20.1" customHeight="1" spans="3:6">
       <c r="C117" s="1">
         <v>113</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="E117" s="1">
         <v>198</v>
@@ -2416,12 +3009,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="118" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" ht="20.1" customHeight="1" spans="3:6">
       <c r="C118" s="1">
         <v>114</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E118" s="1">
         <v>90000001</v>
@@ -2430,12 +3023,12 @@
         <v>90000001</v>
       </c>
     </row>
-    <row r="119" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" ht="20.1" customHeight="1" spans="3:6">
       <c r="C119" s="1">
         <v>115</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="E119" s="1">
         <v>120</v>
@@ -2444,23 +3037,23 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" ht="20.1" customHeight="1" spans="3:5">
       <c r="C120" s="1">
         <v>116</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="121" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121" ht="20.1" customHeight="1" spans="3:6">
       <c r="C121" s="1">
         <v>117</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E121" s="1">
         <v>3</v>
@@ -2469,12 +3062,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" ht="20.1" customHeight="1" spans="3:6">
       <c r="C122" s="1">
         <v>118</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="E122" s="1">
         <v>50</v>
@@ -2483,12 +3076,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" ht="20.1" customHeight="1" spans="3:6">
       <c r="C123" s="1">
         <v>119</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E123" s="1">
         <v>60</v>
@@ -2497,12 +3090,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" ht="20.1" customHeight="1" spans="3:6">
       <c r="C124" s="1">
         <v>120</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="E124" s="1">
         <v>20000001</v>
@@ -2511,14 +3104,14 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="125" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E115" r:id="rId1" display="10000131;100@601800051" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E115" r:id="rId3" display="1000001;100@601800051"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A60C4C7-E411-4653-A757-A4475FD23545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalValueProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="D84" authorId="0">
+    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -294,21 +287,12 @@
     <t>神兽:精灵麋鹿</t>
   </si>
   <si>
-    <t>1000002;100@2000001</t>
-  </si>
-  <si>
     <t>神兽:幽光晴晴</t>
   </si>
   <si>
-    <t>1000002;100@2000002</t>
-  </si>
-  <si>
     <t>神兽:仙界魔龙</t>
   </si>
   <si>
-    <t>1000002;100@2000003</t>
-  </si>
-  <si>
     <t>战场商店ID</t>
   </si>
   <si>
@@ -571,19 +555,25 @@
   </si>
   <si>
     <t>新商店ID</t>
+  </si>
+  <si>
+    <t>1000002;100@20001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000002;100@20002</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000002;100@20003</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,156 +608,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -780,194 +640,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -975,253 +649,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1243,65 +675,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1588,19 +979,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
@@ -1613,13 +1004,13 @@
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1" spans="4:4">
+    <row r="1" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:8">
+    <row r="3" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1635,7 +1026,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:8">
+    <row r="4" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1649,7 +1040,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:8">
+    <row r="5" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1663,7 +1054,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="6" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1674,7 +1065,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="7" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1685,7 +1076,7 @@
         <v>600000111</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:6">
+    <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1699,7 +1090,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:6">
+    <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1713,7 +1104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:5">
+    <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="8">
         <v>5</v>
       </c>
@@ -1724,7 +1115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:5">
+    <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1735,7 +1126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:5">
+    <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8">
         <v>7</v>
       </c>
@@ -1746,7 +1137,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:5">
+    <row r="13" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="8">
         <v>8</v>
       </c>
@@ -1757,7 +1148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:5">
+    <row r="14" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1768,7 +1159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:6">
+    <row r="15" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1782,7 +1173,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:5">
+    <row r="16" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -1793,7 +1184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:6">
+    <row r="17" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>12</v>
       </c>
@@ -1807,7 +1198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:5">
+    <row r="18" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>13</v>
       </c>
@@ -1818,7 +1209,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:5">
+    <row r="19" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>14</v>
       </c>
@@ -1829,7 +1220,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:5">
+    <row r="20" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -1840,7 +1231,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:5">
+    <row r="21" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -1851,7 +1242,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:5">
+    <row r="22" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -1862,7 +1253,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:5">
+    <row r="23" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -1873,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="24" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="1">
         <v>19</v>
       </c>
@@ -1887,7 +1278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:5">
+    <row r="25" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
         <v>20</v>
       </c>
@@ -1898,7 +1289,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="26" ht="20.1" customHeight="1" spans="3:5">
+    <row r="26" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
         <v>21</v>
       </c>
@@ -1909,7 +1300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="27" spans="3:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="1">
         <v>22</v>
       </c>
@@ -1920,7 +1311,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="28" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
         <v>23</v>
       </c>
@@ -1932,7 +1323,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="29" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>24</v>
       </c>
@@ -1944,7 +1335,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:6">
+    <row r="30" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
         <v>25</v>
       </c>
@@ -1958,7 +1349,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:5">
+    <row r="31" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
         <v>26</v>
       </c>
@@ -1969,7 +1360,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:5">
+    <row r="32" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
         <v>27</v>
       </c>
@@ -1980,7 +1371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:5">
+    <row r="33" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
         <v>28</v>
       </c>
@@ -1991,7 +1382,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:5">
+    <row r="34" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
         <v>29</v>
       </c>
@@ -2002,7 +1393,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:5">
+    <row r="35" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
         <v>30</v>
       </c>
@@ -2013,7 +1404,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" ht="20.1" customHeight="1" spans="3:5">
+    <row r="36" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
         <v>31</v>
       </c>
@@ -2024,7 +1415,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:5">
+    <row r="37" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
         <v>33</v>
       </c>
@@ -2035,7 +1426,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:5">
+    <row r="38" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="1">
         <v>34</v>
       </c>
@@ -2046,7 +1437,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:5">
+    <row r="39" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="1">
         <v>35</v>
       </c>
@@ -2057,7 +1448,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="40" ht="20.1" customHeight="1" spans="3:5">
+    <row r="40" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1">
         <v>36</v>
       </c>
@@ -2068,7 +1459,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:5">
+    <row r="41" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
         <v>37</v>
       </c>
@@ -2079,7 +1470,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="42" ht="20.1" customHeight="1" spans="3:5">
+    <row r="42" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
         <v>38</v>
       </c>
@@ -2090,7 +1481,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" ht="20.1" customHeight="1" spans="3:5">
+    <row r="43" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="1">
         <v>39</v>
       </c>
@@ -2101,7 +1492,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" ht="20.1" customHeight="1" spans="3:5">
+    <row r="44" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="1">
         <v>40</v>
       </c>
@@ -2112,7 +1503,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:6">
+    <row r="45" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="1">
         <v>41</v>
       </c>
@@ -2126,7 +1517,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:5">
+    <row r="46" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="1">
         <v>42</v>
       </c>
@@ -2137,7 +1528,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:7">
+    <row r="47" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="1">
         <v>43</v>
       </c>
@@ -2151,7 +1542,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:6">
+    <row r="48" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="1">
         <v>44</v>
       </c>
@@ -2165,7 +1556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" ht="20.1" customHeight="1" spans="3:6">
+    <row r="49" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="1">
         <v>45</v>
       </c>
@@ -2179,7 +1570,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" ht="20.1" customHeight="1" spans="3:6">
+    <row r="50" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="1">
         <v>46</v>
       </c>
@@ -2193,7 +1584,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" ht="20.1" customHeight="1" spans="3:6">
+    <row r="51" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="1">
         <v>47</v>
       </c>
@@ -2207,7 +1598,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" ht="20.1" customHeight="1" spans="3:5">
+    <row r="52" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="1">
         <v>48</v>
       </c>
@@ -2218,7 +1609,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" ht="20.1" customHeight="1" spans="3:5">
+    <row r="53" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="1">
         <v>49</v>
       </c>
@@ -2229,7 +1620,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" ht="20.1" customHeight="1" spans="3:6">
+    <row r="54" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="1">
         <v>50</v>
       </c>
@@ -2243,7 +1634,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" ht="20.1" customHeight="1" spans="3:5">
+    <row r="55" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="1">
         <v>51</v>
       </c>
@@ -2254,46 +1645,46 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" ht="20.1" customHeight="1" spans="3:6">
+    <row r="56" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="1">
         <v>52</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>81</v>
+      <c r="E56" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" ht="20.1" customHeight="1" spans="3:5">
+    <row r="57" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="1">
         <v>53</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" ht="20.1" customHeight="1" spans="3:5">
+        <v>81</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="1">
         <v>54</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" ht="20.1" customHeight="1" spans="3:6">
+        <v>82</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="1">
         <v>55</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E59" s="1">
         <v>20000001</v>
@@ -2302,23 +1693,23 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="60" ht="20.1" customHeight="1" spans="3:5">
+    <row r="60" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="1">
         <v>56</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" ht="20.1" customHeight="1" spans="3:6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="1">
         <v>57</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E61" s="1">
         <v>100</v>
@@ -2327,12 +1718,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" ht="20.1" customHeight="1" spans="3:6">
+    <row r="62" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="1">
         <v>58</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E62" s="1">
         <v>10</v>
@@ -2341,12 +1732,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" ht="20.1" customHeight="1" spans="3:6">
+    <row r="63" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="1">
         <v>59</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E63" s="1">
         <v>30</v>
@@ -2355,12 +1746,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" ht="20.1" customHeight="1" spans="3:6">
+    <row r="64" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="1">
         <v>60</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E64" s="1">
         <v>60</v>
@@ -2369,45 +1760,45 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" ht="20.1" customHeight="1" spans="3:5">
+    <row r="65" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="1">
         <v>61</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" ht="20.1" customHeight="1" spans="3:5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="1">
         <v>62</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" ht="20.1" customHeight="1" spans="3:5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="1">
         <v>63</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" ht="20.1" customHeight="1" spans="3:6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="1">
         <v>64</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E68" s="1">
         <v>30000001</v>
@@ -2416,89 +1807,89 @@
         <v>30000001</v>
       </c>
     </row>
-    <row r="69" ht="20.1" customHeight="1" spans="3:5">
+    <row r="69" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="1">
         <v>65</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" ht="20.1" customHeight="1" spans="3:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="1">
         <v>66</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" ht="20.1" customHeight="1" spans="3:5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="1">
         <v>67</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" ht="20.1" customHeight="1" spans="3:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="1">
         <v>68</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E72" s="7">
         <v>60500101</v>
       </c>
     </row>
-    <row r="73" ht="20.1" customHeight="1" spans="3:5">
+    <row r="73" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="1">
         <v>69</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E73" s="7">
         <v>60500201</v>
       </c>
     </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:5">
+    <row r="74" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="1">
         <v>70</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" ht="20.1" customHeight="1" spans="3:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="1">
         <v>71</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="76" ht="20.1" customHeight="1" spans="3:6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="1">
         <v>72</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E76" s="1">
         <v>180</v>
@@ -2507,12 +1898,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" ht="20.1" customHeight="1" spans="3:6">
+    <row r="77" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="1">
         <v>73</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E77" s="1">
         <v>880</v>
@@ -2521,12 +1912,12 @@
         <v>880</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="78" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="1">
         <v>74</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E78" s="1">
         <v>3</v>
@@ -2535,23 +1926,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" ht="20.1" customHeight="1" spans="3:5">
+    <row r="79" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="1">
         <v>75</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E79" s="1">
         <v>601502001</v>
       </c>
     </row>
-    <row r="80" ht="20.1" customHeight="1" spans="3:6">
+    <row r="80" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="1">
         <v>76</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E80" s="1">
         <v>40000001</v>
@@ -2560,23 +1951,23 @@
         <v>40000001</v>
       </c>
     </row>
-    <row r="81" ht="20.1" customHeight="1" spans="3:5">
+    <row r="81" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="1">
         <v>77</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E81" s="1">
         <v>601503011</v>
       </c>
     </row>
-    <row r="82" ht="20.1" customHeight="1" spans="3:6">
+    <row r="82" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="1">
         <v>78</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E82" s="1">
         <v>100</v>
@@ -2585,67 +1976,67 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" ht="20.1" customHeight="1" spans="3:5">
+    <row r="83" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="1">
         <v>79</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" ht="20.1" customHeight="1" spans="3:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="1">
         <v>80</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" ht="20.1" customHeight="1" spans="3:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="1">
         <v>81</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E85" s="7">
         <v>60303101</v>
       </c>
     </row>
-    <row r="86" ht="20.1" customHeight="1" spans="3:5">
+    <row r="86" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="1">
         <v>82</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="87" ht="20.1" customHeight="1" spans="3:5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="1">
         <v>83</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="88" ht="20.1" customHeight="1" spans="3:6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="1">
         <v>84</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -2654,12 +2045,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" ht="20.1" customHeight="1" spans="3:6">
+    <row r="89" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="1">
         <v>85</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E89" s="1">
         <v>0</v>
@@ -2668,73 +2059,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" ht="20.1" customHeight="1" spans="3:5">
+    <row r="90" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="1">
         <v>86</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" ht="20.1" customHeight="1" spans="3:5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="1">
         <v>87</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="92" ht="20.1" customHeight="1" spans="3:5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="1">
         <v>88</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="93" ht="20.1" customHeight="1" spans="3:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="1">
         <v>89</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E93" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="94" ht="20.1" customHeight="1" spans="3:5">
+    <row r="94" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="1">
         <v>90</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E94" s="1">
         <v>10000158</v>
       </c>
     </row>
-    <row r="95" ht="20.1" customHeight="1" spans="3:5">
+    <row r="95" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="1">
         <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E95" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="96" ht="20.1" customHeight="1" spans="3:5">
+    <row r="96" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="1">
         <v>92</v>
       </c>
@@ -2742,15 +2133,15 @@
         <v>24</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="97" ht="20.1" customHeight="1" spans="3:6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="1">
         <v>93</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E97" s="1">
         <v>30</v>
@@ -2759,12 +2150,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" ht="20.1" customHeight="1" spans="3:6">
+    <row r="98" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="1">
         <v>94</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E98" s="1">
         <v>200000</v>
@@ -2773,12 +2164,12 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="99" ht="20.1" customHeight="1" spans="3:6">
+    <row r="99" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="1">
         <v>95</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E99" s="1">
         <v>120</v>
@@ -2787,34 +2178,34 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" ht="20.1" customHeight="1" spans="3:5">
+    <row r="100" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="1">
         <v>96</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="101" ht="20.1" customHeight="1" spans="3:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="1">
         <v>97</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="102" ht="20.1" customHeight="1" spans="3:6">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="1">
         <v>98</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E102" s="1">
         <v>30000</v>
@@ -2823,12 +2214,12 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="103" ht="20.1" customHeight="1" spans="3:6">
+    <row r="103" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="1">
         <v>99</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E103" s="1">
         <v>61300001</v>
@@ -2837,45 +2228,45 @@
         <v>61300001</v>
       </c>
     </row>
-    <row r="104" ht="20.1" customHeight="1" spans="3:5">
+    <row r="104" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="1">
         <v>100</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="105" ht="20.1" customHeight="1" spans="3:5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="1">
         <v>101</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="106" ht="20.1" customHeight="1" spans="3:5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="1">
         <v>102</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="107" ht="20.1" customHeight="1" spans="3:6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="1">
         <v>103</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E107" s="1">
         <v>70000001</v>
@@ -2884,23 +2275,23 @@
         <v>70000001</v>
       </c>
     </row>
-    <row r="108" ht="20.1" customHeight="1" spans="3:5">
+    <row r="108" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="1">
         <v>104</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E108" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="109" ht="20.1" customHeight="1" spans="3:6">
+    <row r="109" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="1">
         <v>105</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E109" s="1">
         <v>30</v>
@@ -2909,12 +2300,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" ht="20.1" customHeight="1" spans="3:6">
+    <row r="110" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="1">
         <v>106</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E110" s="1">
         <v>80000001</v>
@@ -2923,23 +2314,23 @@
         <v>80000001</v>
       </c>
     </row>
-    <row r="111" ht="20.1" customHeight="1" spans="3:5">
+    <row r="111" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="1">
         <v>107</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="112" ht="20.1" customHeight="1" spans="3:6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C112" s="1">
         <v>108</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E112" s="1">
         <v>10</v>
@@ -2948,12 +2339,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" ht="20.1" customHeight="1" spans="3:6">
+    <row r="113" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="1">
         <v>109</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -2962,45 +2353,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" ht="20.1" customHeight="1" spans="3:5">
+    <row r="114" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="1">
         <v>110</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="115" ht="20.1" customHeight="1" spans="3:5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="1">
         <v>111</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="116" ht="20.1" customHeight="1" spans="3:5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116" s="1">
         <v>112</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="117" ht="20.1" customHeight="1" spans="3:6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="1">
         <v>113</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E117" s="1">
         <v>198</v>
@@ -3009,12 +2400,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="118" ht="20.1" customHeight="1" spans="3:6">
+    <row r="118" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118" s="1">
         <v>114</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E118" s="1">
         <v>90000001</v>
@@ -3023,12 +2414,12 @@
         <v>90000001</v>
       </c>
     </row>
-    <row r="119" ht="20.1" customHeight="1" spans="3:6">
+    <row r="119" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="1">
         <v>115</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E119" s="1">
         <v>120</v>
@@ -3037,23 +2428,23 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" ht="20.1" customHeight="1" spans="3:5">
+    <row r="120" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="1">
         <v>116</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="121" ht="20.1" customHeight="1" spans="3:6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="1">
         <v>117</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E121" s="1">
         <v>3</v>
@@ -3062,12 +2453,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" ht="20.1" customHeight="1" spans="3:6">
+    <row r="122" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="1">
         <v>118</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E122" s="1">
         <v>50</v>
@@ -3076,12 +2467,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" ht="20.1" customHeight="1" spans="3:6">
+    <row r="123" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="1">
         <v>119</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E123" s="1">
         <v>60</v>
@@ -3090,12 +2481,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" ht="20.1" customHeight="1" spans="3:6">
+    <row r="124" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="1">
         <v>120</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E124" s="1">
         <v>20000001</v>
@@ -3104,14 +2495,14 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="125" ht="20.1" customHeight="1"/>
+    <row r="125" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E115" r:id="rId3" display="1000001;100@601800051"/>
+    <hyperlink ref="E115" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A60C4C7-E411-4653-A757-A4475FD23545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalValueProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="175">
   <si>
     <t>#</t>
   </si>
@@ -287,12 +294,21 @@
     <t>神兽:精灵麋鹿</t>
   </si>
   <si>
+    <t>1000002;100@20001</t>
+  </si>
+  <si>
     <t>神兽:幽光晴晴</t>
   </si>
   <si>
+    <t>1000002;100@20002</t>
+  </si>
+  <si>
     <t>神兽:仙界魔龙</t>
   </si>
   <si>
+    <t>1000002;100@20003</t>
+  </si>
+  <si>
     <t>战场商店ID</t>
   </si>
   <si>
@@ -557,23 +573,20 @@
     <t>新商店ID</t>
   </si>
   <si>
-    <t>1000002;100@20001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000002;100@20002</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000002;100@20003</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>召唤宠物消耗魔力</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,25 +622,161 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,8 +789,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -649,11 +984,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -675,24 +1252,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -979,19 +1600,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
@@ -1004,13 +1625,13 @@
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.1" customHeight="1"/>
+    <row r="2" ht="20.1" customHeight="1" spans="4:4">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="20.1" customHeight="1" spans="3:8">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1026,7 +1647,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="20.1" customHeight="1" spans="3:8">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1040,7 +1661,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="20.1" customHeight="1" spans="3:8">
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1054,7 +1675,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1065,7 +1686,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="7" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1076,7 +1697,7 @@
         <v>600000111</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="20.1" customHeight="1" spans="3:6">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1090,7 +1711,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="20.1" customHeight="1" spans="3:6">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1104,7 +1725,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="20.1" customHeight="1" spans="3:5">
       <c r="C10" s="8">
         <v>5</v>
       </c>
@@ -1115,7 +1736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="20.1" customHeight="1" spans="3:5">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1126,7 +1747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="20.1" customHeight="1" spans="3:5">
       <c r="C12" s="8">
         <v>7</v>
       </c>
@@ -1137,7 +1758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="20.1" customHeight="1" spans="3:5">
       <c r="C13" s="8">
         <v>8</v>
       </c>
@@ -1148,7 +1769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="20.1" customHeight="1" spans="3:5">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1159,7 +1780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="20.1" customHeight="1" spans="3:6">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1173,7 +1794,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="20.1" customHeight="1" spans="3:5">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -1184,7 +1805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="20.1" customHeight="1" spans="3:6">
       <c r="C17" s="1">
         <v>12</v>
       </c>
@@ -1198,7 +1819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="20.1" customHeight="1" spans="3:5">
       <c r="C18" s="1">
         <v>13</v>
       </c>
@@ -1209,7 +1830,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" ht="20.1" customHeight="1" spans="3:5">
       <c r="C19" s="1">
         <v>14</v>
       </c>
@@ -1220,7 +1841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" ht="20.1" customHeight="1" spans="3:5">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -1231,7 +1852,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" ht="20.1" customHeight="1" spans="3:5">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -1242,7 +1863,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" ht="20.1" customHeight="1" spans="3:5">
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -1253,7 +1874,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="23" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" ht="20.1" customHeight="1" spans="3:5">
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -1264,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C24" s="1">
         <v>19</v>
       </c>
@@ -1278,7 +1899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" ht="20.1" customHeight="1" spans="3:5">
       <c r="C25" s="1">
         <v>20</v>
       </c>
@@ -1289,7 +1910,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="26" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" ht="20.1" customHeight="1" spans="3:5">
       <c r="C26" s="1">
         <v>21</v>
       </c>
@@ -1300,7 +1921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="3:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C27" s="1">
         <v>22</v>
       </c>
@@ -1311,7 +1932,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C28" s="1">
         <v>23</v>
       </c>
@@ -1323,7 +1944,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C29" s="1">
         <v>24</v>
       </c>
@@ -1335,7 +1956,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" ht="20.1" customHeight="1" spans="3:6">
       <c r="C30" s="1">
         <v>25</v>
       </c>
@@ -1349,7 +1970,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" ht="20.1" customHeight="1" spans="3:5">
       <c r="C31" s="1">
         <v>26</v>
       </c>
@@ -1360,7 +1981,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" ht="20.1" customHeight="1" spans="3:5">
       <c r="C32" s="1">
         <v>27</v>
       </c>
@@ -1371,7 +1992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" ht="20.1" customHeight="1" spans="3:5">
       <c r="C33" s="1">
         <v>28</v>
       </c>
@@ -1382,7 +2003,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" ht="20.1" customHeight="1" spans="3:5">
       <c r="C34" s="1">
         <v>29</v>
       </c>
@@ -1393,7 +2014,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="20.1" customHeight="1" spans="3:5">
       <c r="C35" s="1">
         <v>30</v>
       </c>
@@ -1404,7 +2025,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" ht="20.1" customHeight="1" spans="3:5">
       <c r="C36" s="1">
         <v>31</v>
       </c>
@@ -1415,7 +2036,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="20.1" customHeight="1" spans="3:5">
       <c r="C37" s="1">
         <v>33</v>
       </c>
@@ -1426,7 +2047,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" ht="20.1" customHeight="1" spans="3:5">
       <c r="C38" s="1">
         <v>34</v>
       </c>
@@ -1437,7 +2058,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" ht="20.1" customHeight="1" spans="3:5">
       <c r="C39" s="1">
         <v>35</v>
       </c>
@@ -1448,7 +2069,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="40" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" ht="20.1" customHeight="1" spans="3:5">
       <c r="C40" s="1">
         <v>36</v>
       </c>
@@ -1459,7 +2080,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="41" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" ht="20.1" customHeight="1" spans="3:5">
       <c r="C41" s="1">
         <v>37</v>
       </c>
@@ -1470,7 +2091,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="20.1" customHeight="1" spans="3:5">
       <c r="C42" s="1">
         <v>38</v>
       </c>
@@ -1481,7 +2102,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" ht="20.1" customHeight="1" spans="3:5">
       <c r="C43" s="1">
         <v>39</v>
       </c>
@@ -1492,18 +2113,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" ht="20.1" customHeight="1" spans="3:5">
       <c r="C44" s="1">
         <v>40</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" ht="20.1" customHeight="1" spans="3:6">
       <c r="C45" s="1">
         <v>41</v>
       </c>
@@ -1517,7 +2138,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" ht="20.1" customHeight="1" spans="3:5">
       <c r="C46" s="1">
         <v>42</v>
       </c>
@@ -1528,7 +2149,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" ht="20.1" customHeight="1" spans="3:7">
       <c r="C47" s="1">
         <v>43</v>
       </c>
@@ -1542,7 +2163,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" ht="20.1" customHeight="1" spans="3:6">
       <c r="C48" s="1">
         <v>44</v>
       </c>
@@ -1556,7 +2177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" ht="20.1" customHeight="1" spans="3:6">
       <c r="C49" s="1">
         <v>45</v>
       </c>
@@ -1570,7 +2191,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" ht="20.1" customHeight="1" spans="3:6">
       <c r="C50" s="1">
         <v>46</v>
       </c>
@@ -1584,7 +2205,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" ht="20.1" customHeight="1" spans="3:6">
       <c r="C51" s="1">
         <v>47</v>
       </c>
@@ -1598,7 +2219,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" ht="20.1" customHeight="1" spans="3:5">
       <c r="C52" s="1">
         <v>48</v>
       </c>
@@ -1609,7 +2230,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" ht="20.1" customHeight="1" spans="3:5">
       <c r="C53" s="1">
         <v>49</v>
       </c>
@@ -1620,7 +2241,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" ht="20.1" customHeight="1" spans="3:6">
       <c r="C54" s="1">
         <v>50</v>
       </c>
@@ -1634,7 +2255,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" ht="20.1" customHeight="1" spans="3:5">
       <c r="C55" s="1">
         <v>51</v>
       </c>
@@ -1645,46 +2266,46 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" ht="20.1" customHeight="1" spans="3:6">
       <c r="C56" s="1">
         <v>52</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E56" s="10" t="s">
-        <v>171</v>
+      <c r="E56" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" ht="20.1" customHeight="1" spans="3:5">
       <c r="C57" s="1">
         <v>53</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" ht="20.1" customHeight="1" spans="3:5">
       <c r="C58" s="1">
         <v>54</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" ht="20.1" customHeight="1" spans="3:6">
       <c r="C59" s="1">
         <v>55</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E59" s="1">
         <v>20000001</v>
@@ -1693,23 +2314,23 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="60" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" ht="20.1" customHeight="1" spans="3:5">
       <c r="C60" s="1">
         <v>56</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" ht="20.1" customHeight="1" spans="3:6">
       <c r="C61" s="1">
         <v>57</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E61" s="1">
         <v>100</v>
@@ -1718,12 +2339,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" ht="20.1" customHeight="1" spans="3:6">
       <c r="C62" s="1">
         <v>58</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E62" s="1">
         <v>10</v>
@@ -1732,12 +2353,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" ht="20.1" customHeight="1" spans="3:6">
       <c r="C63" s="1">
         <v>59</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1">
         <v>30</v>
@@ -1746,12 +2367,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" ht="20.1" customHeight="1" spans="3:6">
       <c r="C64" s="1">
         <v>60</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E64" s="1">
         <v>60</v>
@@ -1760,45 +2381,45 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" ht="20.1" customHeight="1" spans="3:5">
       <c r="C65" s="1">
         <v>61</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" ht="20.1" customHeight="1" spans="3:5">
       <c r="C66" s="1">
         <v>62</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" ht="20.1" customHeight="1" spans="3:5">
       <c r="C67" s="1">
         <v>63</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" ht="20.1" customHeight="1" spans="3:6">
       <c r="C68" s="1">
         <v>64</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E68" s="1">
         <v>30000001</v>
@@ -1807,89 +2428,89 @@
         <v>30000001</v>
       </c>
     </row>
-    <row r="69" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" ht="20.1" customHeight="1" spans="3:5">
       <c r="C69" s="1">
         <v>65</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" ht="20.1" customHeight="1" spans="3:5">
       <c r="C70" s="1">
         <v>66</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" ht="20.1" customHeight="1" spans="3:5">
       <c r="C71" s="1">
         <v>67</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" ht="20.1" customHeight="1" spans="3:5">
       <c r="C72" s="1">
         <v>68</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E72" s="7">
         <v>60500101</v>
       </c>
     </row>
-    <row r="73" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" ht="20.1" customHeight="1" spans="3:5">
       <c r="C73" s="1">
         <v>69</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E73" s="7">
         <v>60500201</v>
       </c>
     </row>
-    <row r="74" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" ht="20.1" customHeight="1" spans="3:5">
       <c r="C74" s="1">
         <v>70</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" ht="20.1" customHeight="1" spans="3:5">
       <c r="C75" s="1">
         <v>71</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" ht="20.1" customHeight="1" spans="3:6">
       <c r="C76" s="1">
         <v>72</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E76" s="1">
         <v>180</v>
@@ -1898,12 +2519,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" ht="20.1" customHeight="1" spans="3:6">
       <c r="C77" s="1">
         <v>73</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E77" s="1">
         <v>880</v>
@@ -1912,12 +2533,12 @@
         <v>880</v>
       </c>
     </row>
-    <row r="78" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C78" s="1">
         <v>74</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E78" s="1">
         <v>3</v>
@@ -1926,23 +2547,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" ht="20.1" customHeight="1" spans="3:5">
       <c r="C79" s="1">
         <v>75</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E79" s="1">
         <v>601502001</v>
       </c>
     </row>
-    <row r="80" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" ht="20.1" customHeight="1" spans="3:6">
       <c r="C80" s="1">
         <v>76</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E80" s="1">
         <v>40000001</v>
@@ -1951,23 +2572,23 @@
         <v>40000001</v>
       </c>
     </row>
-    <row r="81" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" ht="20.1" customHeight="1" spans="3:5">
       <c r="C81" s="1">
         <v>77</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E81" s="1">
         <v>601503011</v>
       </c>
     </row>
-    <row r="82" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" ht="20.1" customHeight="1" spans="3:6">
       <c r="C82" s="1">
         <v>78</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E82" s="1">
         <v>100</v>
@@ -1976,67 +2597,67 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" ht="20.1" customHeight="1" spans="3:5">
       <c r="C83" s="1">
         <v>79</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" ht="20.1" customHeight="1" spans="3:5">
       <c r="C84" s="1">
         <v>80</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" ht="20.1" customHeight="1" spans="3:5">
       <c r="C85" s="1">
         <v>81</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E85" s="7">
         <v>60303101</v>
       </c>
     </row>
-    <row r="86" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" ht="20.1" customHeight="1" spans="3:5">
       <c r="C86" s="1">
         <v>82</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="87" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" ht="20.1" customHeight="1" spans="3:5">
       <c r="C87" s="1">
         <v>83</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" ht="20.1" customHeight="1" spans="3:6">
       <c r="C88" s="1">
         <v>84</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -2045,12 +2666,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" ht="20.1" customHeight="1" spans="3:6">
       <c r="C89" s="1">
         <v>85</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E89" s="1">
         <v>0</v>
@@ -2059,73 +2680,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" ht="20.1" customHeight="1" spans="3:5">
       <c r="C90" s="1">
         <v>86</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="91" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" ht="20.1" customHeight="1" spans="3:5">
       <c r="C91" s="1">
         <v>87</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="92" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" ht="20.1" customHeight="1" spans="3:5">
       <c r="C92" s="1">
         <v>88</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="93" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" ht="20.1" customHeight="1" spans="3:5">
       <c r="C93" s="1">
         <v>89</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E93" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="94" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" ht="20.1" customHeight="1" spans="3:5">
       <c r="C94" s="1">
         <v>90</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E94" s="1">
         <v>10000158</v>
       </c>
     </row>
-    <row r="95" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" ht="20.1" customHeight="1" spans="3:5">
       <c r="C95" s="1">
         <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E95" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" ht="20.1" customHeight="1" spans="3:5">
       <c r="C96" s="1">
         <v>92</v>
       </c>
@@ -2133,15 +2754,15 @@
         <v>24</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="97" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" ht="20.1" customHeight="1" spans="3:6">
       <c r="C97" s="1">
         <v>93</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E97" s="1">
         <v>30</v>
@@ -2150,12 +2771,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" ht="20.1" customHeight="1" spans="3:6">
       <c r="C98" s="1">
         <v>94</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E98" s="1">
         <v>200000</v>
@@ -2164,12 +2785,12 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="99" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" ht="20.1" customHeight="1" spans="3:6">
       <c r="C99" s="1">
         <v>95</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E99" s="1">
         <v>120</v>
@@ -2178,34 +2799,34 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" ht="20.1" customHeight="1" spans="3:5">
       <c r="C100" s="1">
         <v>96</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="101" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" ht="20.1" customHeight="1" spans="3:5">
       <c r="C101" s="1">
         <v>97</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="102" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" ht="20.1" customHeight="1" spans="3:6">
       <c r="C102" s="1">
         <v>98</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E102" s="1">
         <v>30000</v>
@@ -2214,12 +2835,12 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="103" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" ht="20.1" customHeight="1" spans="3:6">
       <c r="C103" s="1">
         <v>99</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E103" s="1">
         <v>61300001</v>
@@ -2228,45 +2849,45 @@
         <v>61300001</v>
       </c>
     </row>
-    <row r="104" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" ht="20.1" customHeight="1" spans="3:5">
       <c r="C104" s="1">
         <v>100</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" ht="20.1" customHeight="1" spans="3:5">
       <c r="C105" s="1">
         <v>101</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" ht="20.1" customHeight="1" spans="3:5">
       <c r="C106" s="1">
         <v>102</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="107" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" ht="20.1" customHeight="1" spans="3:6">
       <c r="C107" s="1">
         <v>103</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E107" s="1">
         <v>70000001</v>
@@ -2275,23 +2896,23 @@
         <v>70000001</v>
       </c>
     </row>
-    <row r="108" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" ht="20.1" customHeight="1" spans="3:5">
       <c r="C108" s="1">
         <v>104</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E108" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" ht="20.1" customHeight="1" spans="3:6">
       <c r="C109" s="1">
         <v>105</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E109" s="1">
         <v>30</v>
@@ -2300,12 +2921,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" ht="20.1" customHeight="1" spans="3:6">
       <c r="C110" s="1">
         <v>106</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E110" s="1">
         <v>80000001</v>
@@ -2314,23 +2935,23 @@
         <v>80000001</v>
       </c>
     </row>
-    <row r="111" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" ht="20.1" customHeight="1" spans="3:5">
       <c r="C111" s="1">
         <v>107</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="112" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" ht="20.1" customHeight="1" spans="3:6">
       <c r="C112" s="1">
         <v>108</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E112" s="1">
         <v>10</v>
@@ -2339,12 +2960,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" ht="20.1" customHeight="1" spans="3:6">
       <c r="C113" s="1">
         <v>109</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -2353,45 +2974,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" ht="20.1" customHeight="1" spans="3:5">
       <c r="C114" s="1">
         <v>110</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="115" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" ht="20.1" customHeight="1" spans="3:5">
       <c r="C115" s="1">
         <v>111</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="116" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" ht="20.1" customHeight="1" spans="3:5">
       <c r="C116" s="1">
         <v>112</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="117" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" ht="20.1" customHeight="1" spans="3:6">
       <c r="C117" s="1">
         <v>113</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E117" s="1">
         <v>198</v>
@@ -2400,12 +3021,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="118" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" ht="20.1" customHeight="1" spans="3:6">
       <c r="C118" s="1">
         <v>114</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E118" s="1">
         <v>90000001</v>
@@ -2414,12 +3035,12 @@
         <v>90000001</v>
       </c>
     </row>
-    <row r="119" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" ht="20.1" customHeight="1" spans="3:6">
       <c r="C119" s="1">
         <v>115</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E119" s="1">
         <v>120</v>
@@ -2428,23 +3049,23 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" ht="20.1" customHeight="1" spans="3:5">
       <c r="C120" s="1">
         <v>116</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="121" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121" ht="20.1" customHeight="1" spans="3:6">
       <c r="C121" s="1">
         <v>117</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E121" s="1">
         <v>3</v>
@@ -2453,12 +3074,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" ht="20.1" customHeight="1" spans="3:6">
       <c r="C122" s="1">
         <v>118</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E122" s="1">
         <v>50</v>
@@ -2467,12 +3088,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" ht="20.1" customHeight="1" spans="3:6">
       <c r="C123" s="1">
         <v>119</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E123" s="1">
         <v>60</v>
@@ -2481,12 +3102,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" ht="20.1" customHeight="1" spans="3:6">
       <c r="C124" s="1">
         <v>120</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E124" s="1">
         <v>20000001</v>
@@ -2495,14 +3116,27 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="125" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="20.1" customHeight="1" spans="3:6">
+      <c r="C125" s="1">
+        <v>121</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E125" s="1">
+        <v>10</v>
+      </c>
+      <c r="F125" s="1">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E115" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E115" r:id="rId3" display="1000001;100@601800051"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C56DB9A-4228-4A57-A6DF-FD81B90F20AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalValueProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="D84" authorId="0">
+    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="174">
   <si>
     <t>#</t>
   </si>
@@ -408,24 +401,15 @@
     <t>剧情副本刷新</t>
   </si>
   <si>
-    <t>80004001;0.005;10@80004002;0.001;2@80004003;0.0005;1</t>
-  </si>
-  <si>
     <t>剧情副本怪物刷新</t>
   </si>
   <si>
-    <t>0.0065;6;100,80005001&amp;100,80005002&amp;100,80005003&amp;50,80005004&amp;50,80005005&amp;50,80005006&amp;50,80005007&amp;30,80005008&amp;30,80005009&amp;30,80005010&amp;30,80005011&amp;30,80005012&amp;30,80005013&amp;30,80005014@0.003;2;100,80006001&amp;100,80006002&amp;100,80006003&amp;80,80006004&amp;80,80006005&amp;80,80006006&amp;60,80006007&amp;60,80006008&amp;40,80006009&amp;40,80006010</t>
-  </si>
-  <si>
     <t>经验兑换道具</t>
   </si>
   <si>
     <t>抓捕道具</t>
   </si>
   <si>
-    <t>10000153;200@10000154;500@10000155;1000</t>
-  </si>
-  <si>
     <t>购买格子消耗</t>
   </si>
   <si>
@@ -574,19 +558,21 @@
   </si>
   <si>
     <t>召唤宠物消耗魔力</t>
+  </si>
+  <si>
+    <t>1000008;200@1000009;500@1000010;1000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0065;6;100,810001&amp;100,810002&amp;100,810003&amp;100,810004&amp;100,810005&amp;100,810006&amp;100,810007&amp;100,810008</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,156 +613,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -789,194 +645,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -984,253 +654,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1255,65 +683,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1600,19 +987,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
@@ -1625,13 +1012,13 @@
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1" spans="4:4">
+    <row r="1" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:8">
+    <row r="3" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1647,7 +1034,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:8">
+    <row r="4" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1661,7 +1048,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:8">
+    <row r="5" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1675,7 +1062,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="6" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1686,7 +1073,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="7" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1697,7 +1084,7 @@
         <v>600000111</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:6">
+    <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1711,7 +1098,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:6">
+    <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1725,7 +1112,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:5">
+    <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="8">
         <v>5</v>
       </c>
@@ -1736,7 +1123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:5">
+    <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1747,7 +1134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:5">
+    <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8">
         <v>7</v>
       </c>
@@ -1758,7 +1145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:5">
+    <row r="13" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="8">
         <v>8</v>
       </c>
@@ -1769,7 +1156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:5">
+    <row r="14" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1780,7 +1167,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:6">
+    <row r="15" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1794,7 +1181,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:5">
+    <row r="16" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -1805,7 +1192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:6">
+    <row r="17" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>12</v>
       </c>
@@ -1819,7 +1206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:5">
+    <row r="18" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>13</v>
       </c>
@@ -1830,7 +1217,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:5">
+    <row r="19" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>14</v>
       </c>
@@ -1841,7 +1228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:5">
+    <row r="20" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -1852,7 +1239,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:5">
+    <row r="21" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -1863,7 +1250,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:5">
+    <row r="22" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -1874,7 +1261,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:5">
+    <row r="23" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -1885,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="24" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="1">
         <v>19</v>
       </c>
@@ -1899,7 +1286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:5">
+    <row r="25" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
         <v>20</v>
       </c>
@@ -1910,7 +1297,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="26" ht="20.1" customHeight="1" spans="3:5">
+    <row r="26" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
         <v>21</v>
       </c>
@@ -1921,7 +1308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="27" spans="3:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="1">
         <v>22</v>
       </c>
@@ -1932,7 +1319,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="28" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
         <v>23</v>
       </c>
@@ -1944,7 +1331,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="29" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>24</v>
       </c>
@@ -1956,7 +1343,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:6">
+    <row r="30" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
         <v>25</v>
       </c>
@@ -1970,7 +1357,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:5">
+    <row r="31" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
         <v>26</v>
       </c>
@@ -1981,7 +1368,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:5">
+    <row r="32" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
         <v>27</v>
       </c>
@@ -1992,7 +1379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:5">
+    <row r="33" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
         <v>28</v>
       </c>
@@ -2003,7 +1390,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:5">
+    <row r="34" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
         <v>29</v>
       </c>
@@ -2014,7 +1401,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:5">
+    <row r="35" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
         <v>30</v>
       </c>
@@ -2025,7 +1412,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" ht="20.1" customHeight="1" spans="3:5">
+    <row r="36" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
         <v>31</v>
       </c>
@@ -2036,7 +1423,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:5">
+    <row r="37" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
         <v>33</v>
       </c>
@@ -2047,7 +1434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:5">
+    <row r="38" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="1">
         <v>34</v>
       </c>
@@ -2058,7 +1445,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:5">
+    <row r="39" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="1">
         <v>35</v>
       </c>
@@ -2069,7 +1456,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="40" ht="20.1" customHeight="1" spans="3:5">
+    <row r="40" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1">
         <v>36</v>
       </c>
@@ -2080,7 +1467,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:5">
+    <row r="41" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
         <v>37</v>
       </c>
@@ -2091,7 +1478,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="42" ht="20.1" customHeight="1" spans="3:5">
+    <row r="42" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
         <v>38</v>
       </c>
@@ -2102,7 +1489,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" ht="20.1" customHeight="1" spans="3:5">
+    <row r="43" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="1">
         <v>39</v>
       </c>
@@ -2113,7 +1500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" ht="20.1" customHeight="1" spans="3:5">
+    <row r="44" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="1">
         <v>40</v>
       </c>
@@ -2124,7 +1511,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:6">
+    <row r="45" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="1">
         <v>41</v>
       </c>
@@ -2138,7 +1525,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:5">
+    <row r="46" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="1">
         <v>42</v>
       </c>
@@ -2149,7 +1536,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:7">
+    <row r="47" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="1">
         <v>43</v>
       </c>
@@ -2163,7 +1550,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:6">
+    <row r="48" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="1">
         <v>44</v>
       </c>
@@ -2177,7 +1564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" ht="20.1" customHeight="1" spans="3:6">
+    <row r="49" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="1">
         <v>45</v>
       </c>
@@ -2191,7 +1578,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" ht="20.1" customHeight="1" spans="3:6">
+    <row r="50" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="1">
         <v>46</v>
       </c>
@@ -2205,7 +1592,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" ht="20.1" customHeight="1" spans="3:6">
+    <row r="51" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="1">
         <v>47</v>
       </c>
@@ -2219,7 +1606,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" ht="20.1" customHeight="1" spans="3:5">
+    <row r="52" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="1">
         <v>48</v>
       </c>
@@ -2230,7 +1617,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" ht="20.1" customHeight="1" spans="3:5">
+    <row r="53" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="1">
         <v>49</v>
       </c>
@@ -2241,7 +1628,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" ht="20.1" customHeight="1" spans="3:6">
+    <row r="54" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="1">
         <v>50</v>
       </c>
@@ -2255,7 +1642,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" ht="20.1" customHeight="1" spans="3:5">
+    <row r="55" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="1">
         <v>51</v>
       </c>
@@ -2266,7 +1653,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" ht="20.1" customHeight="1" spans="3:6">
+    <row r="56" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="1">
         <v>52</v>
       </c>
@@ -2278,7 +1665,7 @@
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" ht="20.1" customHeight="1" spans="3:5">
+    <row r="57" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="1">
         <v>53</v>
       </c>
@@ -2289,7 +1676,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" ht="20.1" customHeight="1" spans="3:5">
+    <row r="58" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="1">
         <v>54</v>
       </c>
@@ -2300,7 +1687,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" ht="20.1" customHeight="1" spans="3:6">
+    <row r="59" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="1">
         <v>55</v>
       </c>
@@ -2314,7 +1701,7 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="60" ht="20.1" customHeight="1" spans="3:5">
+    <row r="60" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="1">
         <v>56</v>
       </c>
@@ -2325,7 +1712,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" ht="20.1" customHeight="1" spans="3:6">
+    <row r="61" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="1">
         <v>57</v>
       </c>
@@ -2339,7 +1726,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" ht="20.1" customHeight="1" spans="3:6">
+    <row r="62" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="1">
         <v>58</v>
       </c>
@@ -2353,7 +1740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" ht="20.1" customHeight="1" spans="3:6">
+    <row r="63" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="1">
         <v>59</v>
       </c>
@@ -2367,7 +1754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" ht="20.1" customHeight="1" spans="3:6">
+    <row r="64" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="1">
         <v>60</v>
       </c>
@@ -2381,7 +1768,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" ht="20.1" customHeight="1" spans="3:5">
+    <row r="65" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="1">
         <v>61</v>
       </c>
@@ -2392,7 +1779,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" ht="20.1" customHeight="1" spans="3:5">
+    <row r="66" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="1">
         <v>62</v>
       </c>
@@ -2403,7 +1790,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" ht="20.1" customHeight="1" spans="3:5">
+    <row r="67" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="1">
         <v>63</v>
       </c>
@@ -2414,7 +1801,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" ht="20.1" customHeight="1" spans="3:6">
+    <row r="68" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="1">
         <v>64</v>
       </c>
@@ -2428,7 +1815,7 @@
         <v>30000001</v>
       </c>
     </row>
-    <row r="69" ht="20.1" customHeight="1" spans="3:5">
+    <row r="69" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="1">
         <v>65</v>
       </c>
@@ -2439,7 +1826,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" ht="20.1" customHeight="1" spans="3:5">
+    <row r="70" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="1">
         <v>66</v>
       </c>
@@ -2450,7 +1837,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" ht="20.1" customHeight="1" spans="3:5">
+    <row r="71" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="1">
         <v>67</v>
       </c>
@@ -2461,7 +1848,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" ht="20.1" customHeight="1" spans="3:5">
+    <row r="72" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="1">
         <v>68</v>
       </c>
@@ -2472,7 +1859,7 @@
         <v>60500101</v>
       </c>
     </row>
-    <row r="73" ht="20.1" customHeight="1" spans="3:5">
+    <row r="73" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="1">
         <v>69</v>
       </c>
@@ -2483,7 +1870,7 @@
         <v>60500201</v>
       </c>
     </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:5">
+    <row r="74" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="1">
         <v>70</v>
       </c>
@@ -2494,7 +1881,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" ht="20.1" customHeight="1" spans="3:5">
+    <row r="75" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="1">
         <v>71</v>
       </c>
@@ -2505,7 +1892,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" ht="20.1" customHeight="1" spans="3:6">
+    <row r="76" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="1">
         <v>72</v>
       </c>
@@ -2519,7 +1906,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" ht="20.1" customHeight="1" spans="3:6">
+    <row r="77" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="1">
         <v>73</v>
       </c>
@@ -2533,7 +1920,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="78" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="1">
         <v>74</v>
       </c>
@@ -2547,7 +1934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" ht="20.1" customHeight="1" spans="3:5">
+    <row r="79" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="1">
         <v>75</v>
       </c>
@@ -2558,7 +1945,7 @@
         <v>601502001</v>
       </c>
     </row>
-    <row r="80" ht="20.1" customHeight="1" spans="3:6">
+    <row r="80" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="1">
         <v>76</v>
       </c>
@@ -2572,7 +1959,7 @@
         <v>40000001</v>
       </c>
     </row>
-    <row r="81" ht="20.1" customHeight="1" spans="3:5">
+    <row r="81" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="1">
         <v>77</v>
       </c>
@@ -2583,7 +1970,7 @@
         <v>601503011</v>
       </c>
     </row>
-    <row r="82" ht="20.1" customHeight="1" spans="3:6">
+    <row r="82" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="1">
         <v>78</v>
       </c>
@@ -2597,67 +1984,67 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" ht="20.1" customHeight="1" spans="3:5">
+    <row r="83" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="1">
         <v>79</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" ht="20.1" customHeight="1" spans="3:5">
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="1">
         <v>80</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" ht="20.1" customHeight="1" spans="3:5">
+        <v>119</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="1">
         <v>81</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E85" s="7">
         <v>60303101</v>
       </c>
     </row>
-    <row r="86" ht="20.1" customHeight="1" spans="3:5">
+    <row r="86" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="1">
         <v>82</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="87" ht="20.1" customHeight="1" spans="3:5">
+        <v>121</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="1">
         <v>83</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="88" ht="20.1" customHeight="1" spans="3:6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="1">
         <v>84</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -2666,12 +2053,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" ht="20.1" customHeight="1" spans="3:6">
+    <row r="89" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="1">
         <v>85</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E89" s="1">
         <v>0</v>
@@ -2680,73 +2067,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" ht="20.1" customHeight="1" spans="3:5">
+    <row r="90" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="1">
         <v>86</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" ht="20.1" customHeight="1" spans="3:5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="1">
         <v>87</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="92" ht="20.1" customHeight="1" spans="3:5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="1">
         <v>88</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="93" ht="20.1" customHeight="1" spans="3:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="1">
         <v>89</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E93" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="94" ht="20.1" customHeight="1" spans="3:5">
+    <row r="94" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="1">
         <v>90</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E94" s="1">
         <v>10000158</v>
       </c>
     </row>
-    <row r="95" ht="20.1" customHeight="1" spans="3:5">
+    <row r="95" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="1">
         <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E95" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="96" ht="20.1" customHeight="1" spans="3:5">
+    <row r="96" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="1">
         <v>92</v>
       </c>
@@ -2754,15 +2141,15 @@
         <v>24</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="97" ht="20.1" customHeight="1" spans="3:6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="1">
         <v>93</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E97" s="1">
         <v>30</v>
@@ -2771,12 +2158,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" ht="20.1" customHeight="1" spans="3:6">
+    <row r="98" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="1">
         <v>94</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E98" s="1">
         <v>200000</v>
@@ -2785,12 +2172,12 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="99" ht="20.1" customHeight="1" spans="3:6">
+    <row r="99" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="1">
         <v>95</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E99" s="1">
         <v>120</v>
@@ -2799,34 +2186,34 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" ht="20.1" customHeight="1" spans="3:5">
+    <row r="100" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="1">
         <v>96</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="101" ht="20.1" customHeight="1" spans="3:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="1">
         <v>97</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="102" ht="20.1" customHeight="1" spans="3:6">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="1">
         <v>98</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E102" s="1">
         <v>30000</v>
@@ -2835,12 +2222,12 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="103" ht="20.1" customHeight="1" spans="3:6">
+    <row r="103" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="1">
         <v>99</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E103" s="1">
         <v>61300001</v>
@@ -2849,45 +2236,45 @@
         <v>61300001</v>
       </c>
     </row>
-    <row r="104" ht="20.1" customHeight="1" spans="3:5">
+    <row r="104" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="1">
         <v>100</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="105" ht="20.1" customHeight="1" spans="3:5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="1">
         <v>101</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="106" ht="20.1" customHeight="1" spans="3:5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="1">
         <v>102</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="107" ht="20.1" customHeight="1" spans="3:6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="1">
         <v>103</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E107" s="1">
         <v>70000001</v>
@@ -2896,23 +2283,23 @@
         <v>70000001</v>
       </c>
     </row>
-    <row r="108" ht="20.1" customHeight="1" spans="3:5">
+    <row r="108" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="1">
         <v>104</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E108" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="109" ht="20.1" customHeight="1" spans="3:6">
+    <row r="109" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="1">
         <v>105</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E109" s="1">
         <v>30</v>
@@ -2921,12 +2308,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" ht="20.1" customHeight="1" spans="3:6">
+    <row r="110" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="1">
         <v>106</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E110" s="1">
         <v>80000001</v>
@@ -2935,23 +2322,23 @@
         <v>80000001</v>
       </c>
     </row>
-    <row r="111" ht="20.1" customHeight="1" spans="3:5">
+    <row r="111" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="1">
         <v>107</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="112" ht="20.1" customHeight="1" spans="3:6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C112" s="1">
         <v>108</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E112" s="1">
         <v>10</v>
@@ -2960,12 +2347,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" ht="20.1" customHeight="1" spans="3:6">
+    <row r="113" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="1">
         <v>109</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -2974,45 +2361,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" ht="20.1" customHeight="1" spans="3:5">
+    <row r="114" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="1">
         <v>110</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="115" ht="20.1" customHeight="1" spans="3:5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="1">
         <v>111</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="116" ht="20.1" customHeight="1" spans="3:5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116" s="1">
         <v>112</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="117" ht="20.1" customHeight="1" spans="3:6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="1">
         <v>113</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E117" s="1">
         <v>198</v>
@@ -3021,12 +2408,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="118" ht="20.1" customHeight="1" spans="3:6">
+    <row r="118" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118" s="1">
         <v>114</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E118" s="1">
         <v>90000001</v>
@@ -3035,12 +2422,12 @@
         <v>90000001</v>
       </c>
     </row>
-    <row r="119" ht="20.1" customHeight="1" spans="3:6">
+    <row r="119" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="1">
         <v>115</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E119" s="1">
         <v>120</v>
@@ -3049,23 +2436,23 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" ht="20.1" customHeight="1" spans="3:5">
+    <row r="120" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="1">
         <v>116</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="121" ht="20.1" customHeight="1" spans="3:6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="1">
         <v>117</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E121" s="1">
         <v>3</v>
@@ -3074,12 +2461,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" ht="20.1" customHeight="1" spans="3:6">
+    <row r="122" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="1">
         <v>118</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E122" s="1">
         <v>50</v>
@@ -3088,12 +2475,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" ht="20.1" customHeight="1" spans="3:6">
+    <row r="123" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="1">
         <v>119</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E123" s="1">
         <v>60</v>
@@ -3102,12 +2489,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" ht="20.1" customHeight="1" spans="3:6">
+    <row r="124" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="1">
         <v>120</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E124" s="1">
         <v>20000001</v>
@@ -3116,12 +2503,12 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="125" ht="20.1" customHeight="1" spans="3:6">
+    <row r="125" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="1">
         <v>121</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E125" s="1">
         <v>10</v>
@@ -3131,12 +2518,12 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E115" r:id="rId3" display="1000001;100@601800051"/>
+    <hyperlink ref="E115" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C56DB9A-4228-4A57-A6DF-FD81B90F20AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalValueProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="176">
   <si>
     <t>#</t>
   </si>
@@ -404,12 +411,18 @@
     <t>剧情副本怪物刷新</t>
   </si>
   <si>
+    <t>0.0065;6;100,810001&amp;100,810002&amp;100,810003&amp;100,810004&amp;100,810005&amp;100,810006&amp;100,810007&amp;100,810008</t>
+  </si>
+  <si>
     <t>经验兑换道具</t>
   </si>
   <si>
     <t>抓捕道具</t>
   </si>
   <si>
+    <t>1000008;200@1000009;500@1000010;1000</t>
+  </si>
+  <si>
     <t>购买格子消耗</t>
   </si>
   <si>
@@ -560,19 +573,23 @@
     <t>召唤宠物消耗魔力</t>
   </si>
   <si>
-    <t>1000008;200@1000009;500@1000010;1000</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.0065;6;100,810001&amp;100,810002&amp;100,810003&amp;100,810004&amp;100,810005&amp;100,810006&amp;100,810007&amp;100,810008</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>每日游戏抽奖次数上限</t>
+  </si>
+  <si>
+    <t>每日宠物抽奖次数上限</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,26 +630,156 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -645,8 +792,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -654,11 +987,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -683,24 +1258,65 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -987,19 +1603,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:H125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
@@ -1012,13 +1628,13 @@
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.1" customHeight="1"/>
+    <row r="2" ht="20.1" customHeight="1" spans="4:4">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="20.1" customHeight="1" spans="3:8">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1034,7 +1650,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="20.1" customHeight="1" spans="3:8">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1048,7 +1664,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="20.1" customHeight="1" spans="3:8">
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1062,7 +1678,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1073,7 +1689,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="7" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1084,7 +1700,7 @@
         <v>600000111</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="20.1" customHeight="1" spans="3:6">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1098,7 +1714,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="20.1" customHeight="1" spans="3:6">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1112,7 +1728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="20.1" customHeight="1" spans="3:5">
       <c r="C10" s="8">
         <v>5</v>
       </c>
@@ -1123,7 +1739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="20.1" customHeight="1" spans="3:5">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1134,7 +1750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="20.1" customHeight="1" spans="3:5">
       <c r="C12" s="8">
         <v>7</v>
       </c>
@@ -1145,7 +1761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="20.1" customHeight="1" spans="3:5">
       <c r="C13" s="8">
         <v>8</v>
       </c>
@@ -1156,7 +1772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="20.1" customHeight="1" spans="3:5">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1167,7 +1783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="20.1" customHeight="1" spans="3:6">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1181,7 +1797,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="20.1" customHeight="1" spans="3:5">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -1192,7 +1808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="20.1" customHeight="1" spans="3:6">
       <c r="C17" s="1">
         <v>12</v>
       </c>
@@ -1206,7 +1822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="20.1" customHeight="1" spans="3:5">
       <c r="C18" s="1">
         <v>13</v>
       </c>
@@ -1217,7 +1833,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" ht="20.1" customHeight="1" spans="3:5">
       <c r="C19" s="1">
         <v>14</v>
       </c>
@@ -1228,7 +1844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" ht="20.1" customHeight="1" spans="3:5">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -1239,7 +1855,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" ht="20.1" customHeight="1" spans="3:5">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -1250,7 +1866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" ht="20.1" customHeight="1" spans="3:5">
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -1261,7 +1877,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="23" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" ht="20.1" customHeight="1" spans="3:5">
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -1272,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C24" s="1">
         <v>19</v>
       </c>
@@ -1286,7 +1902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" ht="20.1" customHeight="1" spans="3:5">
       <c r="C25" s="1">
         <v>20</v>
       </c>
@@ -1297,7 +1913,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="26" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" ht="20.1" customHeight="1" spans="3:5">
       <c r="C26" s="1">
         <v>21</v>
       </c>
@@ -1308,7 +1924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="3:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C27" s="1">
         <v>22</v>
       </c>
@@ -1319,7 +1935,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C28" s="1">
         <v>23</v>
       </c>
@@ -1331,7 +1947,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C29" s="1">
         <v>24</v>
       </c>
@@ -1343,7 +1959,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" ht="20.1" customHeight="1" spans="3:6">
       <c r="C30" s="1">
         <v>25</v>
       </c>
@@ -1357,7 +1973,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" ht="20.1" customHeight="1" spans="3:5">
       <c r="C31" s="1">
         <v>26</v>
       </c>
@@ -1368,7 +1984,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" ht="20.1" customHeight="1" spans="3:5">
       <c r="C32" s="1">
         <v>27</v>
       </c>
@@ -1379,7 +1995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" ht="20.1" customHeight="1" spans="3:5">
       <c r="C33" s="1">
         <v>28</v>
       </c>
@@ -1390,7 +2006,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" ht="20.1" customHeight="1" spans="3:5">
       <c r="C34" s="1">
         <v>29</v>
       </c>
@@ -1401,7 +2017,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="20.1" customHeight="1" spans="3:5">
       <c r="C35" s="1">
         <v>30</v>
       </c>
@@ -1412,7 +2028,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" ht="20.1" customHeight="1" spans="3:5">
       <c r="C36" s="1">
         <v>31</v>
       </c>
@@ -1423,7 +2039,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="20.1" customHeight="1" spans="3:5">
       <c r="C37" s="1">
         <v>33</v>
       </c>
@@ -1434,7 +2050,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" ht="20.1" customHeight="1" spans="3:5">
       <c r="C38" s="1">
         <v>34</v>
       </c>
@@ -1445,7 +2061,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" ht="20.1" customHeight="1" spans="3:5">
       <c r="C39" s="1">
         <v>35</v>
       </c>
@@ -1456,7 +2072,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="40" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" ht="20.1" customHeight="1" spans="3:5">
       <c r="C40" s="1">
         <v>36</v>
       </c>
@@ -1467,7 +2083,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="41" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" ht="20.1" customHeight="1" spans="3:5">
       <c r="C41" s="1">
         <v>37</v>
       </c>
@@ -1478,7 +2094,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="20.1" customHeight="1" spans="3:5">
       <c r="C42" s="1">
         <v>38</v>
       </c>
@@ -1489,7 +2105,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" ht="20.1" customHeight="1" spans="3:5">
       <c r="C43" s="1">
         <v>39</v>
       </c>
@@ -1500,7 +2116,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" ht="20.1" customHeight="1" spans="3:5">
       <c r="C44" s="1">
         <v>40</v>
       </c>
@@ -1511,7 +2127,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" ht="20.1" customHeight="1" spans="3:6">
       <c r="C45" s="1">
         <v>41</v>
       </c>
@@ -1525,7 +2141,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" ht="20.1" customHeight="1" spans="3:5">
       <c r="C46" s="1">
         <v>42</v>
       </c>
@@ -1536,7 +2152,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" ht="20.1" customHeight="1" spans="3:7">
       <c r="C47" s="1">
         <v>43</v>
       </c>
@@ -1550,7 +2166,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" ht="20.1" customHeight="1" spans="3:6">
       <c r="C48" s="1">
         <v>44</v>
       </c>
@@ -1564,7 +2180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" ht="20.1" customHeight="1" spans="3:6">
       <c r="C49" s="1">
         <v>45</v>
       </c>
@@ -1578,7 +2194,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" ht="20.1" customHeight="1" spans="3:6">
       <c r="C50" s="1">
         <v>46</v>
       </c>
@@ -1592,7 +2208,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" ht="20.1" customHeight="1" spans="3:6">
       <c r="C51" s="1">
         <v>47</v>
       </c>
@@ -1606,7 +2222,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" ht="20.1" customHeight="1" spans="3:5">
       <c r="C52" s="1">
         <v>48</v>
       </c>
@@ -1617,7 +2233,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" ht="20.1" customHeight="1" spans="3:5">
       <c r="C53" s="1">
         <v>49</v>
       </c>
@@ -1628,7 +2244,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" ht="20.1" customHeight="1" spans="3:6">
       <c r="C54" s="1">
         <v>50</v>
       </c>
@@ -1642,7 +2258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" ht="20.1" customHeight="1" spans="3:5">
       <c r="C55" s="1">
         <v>51</v>
       </c>
@@ -1653,41 +2269,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" ht="20.1" customHeight="1" spans="3:6">
       <c r="C56" s="1">
         <v>52</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" ht="20.1" customHeight="1" spans="3:5">
       <c r="C57" s="1">
         <v>53</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" ht="20.1" customHeight="1" spans="3:5">
       <c r="C58" s="1">
         <v>54</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" ht="20.1" customHeight="1" spans="3:6">
       <c r="C59" s="1">
         <v>55</v>
       </c>
@@ -1701,7 +2317,7 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="60" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" ht="20.1" customHeight="1" spans="3:5">
       <c r="C60" s="1">
         <v>56</v>
       </c>
@@ -1712,7 +2328,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" ht="20.1" customHeight="1" spans="3:6">
       <c r="C61" s="1">
         <v>57</v>
       </c>
@@ -1726,7 +2342,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" ht="20.1" customHeight="1" spans="3:6">
       <c r="C62" s="1">
         <v>58</v>
       </c>
@@ -1740,7 +2356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" ht="20.1" customHeight="1" spans="3:6">
       <c r="C63" s="1">
         <v>59</v>
       </c>
@@ -1754,7 +2370,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" ht="20.1" customHeight="1" spans="3:6">
       <c r="C64" s="1">
         <v>60</v>
       </c>
@@ -1768,7 +2384,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" ht="20.1" customHeight="1" spans="3:5">
       <c r="C65" s="1">
         <v>61</v>
       </c>
@@ -1779,7 +2395,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" ht="20.1" customHeight="1" spans="3:5">
       <c r="C66" s="1">
         <v>62</v>
       </c>
@@ -1790,7 +2406,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" ht="20.1" customHeight="1" spans="3:5">
       <c r="C67" s="1">
         <v>63</v>
       </c>
@@ -1801,7 +2417,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" ht="20.1" customHeight="1" spans="3:6">
       <c r="C68" s="1">
         <v>64</v>
       </c>
@@ -1815,7 +2431,7 @@
         <v>30000001</v>
       </c>
     </row>
-    <row r="69" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" ht="20.1" customHeight="1" spans="3:5">
       <c r="C69" s="1">
         <v>65</v>
       </c>
@@ -1826,7 +2442,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" ht="20.1" customHeight="1" spans="3:5">
       <c r="C70" s="1">
         <v>66</v>
       </c>
@@ -1837,7 +2453,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" ht="20.1" customHeight="1" spans="3:5">
       <c r="C71" s="1">
         <v>67</v>
       </c>
@@ -1848,7 +2464,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" ht="20.1" customHeight="1" spans="3:5">
       <c r="C72" s="1">
         <v>68</v>
       </c>
@@ -1859,7 +2475,7 @@
         <v>60500101</v>
       </c>
     </row>
-    <row r="73" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" ht="20.1" customHeight="1" spans="3:5">
       <c r="C73" s="1">
         <v>69</v>
       </c>
@@ -1870,7 +2486,7 @@
         <v>60500201</v>
       </c>
     </row>
-    <row r="74" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" ht="20.1" customHeight="1" spans="3:5">
       <c r="C74" s="1">
         <v>70</v>
       </c>
@@ -1881,7 +2497,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" ht="20.1" customHeight="1" spans="3:5">
       <c r="C75" s="1">
         <v>71</v>
       </c>
@@ -1892,7 +2508,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" ht="20.1" customHeight="1" spans="3:6">
       <c r="C76" s="1">
         <v>72</v>
       </c>
@@ -1906,7 +2522,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" ht="20.1" customHeight="1" spans="3:6">
       <c r="C77" s="1">
         <v>73</v>
       </c>
@@ -1920,7 +2536,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="78" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C78" s="1">
         <v>74</v>
       </c>
@@ -1934,7 +2550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" ht="20.1" customHeight="1" spans="3:5">
       <c r="C79" s="1">
         <v>75</v>
       </c>
@@ -1945,7 +2561,7 @@
         <v>601502001</v>
       </c>
     </row>
-    <row r="80" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" ht="20.1" customHeight="1" spans="3:6">
       <c r="C80" s="1">
         <v>76</v>
       </c>
@@ -1959,7 +2575,7 @@
         <v>40000001</v>
       </c>
     </row>
-    <row r="81" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" ht="20.1" customHeight="1" spans="3:5">
       <c r="C81" s="1">
         <v>77</v>
       </c>
@@ -1970,7 +2586,7 @@
         <v>601503011</v>
       </c>
     </row>
-    <row r="82" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" ht="20.1" customHeight="1" spans="3:6">
       <c r="C82" s="1">
         <v>78</v>
       </c>
@@ -1984,7 +2600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" ht="20.1" customHeight="1" spans="3:5">
       <c r="C83" s="1">
         <v>79</v>
       </c>
@@ -1995,56 +2611,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" ht="20.1" customHeight="1" spans="3:5">
       <c r="C84" s="1">
         <v>80</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E84" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="85" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" ht="20.1" customHeight="1" spans="3:5">
       <c r="C85" s="1">
         <v>81</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E85" s="7">
         <v>60303101</v>
       </c>
     </row>
-    <row r="86" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" ht="20.1" customHeight="1" spans="3:5">
       <c r="C86" s="1">
         <v>82</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="87" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" ht="20.1" customHeight="1" spans="3:5">
       <c r="C87" s="1">
         <v>83</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" ht="20.1" customHeight="1" spans="3:6">
       <c r="C88" s="1">
         <v>84</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -2053,12 +2669,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" ht="20.1" customHeight="1" spans="3:6">
       <c r="C89" s="1">
         <v>85</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E89" s="1">
         <v>0</v>
@@ -2067,73 +2683,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" ht="20.1" customHeight="1" spans="3:5">
       <c r="C90" s="1">
         <v>86</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="91" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" ht="20.1" customHeight="1" spans="3:5">
       <c r="C91" s="1">
         <v>87</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="92" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" ht="20.1" customHeight="1" spans="3:5">
       <c r="C92" s="1">
         <v>88</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="93" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" ht="20.1" customHeight="1" spans="3:5">
       <c r="C93" s="1">
         <v>89</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E93" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="94" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" ht="20.1" customHeight="1" spans="3:5">
       <c r="C94" s="1">
         <v>90</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E94" s="1">
         <v>10000158</v>
       </c>
     </row>
-    <row r="95" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" ht="20.1" customHeight="1" spans="3:5">
       <c r="C95" s="1">
         <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E95" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" ht="20.1" customHeight="1" spans="3:5">
       <c r="C96" s="1">
         <v>92</v>
       </c>
@@ -2141,15 +2757,15 @@
         <v>24</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="97" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" ht="20.1" customHeight="1" spans="3:6">
       <c r="C97" s="1">
         <v>93</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E97" s="1">
         <v>30</v>
@@ -2158,12 +2774,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" ht="20.1" customHeight="1" spans="3:6">
       <c r="C98" s="1">
         <v>94</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E98" s="1">
         <v>200000</v>
@@ -2172,12 +2788,12 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="99" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" ht="20.1" customHeight="1" spans="3:6">
       <c r="C99" s="1">
         <v>95</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E99" s="1">
         <v>120</v>
@@ -2186,34 +2802,34 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" ht="20.1" customHeight="1" spans="3:5">
       <c r="C100" s="1">
         <v>96</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="101" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" ht="20.1" customHeight="1" spans="3:5">
       <c r="C101" s="1">
         <v>97</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="102" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" ht="20.1" customHeight="1" spans="3:6">
       <c r="C102" s="1">
         <v>98</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E102" s="1">
         <v>30000</v>
@@ -2222,12 +2838,12 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="103" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" ht="20.1" customHeight="1" spans="3:6">
       <c r="C103" s="1">
         <v>99</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E103" s="1">
         <v>61300001</v>
@@ -2236,45 +2852,45 @@
         <v>61300001</v>
       </c>
     </row>
-    <row r="104" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" ht="20.1" customHeight="1" spans="3:5">
       <c r="C104" s="1">
         <v>100</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" ht="20.1" customHeight="1" spans="3:5">
       <c r="C105" s="1">
         <v>101</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" ht="20.1" customHeight="1" spans="3:5">
       <c r="C106" s="1">
         <v>102</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="107" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" ht="20.1" customHeight="1" spans="3:6">
       <c r="C107" s="1">
         <v>103</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E107" s="1">
         <v>70000001</v>
@@ -2283,23 +2899,23 @@
         <v>70000001</v>
       </c>
     </row>
-    <row r="108" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" ht="20.1" customHeight="1" spans="3:5">
       <c r="C108" s="1">
         <v>104</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E108" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" ht="20.1" customHeight="1" spans="3:6">
       <c r="C109" s="1">
         <v>105</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E109" s="1">
         <v>30</v>
@@ -2308,12 +2924,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" ht="20.1" customHeight="1" spans="3:6">
       <c r="C110" s="1">
         <v>106</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E110" s="1">
         <v>80000001</v>
@@ -2322,23 +2938,23 @@
         <v>80000001</v>
       </c>
     </row>
-    <row r="111" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" ht="20.1" customHeight="1" spans="3:5">
       <c r="C111" s="1">
         <v>107</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="112" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" ht="20.1" customHeight="1" spans="3:6">
       <c r="C112" s="1">
         <v>108</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E112" s="1">
         <v>10</v>
@@ -2347,12 +2963,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" ht="20.1" customHeight="1" spans="3:6">
       <c r="C113" s="1">
         <v>109</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -2361,45 +2977,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" ht="20.1" customHeight="1" spans="3:5">
       <c r="C114" s="1">
         <v>110</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="115" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" ht="20.1" customHeight="1" spans="3:5">
       <c r="C115" s="1">
         <v>111</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="116" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" ht="20.1" customHeight="1" spans="3:5">
       <c r="C116" s="1">
         <v>112</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="117" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" ht="20.1" customHeight="1" spans="3:6">
       <c r="C117" s="1">
         <v>113</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E117" s="1">
         <v>198</v>
@@ -2408,12 +3024,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="118" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" ht="20.1" customHeight="1" spans="3:6">
       <c r="C118" s="1">
         <v>114</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E118" s="1">
         <v>90000001</v>
@@ -2422,12 +3038,12 @@
         <v>90000001</v>
       </c>
     </row>
-    <row r="119" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" ht="20.1" customHeight="1" spans="3:6">
       <c r="C119" s="1">
         <v>115</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E119" s="1">
         <v>120</v>
@@ -2436,23 +3052,23 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" ht="20.1" customHeight="1" spans="3:5">
       <c r="C120" s="1">
         <v>116</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="121" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="121" ht="20.1" customHeight="1" spans="3:6">
       <c r="C121" s="1">
         <v>117</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E121" s="1">
         <v>3</v>
@@ -2461,12 +3077,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" ht="20.1" customHeight="1" spans="3:6">
       <c r="C122" s="1">
         <v>118</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E122" s="1">
         <v>50</v>
@@ -2475,12 +3091,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" ht="20.1" customHeight="1" spans="3:6">
       <c r="C123" s="1">
         <v>119</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E123" s="1">
         <v>60</v>
@@ -2489,12 +3105,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" ht="20.1" customHeight="1" spans="3:6">
       <c r="C124" s="1">
         <v>120</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E124" s="1">
         <v>20000001</v>
@@ -2503,12 +3119,12 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="125" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" ht="20.1" customHeight="1" spans="3:6">
       <c r="C125" s="1">
         <v>121</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E125" s="1">
         <v>10</v>
@@ -2517,13 +3133,41 @@
         <v>10</v>
       </c>
     </row>
+    <row r="126" ht="20.1" customHeight="1" spans="3:6">
+      <c r="C126" s="1">
+        <v>122</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E126" s="1">
+        <v>300</v>
+      </c>
+      <c r="F126" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="127" ht="20.1" customHeight="1" spans="3:6">
+      <c r="C127" s="1">
+        <v>123</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E127" s="1">
+        <v>300</v>
+      </c>
+      <c r="F127" s="1">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E115" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E115" r:id="rId3" display="1000001;100@601800051"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12795"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalValueProto" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="180">
   <si>
     <t>#</t>
   </si>
@@ -577,6 +577,18 @@
   </si>
   <si>
     <t>每日宠物抽奖次数上限</t>
+  </si>
+  <si>
+    <t>宝宝刷新概率</t>
+  </si>
+  <si>
+    <t>变异宝宝刷新概率</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>每日最多刷新宝宝数量</t>
   </si>
 </sst>
 </file>
@@ -589,7 +601,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,12 +632,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1103,137 +1109,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1253,9 +1259,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -1609,10 +1612,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:H127"/>
+  <dimension ref="C1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -2123,7 +2126,7 @@
       <c r="D44" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2618,7 +2621,7 @@
       <c r="D84" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E84" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2640,7 +2643,7 @@
       <c r="D86" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="1" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3159,6 +3162,39 @@
       </c>
       <c r="F127" s="1">
         <v>300</v>
+      </c>
+    </row>
+    <row r="128" spans="3:5">
+      <c r="C128" s="1">
+        <v>124</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="129" spans="3:5">
+      <c r="C129" s="1">
+        <v>125</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="3:5">
+      <c r="C130" s="1">
+        <v>126</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E130" s="1">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="181">
   <si>
     <t>#</t>
   </si>
@@ -589,6 +589,9 @@
   </si>
   <si>
     <t>每日最多刷新宝宝数量</t>
+  </si>
+  <si>
+    <t>默认抓捕成功率</t>
   </si>
 </sst>
 </file>
@@ -1612,10 +1615,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:H130"/>
+  <dimension ref="C1:H131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="E134" sqref="E134"/>
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -3197,6 +3200,20 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="131" spans="3:6">
+      <c r="C131" s="1">
+        <v>127</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E131" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F131" s="1">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E115" r:id="rId3" display="1000001;100@601800051"/>

--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8B3C86-B622-4A0A-9FEC-926BE4351DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalValueProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="D84" authorId="0">
+    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -585,26 +578,22 @@
     <t>变异宝宝刷新概率</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
     <t>每日最多刷新宝宝数量</t>
   </si>
   <si>
-    <t>默认抓捕成功率</t>
+    <t>默认抓捕成功率(野生;宝宝;变异)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000;3000;3000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,156 +628,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -801,194 +659,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -996,253 +668,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1264,65 +694,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1609,19 +998,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
@@ -1634,13 +1023,13 @@
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1" spans="4:4">
+    <row r="1" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:8">
+    <row r="3" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1656,7 +1045,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:8">
+    <row r="4" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1670,7 +1059,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:8">
+    <row r="5" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1684,7 +1073,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="6" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1695,7 +1084,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="7" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1706,7 +1095,7 @@
         <v>600000111</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:6">
+    <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1720,7 +1109,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:6">
+    <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1734,7 +1123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:5">
+    <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="8">
         <v>5</v>
       </c>
@@ -1745,7 +1134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:5">
+    <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1756,7 +1145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:5">
+    <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8">
         <v>7</v>
       </c>
@@ -1767,7 +1156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:5">
+    <row r="13" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="8">
         <v>8</v>
       </c>
@@ -1778,7 +1167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:5">
+    <row r="14" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1789,7 +1178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:6">
+    <row r="15" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1803,7 +1192,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:5">
+    <row r="16" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -1814,7 +1203,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:6">
+    <row r="17" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>12</v>
       </c>
@@ -1828,7 +1217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:5">
+    <row r="18" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>13</v>
       </c>
@@ -1839,7 +1228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:5">
+    <row r="19" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>14</v>
       </c>
@@ -1850,7 +1239,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:5">
+    <row r="20" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -1861,7 +1250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:5">
+    <row r="21" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -1872,7 +1261,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:5">
+    <row r="22" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -1883,7 +1272,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:5">
+    <row r="23" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -1894,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="24" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="1">
         <v>19</v>
       </c>
@@ -1908,7 +1297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:5">
+    <row r="25" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
         <v>20</v>
       </c>
@@ -1919,7 +1308,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="26" ht="20.1" customHeight="1" spans="3:5">
+    <row r="26" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
         <v>21</v>
       </c>
@@ -1930,7 +1319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="27" spans="3:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="1">
         <v>22</v>
       </c>
@@ -1941,7 +1330,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="28" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
         <v>23</v>
       </c>
@@ -1953,7 +1342,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="29" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>24</v>
       </c>
@@ -1965,7 +1354,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:6">
+    <row r="30" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
         <v>25</v>
       </c>
@@ -1979,7 +1368,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:5">
+    <row r="31" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
         <v>26</v>
       </c>
@@ -1990,7 +1379,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:5">
+    <row r="32" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
         <v>27</v>
       </c>
@@ -2001,7 +1390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:5">
+    <row r="33" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
         <v>28</v>
       </c>
@@ -2012,7 +1401,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:5">
+    <row r="34" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
         <v>29</v>
       </c>
@@ -2023,7 +1412,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:5">
+    <row r="35" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
         <v>30</v>
       </c>
@@ -2034,7 +1423,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" ht="20.1" customHeight="1" spans="3:5">
+    <row r="36" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
         <v>31</v>
       </c>
@@ -2045,7 +1434,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:5">
+    <row r="37" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
         <v>33</v>
       </c>
@@ -2056,7 +1445,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:5">
+    <row r="38" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="1">
         <v>34</v>
       </c>
@@ -2067,7 +1456,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:5">
+    <row r="39" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="1">
         <v>35</v>
       </c>
@@ -2078,7 +1467,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="40" ht="20.1" customHeight="1" spans="3:5">
+    <row r="40" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1">
         <v>36</v>
       </c>
@@ -2089,7 +1478,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:5">
+    <row r="41" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
         <v>37</v>
       </c>
@@ -2100,7 +1489,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="42" ht="20.1" customHeight="1" spans="3:5">
+    <row r="42" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
         <v>38</v>
       </c>
@@ -2111,7 +1500,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" ht="20.1" customHeight="1" spans="3:5">
+    <row r="43" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="1">
         <v>39</v>
       </c>
@@ -2122,7 +1511,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" ht="20.1" customHeight="1" spans="3:5">
+    <row r="44" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="1">
         <v>40</v>
       </c>
@@ -2133,7 +1522,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:6">
+    <row r="45" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="1">
         <v>41</v>
       </c>
@@ -2147,7 +1536,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:5">
+    <row r="46" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="1">
         <v>42</v>
       </c>
@@ -2158,7 +1547,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:7">
+    <row r="47" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="1">
         <v>43</v>
       </c>
@@ -2172,7 +1561,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:6">
+    <row r="48" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="1">
         <v>44</v>
       </c>
@@ -2186,7 +1575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" ht="20.1" customHeight="1" spans="3:6">
+    <row r="49" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="1">
         <v>45</v>
       </c>
@@ -2200,7 +1589,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" ht="20.1" customHeight="1" spans="3:6">
+    <row r="50" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="1">
         <v>46</v>
       </c>
@@ -2214,7 +1603,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" ht="20.1" customHeight="1" spans="3:6">
+    <row r="51" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="1">
         <v>47</v>
       </c>
@@ -2228,7 +1617,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" ht="20.1" customHeight="1" spans="3:5">
+    <row r="52" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="1">
         <v>48</v>
       </c>
@@ -2239,7 +1628,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" ht="20.1" customHeight="1" spans="3:5">
+    <row r="53" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="1">
         <v>49</v>
       </c>
@@ -2250,7 +1639,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" ht="20.1" customHeight="1" spans="3:6">
+    <row r="54" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="1">
         <v>50</v>
       </c>
@@ -2264,7 +1653,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" ht="20.1" customHeight="1" spans="3:5">
+    <row r="55" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="1">
         <v>51</v>
       </c>
@@ -2275,7 +1664,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" ht="20.1" customHeight="1" spans="3:6">
+    <row r="56" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="1">
         <v>52</v>
       </c>
@@ -2287,7 +1676,7 @@
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" ht="20.1" customHeight="1" spans="3:5">
+    <row r="57" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="1">
         <v>53</v>
       </c>
@@ -2298,7 +1687,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" ht="20.1" customHeight="1" spans="3:5">
+    <row r="58" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="1">
         <v>54</v>
       </c>
@@ -2309,7 +1698,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" ht="20.1" customHeight="1" spans="3:6">
+    <row r="59" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="1">
         <v>55</v>
       </c>
@@ -2323,7 +1712,7 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="60" ht="20.1" customHeight="1" spans="3:5">
+    <row r="60" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="1">
         <v>56</v>
       </c>
@@ -2334,7 +1723,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" ht="20.1" customHeight="1" spans="3:6">
+    <row r="61" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="1">
         <v>57</v>
       </c>
@@ -2348,7 +1737,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" ht="20.1" customHeight="1" spans="3:6">
+    <row r="62" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="1">
         <v>58</v>
       </c>
@@ -2362,7 +1751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" ht="20.1" customHeight="1" spans="3:6">
+    <row r="63" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="1">
         <v>59</v>
       </c>
@@ -2376,7 +1765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" ht="20.1" customHeight="1" spans="3:6">
+    <row r="64" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="1">
         <v>60</v>
       </c>
@@ -2390,7 +1779,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" ht="20.1" customHeight="1" spans="3:5">
+    <row r="65" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="1">
         <v>61</v>
       </c>
@@ -2401,7 +1790,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" ht="20.1" customHeight="1" spans="3:5">
+    <row r="66" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="1">
         <v>62</v>
       </c>
@@ -2412,7 +1801,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" ht="20.1" customHeight="1" spans="3:5">
+    <row r="67" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="1">
         <v>63</v>
       </c>
@@ -2423,7 +1812,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" ht="20.1" customHeight="1" spans="3:6">
+    <row r="68" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="1">
         <v>64</v>
       </c>
@@ -2437,7 +1826,7 @@
         <v>30000001</v>
       </c>
     </row>
-    <row r="69" ht="20.1" customHeight="1" spans="3:5">
+    <row r="69" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="1">
         <v>65</v>
       </c>
@@ -2448,7 +1837,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" ht="20.1" customHeight="1" spans="3:5">
+    <row r="70" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="1">
         <v>66</v>
       </c>
@@ -2459,7 +1848,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" ht="20.1" customHeight="1" spans="3:5">
+    <row r="71" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="1">
         <v>67</v>
       </c>
@@ -2470,7 +1859,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" ht="20.1" customHeight="1" spans="3:5">
+    <row r="72" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="1">
         <v>68</v>
       </c>
@@ -2481,7 +1870,7 @@
         <v>60500101</v>
       </c>
     </row>
-    <row r="73" ht="20.1" customHeight="1" spans="3:5">
+    <row r="73" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="1">
         <v>69</v>
       </c>
@@ -2492,7 +1881,7 @@
         <v>60500201</v>
       </c>
     </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:5">
+    <row r="74" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="1">
         <v>70</v>
       </c>
@@ -2503,7 +1892,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" ht="20.1" customHeight="1" spans="3:5">
+    <row r="75" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="1">
         <v>71</v>
       </c>
@@ -2514,7 +1903,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" ht="20.1" customHeight="1" spans="3:6">
+    <row r="76" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="1">
         <v>72</v>
       </c>
@@ -2528,7 +1917,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" ht="20.1" customHeight="1" spans="3:6">
+    <row r="77" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="1">
         <v>73</v>
       </c>
@@ -2542,7 +1931,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="78" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="1">
         <v>74</v>
       </c>
@@ -2556,7 +1945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" ht="20.1" customHeight="1" spans="3:5">
+    <row r="79" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="1">
         <v>75</v>
       </c>
@@ -2567,7 +1956,7 @@
         <v>601502001</v>
       </c>
     </row>
-    <row r="80" ht="20.1" customHeight="1" spans="3:6">
+    <row r="80" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="1">
         <v>76</v>
       </c>
@@ -2581,7 +1970,7 @@
         <v>40000001</v>
       </c>
     </row>
-    <row r="81" ht="20.1" customHeight="1" spans="3:5">
+    <row r="81" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="1">
         <v>77</v>
       </c>
@@ -2592,7 +1981,7 @@
         <v>601503011</v>
       </c>
     </row>
-    <row r="82" ht="20.1" customHeight="1" spans="3:6">
+    <row r="82" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="1">
         <v>78</v>
       </c>
@@ -2606,7 +1995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" ht="20.1" customHeight="1" spans="3:5">
+    <row r="83" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="1">
         <v>79</v>
       </c>
@@ -2617,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" ht="20.1" customHeight="1" spans="3:5">
+    <row r="84" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="1">
         <v>80</v>
       </c>
@@ -2628,7 +2017,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="85" ht="20.1" customHeight="1" spans="3:5">
+    <row r="85" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="1">
         <v>81</v>
       </c>
@@ -2639,7 +2028,7 @@
         <v>60303101</v>
       </c>
     </row>
-    <row r="86" ht="20.1" customHeight="1" spans="3:5">
+    <row r="86" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="1">
         <v>82</v>
       </c>
@@ -2650,7 +2039,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="87" ht="20.1" customHeight="1" spans="3:5">
+    <row r="87" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="1">
         <v>83</v>
       </c>
@@ -2661,7 +2050,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="88" ht="20.1" customHeight="1" spans="3:6">
+    <row r="88" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="1">
         <v>84</v>
       </c>
@@ -2675,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" ht="20.1" customHeight="1" spans="3:6">
+    <row r="89" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="1">
         <v>85</v>
       </c>
@@ -2689,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" ht="20.1" customHeight="1" spans="3:5">
+    <row r="90" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="1">
         <v>86</v>
       </c>
@@ -2700,7 +2089,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="91" ht="20.1" customHeight="1" spans="3:5">
+    <row r="91" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="1">
         <v>87</v>
       </c>
@@ -2711,7 +2100,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" ht="20.1" customHeight="1" spans="3:5">
+    <row r="92" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="1">
         <v>88</v>
       </c>
@@ -2722,7 +2111,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="93" ht="20.1" customHeight="1" spans="3:5">
+    <row r="93" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="1">
         <v>89</v>
       </c>
@@ -2733,7 +2122,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="94" ht="20.1" customHeight="1" spans="3:5">
+    <row r="94" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="1">
         <v>90</v>
       </c>
@@ -2744,7 +2133,7 @@
         <v>10000158</v>
       </c>
     </row>
-    <row r="95" ht="20.1" customHeight="1" spans="3:5">
+    <row r="95" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="1">
         <v>91</v>
       </c>
@@ -2755,7 +2144,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" ht="20.1" customHeight="1" spans="3:5">
+    <row r="96" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="1">
         <v>92</v>
       </c>
@@ -2766,7 +2155,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="97" ht="20.1" customHeight="1" spans="3:6">
+    <row r="97" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="1">
         <v>93</v>
       </c>
@@ -2780,7 +2169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" ht="20.1" customHeight="1" spans="3:6">
+    <row r="98" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="1">
         <v>94</v>
       </c>
@@ -2794,7 +2183,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="99" ht="20.1" customHeight="1" spans="3:6">
+    <row r="99" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="1">
         <v>95</v>
       </c>
@@ -2808,7 +2197,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" ht="20.1" customHeight="1" spans="3:5">
+    <row r="100" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="1">
         <v>96</v>
       </c>
@@ -2819,7 +2208,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="101" ht="20.1" customHeight="1" spans="3:5">
+    <row r="101" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="1">
         <v>97</v>
       </c>
@@ -2830,7 +2219,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="102" ht="20.1" customHeight="1" spans="3:6">
+    <row r="102" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="1">
         <v>98</v>
       </c>
@@ -2844,7 +2233,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="103" ht="20.1" customHeight="1" spans="3:6">
+    <row r="103" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="1">
         <v>99</v>
       </c>
@@ -2858,7 +2247,7 @@
         <v>61300001</v>
       </c>
     </row>
-    <row r="104" ht="20.1" customHeight="1" spans="3:5">
+    <row r="104" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="1">
         <v>100</v>
       </c>
@@ -2869,7 +2258,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="105" ht="20.1" customHeight="1" spans="3:5">
+    <row r="105" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="1">
         <v>101</v>
       </c>
@@ -2880,7 +2269,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="106" ht="20.1" customHeight="1" spans="3:5">
+    <row r="106" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="1">
         <v>102</v>
       </c>
@@ -2891,7 +2280,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="107" ht="20.1" customHeight="1" spans="3:6">
+    <row r="107" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="1">
         <v>103</v>
       </c>
@@ -2905,7 +2294,7 @@
         <v>70000001</v>
       </c>
     </row>
-    <row r="108" ht="20.1" customHeight="1" spans="3:5">
+    <row r="108" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="1">
         <v>104</v>
       </c>
@@ -2916,7 +2305,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="109" ht="20.1" customHeight="1" spans="3:6">
+    <row r="109" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="1">
         <v>105</v>
       </c>
@@ -2930,7 +2319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" ht="20.1" customHeight="1" spans="3:6">
+    <row r="110" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="1">
         <v>106</v>
       </c>
@@ -2944,7 +2333,7 @@
         <v>80000001</v>
       </c>
     </row>
-    <row r="111" ht="20.1" customHeight="1" spans="3:5">
+    <row r="111" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="1">
         <v>107</v>
       </c>
@@ -2955,7 +2344,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="112" ht="20.1" customHeight="1" spans="3:6">
+    <row r="112" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C112" s="1">
         <v>108</v>
       </c>
@@ -2969,7 +2358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" ht="20.1" customHeight="1" spans="3:6">
+    <row r="113" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="1">
         <v>109</v>
       </c>
@@ -2983,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" ht="20.1" customHeight="1" spans="3:5">
+    <row r="114" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="1">
         <v>110</v>
       </c>
@@ -2994,7 +2383,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="115" ht="20.1" customHeight="1" spans="3:5">
+    <row r="115" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="1">
         <v>111</v>
       </c>
@@ -3005,7 +2394,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="116" ht="20.1" customHeight="1" spans="3:5">
+    <row r="116" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116" s="1">
         <v>112</v>
       </c>
@@ -3016,7 +2405,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="117" ht="20.1" customHeight="1" spans="3:6">
+    <row r="117" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="1">
         <v>113</v>
       </c>
@@ -3030,7 +2419,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="118" ht="20.1" customHeight="1" spans="3:6">
+    <row r="118" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118" s="1">
         <v>114</v>
       </c>
@@ -3044,7 +2433,7 @@
         <v>90000001</v>
       </c>
     </row>
-    <row r="119" ht="20.1" customHeight="1" spans="3:6">
+    <row r="119" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="1">
         <v>115</v>
       </c>
@@ -3058,7 +2447,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" ht="20.1" customHeight="1" spans="3:5">
+    <row r="120" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="1">
         <v>116</v>
       </c>
@@ -3069,7 +2458,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="121" ht="20.1" customHeight="1" spans="3:6">
+    <row r="121" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="1">
         <v>117</v>
       </c>
@@ -3083,7 +2472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" ht="20.1" customHeight="1" spans="3:6">
+    <row r="122" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="1">
         <v>118</v>
       </c>
@@ -3097,7 +2486,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" ht="20.1" customHeight="1" spans="3:6">
+    <row r="123" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="1">
         <v>119</v>
       </c>
@@ -3111,7 +2500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" ht="20.1" customHeight="1" spans="3:6">
+    <row r="124" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="1">
         <v>120</v>
       </c>
@@ -3125,7 +2514,7 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="125" ht="20.1" customHeight="1" spans="3:6">
+    <row r="125" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="1">
         <v>121</v>
       </c>
@@ -3139,7 +2528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" ht="20.1" customHeight="1" spans="3:6">
+    <row r="126" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C126" s="1">
         <v>122</v>
       </c>
@@ -3153,7 +2542,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="127" ht="20.1" customHeight="1" spans="3:6">
+    <row r="127" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C127" s="1">
         <v>123</v>
       </c>
@@ -3167,7 +2556,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="128" spans="3:5">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C128" s="1">
         <v>124</v>
       </c>
@@ -3175,52 +2564,49 @@
         <v>176</v>
       </c>
       <c r="E128" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="129" spans="3:5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C129" s="1">
         <v>125</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E129" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="130" spans="3:5">
+      <c r="E129" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C130" s="1">
         <v>126</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E130" s="1">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="131" spans="3:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C131" s="1">
         <v>127</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E131" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E131" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F131" s="1">
-        <v>2000</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E115" r:id="rId3" display="1000001;100@601800051"/>
+    <hyperlink ref="E115" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8B3C86-B622-4A0A-9FEC-926BE4351DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalValueProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="184">
   <si>
     <t>#</t>
   </si>
@@ -582,18 +589,43 @@
   </si>
   <si>
     <t>默认抓捕成功率(野生;宝宝;变异)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>3000;3000;3000</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>赛季捐选道具</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8"/>
+        <color rgb="FF85C46C"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <t>捐选随机获得道具</t>
+  </si>
+  <si>
+    <t>10025005;1@10025005;1@10025005;1@10025005;1@10025005;1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,25 +660,163 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8"/>
+      <color rgb="FF85C46C"/>
+      <name val="Courier New"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,8 +829,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -668,11 +1024,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -694,24 +1292,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -998,19 +1637,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:H131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
@@ -1023,13 +1662,13 @@
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.1" customHeight="1"/>
+    <row r="2" ht="20.1" customHeight="1" spans="4:4">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="20.1" customHeight="1" spans="3:8">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1045,7 +1684,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="20.1" customHeight="1" spans="3:8">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1059,7 +1698,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="20.1" customHeight="1" spans="3:8">
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1073,7 +1712,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1084,7 +1723,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="7" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1095,7 +1734,7 @@
         <v>600000111</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="20.1" customHeight="1" spans="3:6">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1109,7 +1748,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="20.1" customHeight="1" spans="3:6">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1123,7 +1762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="20.1" customHeight="1" spans="3:5">
       <c r="C10" s="8">
         <v>5</v>
       </c>
@@ -1134,7 +1773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="20.1" customHeight="1" spans="3:5">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1145,7 +1784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="20.1" customHeight="1" spans="3:5">
       <c r="C12" s="8">
         <v>7</v>
       </c>
@@ -1156,7 +1795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="20.1" customHeight="1" spans="3:5">
       <c r="C13" s="8">
         <v>8</v>
       </c>
@@ -1167,7 +1806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="20.1" customHeight="1" spans="3:5">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1178,7 +1817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="20.1" customHeight="1" spans="3:6">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1192,7 +1831,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="20.1" customHeight="1" spans="3:5">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -1203,7 +1842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="20.1" customHeight="1" spans="3:6">
       <c r="C17" s="1">
         <v>12</v>
       </c>
@@ -1217,7 +1856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="20.1" customHeight="1" spans="3:5">
       <c r="C18" s="1">
         <v>13</v>
       </c>
@@ -1228,7 +1867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" ht="20.1" customHeight="1" spans="3:5">
       <c r="C19" s="1">
         <v>14</v>
       </c>
@@ -1239,7 +1878,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" ht="20.1" customHeight="1" spans="3:5">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -1250,7 +1889,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" ht="20.1" customHeight="1" spans="3:5">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -1261,7 +1900,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" ht="20.1" customHeight="1" spans="3:5">
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -1272,7 +1911,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="23" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" ht="20.1" customHeight="1" spans="3:5">
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -1283,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C24" s="1">
         <v>19</v>
       </c>
@@ -1297,7 +1936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" ht="20.1" customHeight="1" spans="3:5">
       <c r="C25" s="1">
         <v>20</v>
       </c>
@@ -1308,7 +1947,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="26" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" ht="20.1" customHeight="1" spans="3:5">
       <c r="C26" s="1">
         <v>21</v>
       </c>
@@ -1319,7 +1958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="3:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C27" s="1">
         <v>22</v>
       </c>
@@ -1330,7 +1969,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C28" s="1">
         <v>23</v>
       </c>
@@ -1342,7 +1981,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C29" s="1">
         <v>24</v>
       </c>
@@ -1354,7 +1993,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" ht="20.1" customHeight="1" spans="3:6">
       <c r="C30" s="1">
         <v>25</v>
       </c>
@@ -1368,7 +2007,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" ht="20.1" customHeight="1" spans="3:5">
       <c r="C31" s="1">
         <v>26</v>
       </c>
@@ -1379,7 +2018,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" ht="20.1" customHeight="1" spans="3:5">
       <c r="C32" s="1">
         <v>27</v>
       </c>
@@ -1390,7 +2029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" ht="20.1" customHeight="1" spans="3:5">
       <c r="C33" s="1">
         <v>28</v>
       </c>
@@ -1401,7 +2040,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" ht="20.1" customHeight="1" spans="3:5">
       <c r="C34" s="1">
         <v>29</v>
       </c>
@@ -1412,7 +2051,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="20.1" customHeight="1" spans="3:5">
       <c r="C35" s="1">
         <v>30</v>
       </c>
@@ -1423,7 +2062,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" ht="20.1" customHeight="1" spans="3:5">
       <c r="C36" s="1">
         <v>31</v>
       </c>
@@ -1434,7 +2073,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="20.1" customHeight="1" spans="3:5">
       <c r="C37" s="1">
         <v>33</v>
       </c>
@@ -1445,7 +2084,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" ht="20.1" customHeight="1" spans="3:5">
       <c r="C38" s="1">
         <v>34</v>
       </c>
@@ -1456,7 +2095,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" ht="20.1" customHeight="1" spans="3:5">
       <c r="C39" s="1">
         <v>35</v>
       </c>
@@ -1467,7 +2106,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="40" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" ht="20.1" customHeight="1" spans="3:5">
       <c r="C40" s="1">
         <v>36</v>
       </c>
@@ -1478,7 +2117,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="41" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" ht="20.1" customHeight="1" spans="3:5">
       <c r="C41" s="1">
         <v>37</v>
       </c>
@@ -1489,7 +2128,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="20.1" customHeight="1" spans="3:5">
       <c r="C42" s="1">
         <v>38</v>
       </c>
@@ -1500,7 +2139,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" ht="20.1" customHeight="1" spans="3:5">
       <c r="C43" s="1">
         <v>39</v>
       </c>
@@ -1511,7 +2150,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" ht="20.1" customHeight="1" spans="3:5">
       <c r="C44" s="1">
         <v>40</v>
       </c>
@@ -1522,7 +2161,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" ht="20.1" customHeight="1" spans="3:6">
       <c r="C45" s="1">
         <v>41</v>
       </c>
@@ -1536,7 +2175,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" ht="20.1" customHeight="1" spans="3:5">
       <c r="C46" s="1">
         <v>42</v>
       </c>
@@ -1547,7 +2186,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" ht="20.1" customHeight="1" spans="3:7">
       <c r="C47" s="1">
         <v>43</v>
       </c>
@@ -1561,7 +2200,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" ht="20.1" customHeight="1" spans="3:6">
       <c r="C48" s="1">
         <v>44</v>
       </c>
@@ -1575,7 +2214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" ht="20.1" customHeight="1" spans="3:6">
       <c r="C49" s="1">
         <v>45</v>
       </c>
@@ -1589,7 +2228,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" ht="20.1" customHeight="1" spans="3:6">
       <c r="C50" s="1">
         <v>46</v>
       </c>
@@ -1603,7 +2242,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" ht="20.1" customHeight="1" spans="3:6">
       <c r="C51" s="1">
         <v>47</v>
       </c>
@@ -1617,7 +2256,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" ht="20.1" customHeight="1" spans="3:5">
       <c r="C52" s="1">
         <v>48</v>
       </c>
@@ -1628,7 +2267,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" ht="20.1" customHeight="1" spans="3:5">
       <c r="C53" s="1">
         <v>49</v>
       </c>
@@ -1639,7 +2278,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" ht="20.1" customHeight="1" spans="3:6">
       <c r="C54" s="1">
         <v>50</v>
       </c>
@@ -1653,7 +2292,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" ht="20.1" customHeight="1" spans="3:5">
       <c r="C55" s="1">
         <v>51</v>
       </c>
@@ -1664,7 +2303,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" ht="20.1" customHeight="1" spans="3:6">
       <c r="C56" s="1">
         <v>52</v>
       </c>
@@ -1676,7 +2315,7 @@
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" ht="20.1" customHeight="1" spans="3:5">
       <c r="C57" s="1">
         <v>53</v>
       </c>
@@ -1687,7 +2326,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" ht="20.1" customHeight="1" spans="3:5">
       <c r="C58" s="1">
         <v>54</v>
       </c>
@@ -1698,7 +2337,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" ht="20.1" customHeight="1" spans="3:6">
       <c r="C59" s="1">
         <v>55</v>
       </c>
@@ -1712,7 +2351,7 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="60" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" ht="20.1" customHeight="1" spans="3:5">
       <c r="C60" s="1">
         <v>56</v>
       </c>
@@ -1723,7 +2362,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" ht="20.1" customHeight="1" spans="3:6">
       <c r="C61" s="1">
         <v>57</v>
       </c>
@@ -1737,7 +2376,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" ht="20.1" customHeight="1" spans="3:6">
       <c r="C62" s="1">
         <v>58</v>
       </c>
@@ -1751,7 +2390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" ht="20.1" customHeight="1" spans="3:6">
       <c r="C63" s="1">
         <v>59</v>
       </c>
@@ -1765,7 +2404,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" ht="20.1" customHeight="1" spans="3:6">
       <c r="C64" s="1">
         <v>60</v>
       </c>
@@ -1779,7 +2418,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" ht="20.1" customHeight="1" spans="3:5">
       <c r="C65" s="1">
         <v>61</v>
       </c>
@@ -1790,7 +2429,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" ht="20.1" customHeight="1" spans="3:5">
       <c r="C66" s="1">
         <v>62</v>
       </c>
@@ -1801,7 +2440,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" ht="20.1" customHeight="1" spans="3:5">
       <c r="C67" s="1">
         <v>63</v>
       </c>
@@ -1812,7 +2451,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" ht="20.1" customHeight="1" spans="3:6">
       <c r="C68" s="1">
         <v>64</v>
       </c>
@@ -1826,7 +2465,7 @@
         <v>30000001</v>
       </c>
     </row>
-    <row r="69" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" ht="20.1" customHeight="1" spans="3:5">
       <c r="C69" s="1">
         <v>65</v>
       </c>
@@ -1837,7 +2476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" ht="20.1" customHeight="1" spans="3:5">
       <c r="C70" s="1">
         <v>66</v>
       </c>
@@ -1848,7 +2487,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" ht="20.1" customHeight="1" spans="3:5">
       <c r="C71" s="1">
         <v>67</v>
       </c>
@@ -1859,7 +2498,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" ht="20.1" customHeight="1" spans="3:5">
       <c r="C72" s="1">
         <v>68</v>
       </c>
@@ -1870,7 +2509,7 @@
         <v>60500101</v>
       </c>
     </row>
-    <row r="73" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" ht="20.1" customHeight="1" spans="3:5">
       <c r="C73" s="1">
         <v>69</v>
       </c>
@@ -1881,7 +2520,7 @@
         <v>60500201</v>
       </c>
     </row>
-    <row r="74" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" ht="20.1" customHeight="1" spans="3:5">
       <c r="C74" s="1">
         <v>70</v>
       </c>
@@ -1892,7 +2531,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" ht="20.1" customHeight="1" spans="3:5">
       <c r="C75" s="1">
         <v>71</v>
       </c>
@@ -1903,7 +2542,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" ht="20.1" customHeight="1" spans="3:6">
       <c r="C76" s="1">
         <v>72</v>
       </c>
@@ -1917,7 +2556,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" ht="20.1" customHeight="1" spans="3:6">
       <c r="C77" s="1">
         <v>73</v>
       </c>
@@ -1931,7 +2570,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="78" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
       <c r="C78" s="1">
         <v>74</v>
       </c>
@@ -1945,7 +2584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" ht="20.1" customHeight="1" spans="3:5">
       <c r="C79" s="1">
         <v>75</v>
       </c>
@@ -1956,7 +2595,7 @@
         <v>601502001</v>
       </c>
     </row>
-    <row r="80" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" ht="20.1" customHeight="1" spans="3:6">
       <c r="C80" s="1">
         <v>76</v>
       </c>
@@ -1970,7 +2609,7 @@
         <v>40000001</v>
       </c>
     </row>
-    <row r="81" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" ht="20.1" customHeight="1" spans="3:5">
       <c r="C81" s="1">
         <v>77</v>
       </c>
@@ -1981,7 +2620,7 @@
         <v>601503011</v>
       </c>
     </row>
-    <row r="82" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" ht="20.1" customHeight="1" spans="3:6">
       <c r="C82" s="1">
         <v>78</v>
       </c>
@@ -1995,7 +2634,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" ht="20.1" customHeight="1" spans="3:5">
       <c r="C83" s="1">
         <v>79</v>
       </c>
@@ -2006,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" ht="20.1" customHeight="1" spans="3:5">
       <c r="C84" s="1">
         <v>80</v>
       </c>
@@ -2017,7 +2656,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="85" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" ht="20.1" customHeight="1" spans="3:5">
       <c r="C85" s="1">
         <v>81</v>
       </c>
@@ -2028,7 +2667,7 @@
         <v>60303101</v>
       </c>
     </row>
-    <row r="86" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" ht="20.1" customHeight="1" spans="3:5">
       <c r="C86" s="1">
         <v>82</v>
       </c>
@@ -2039,7 +2678,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" ht="20.1" customHeight="1" spans="3:5">
       <c r="C87" s="1">
         <v>83</v>
       </c>
@@ -2050,7 +2689,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="88" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" ht="20.1" customHeight="1" spans="3:6">
       <c r="C88" s="1">
         <v>84</v>
       </c>
@@ -2064,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" ht="20.1" customHeight="1" spans="3:6">
       <c r="C89" s="1">
         <v>85</v>
       </c>
@@ -2078,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" ht="20.1" customHeight="1" spans="3:5">
       <c r="C90" s="1">
         <v>86</v>
       </c>
@@ -2089,7 +2728,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" ht="20.1" customHeight="1" spans="3:5">
       <c r="C91" s="1">
         <v>87</v>
       </c>
@@ -2100,7 +2739,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" ht="20.1" customHeight="1" spans="3:5">
       <c r="C92" s="1">
         <v>88</v>
       </c>
@@ -2111,7 +2750,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="93" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" ht="20.1" customHeight="1" spans="3:5">
       <c r="C93" s="1">
         <v>89</v>
       </c>
@@ -2122,7 +2761,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="94" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" ht="20.1" customHeight="1" spans="3:5">
       <c r="C94" s="1">
         <v>90</v>
       </c>
@@ -2133,7 +2772,7 @@
         <v>10000158</v>
       </c>
     </row>
-    <row r="95" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" ht="20.1" customHeight="1" spans="3:5">
       <c r="C95" s="1">
         <v>91</v>
       </c>
@@ -2144,7 +2783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" ht="20.1" customHeight="1" spans="3:5">
       <c r="C96" s="1">
         <v>92</v>
       </c>
@@ -2155,7 +2794,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" ht="20.1" customHeight="1" spans="3:6">
       <c r="C97" s="1">
         <v>93</v>
       </c>
@@ -2169,7 +2808,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" ht="20.1" customHeight="1" spans="3:6">
       <c r="C98" s="1">
         <v>94</v>
       </c>
@@ -2183,7 +2822,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="99" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" ht="20.1" customHeight="1" spans="3:6">
       <c r="C99" s="1">
         <v>95</v>
       </c>
@@ -2197,7 +2836,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" ht="20.1" customHeight="1" spans="3:5">
       <c r="C100" s="1">
         <v>96</v>
       </c>
@@ -2208,7 +2847,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="101" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" ht="20.1" customHeight="1" spans="3:5">
       <c r="C101" s="1">
         <v>97</v>
       </c>
@@ -2219,7 +2858,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="102" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" ht="20.1" customHeight="1" spans="3:6">
       <c r="C102" s="1">
         <v>98</v>
       </c>
@@ -2233,7 +2872,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="103" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" ht="20.1" customHeight="1" spans="3:6">
       <c r="C103" s="1">
         <v>99</v>
       </c>
@@ -2247,7 +2886,7 @@
         <v>61300001</v>
       </c>
     </row>
-    <row r="104" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" ht="20.1" customHeight="1" spans="3:5">
       <c r="C104" s="1">
         <v>100</v>
       </c>
@@ -2258,7 +2897,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="105" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" ht="20.1" customHeight="1" spans="3:5">
       <c r="C105" s="1">
         <v>101</v>
       </c>
@@ -2269,7 +2908,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="106" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" ht="20.1" customHeight="1" spans="3:5">
       <c r="C106" s="1">
         <v>102</v>
       </c>
@@ -2280,7 +2919,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="107" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" ht="20.1" customHeight="1" spans="3:6">
       <c r="C107" s="1">
         <v>103</v>
       </c>
@@ -2294,7 +2933,7 @@
         <v>70000001</v>
       </c>
     </row>
-    <row r="108" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" ht="20.1" customHeight="1" spans="3:5">
       <c r="C108" s="1">
         <v>104</v>
       </c>
@@ -2305,7 +2944,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" ht="20.1" customHeight="1" spans="3:6">
       <c r="C109" s="1">
         <v>105</v>
       </c>
@@ -2319,7 +2958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" ht="20.1" customHeight="1" spans="3:6">
       <c r="C110" s="1">
         <v>106</v>
       </c>
@@ -2333,7 +2972,7 @@
         <v>80000001</v>
       </c>
     </row>
-    <row r="111" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" ht="20.1" customHeight="1" spans="3:5">
       <c r="C111" s="1">
         <v>107</v>
       </c>
@@ -2344,7 +2983,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" ht="20.1" customHeight="1" spans="3:6">
       <c r="C112" s="1">
         <v>108</v>
       </c>
@@ -2358,7 +2997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" ht="20.1" customHeight="1" spans="3:6">
       <c r="C113" s="1">
         <v>109</v>
       </c>
@@ -2372,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" ht="20.1" customHeight="1" spans="3:5">
       <c r="C114" s="1">
         <v>110</v>
       </c>
@@ -2383,7 +3022,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="115" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" ht="20.1" customHeight="1" spans="3:5">
       <c r="C115" s="1">
         <v>111</v>
       </c>
@@ -2394,7 +3033,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="116" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" ht="20.1" customHeight="1" spans="3:5">
       <c r="C116" s="1">
         <v>112</v>
       </c>
@@ -2405,7 +3044,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="117" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" ht="20.1" customHeight="1" spans="3:6">
       <c r="C117" s="1">
         <v>113</v>
       </c>
@@ -2419,7 +3058,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="118" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" ht="20.1" customHeight="1" spans="3:6">
       <c r="C118" s="1">
         <v>114</v>
       </c>
@@ -2433,7 +3072,7 @@
         <v>90000001</v>
       </c>
     </row>
-    <row r="119" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" ht="20.1" customHeight="1" spans="3:6">
       <c r="C119" s="1">
         <v>115</v>
       </c>
@@ -2447,7 +3086,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" ht="20.1" customHeight="1" spans="3:5">
       <c r="C120" s="1">
         <v>116</v>
       </c>
@@ -2458,7 +3097,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="121" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" ht="20.1" customHeight="1" spans="3:6">
       <c r="C121" s="1">
         <v>117</v>
       </c>
@@ -2472,7 +3111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" ht="20.1" customHeight="1" spans="3:6">
       <c r="C122" s="1">
         <v>118</v>
       </c>
@@ -2486,7 +3125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" ht="20.1" customHeight="1" spans="3:6">
       <c r="C123" s="1">
         <v>119</v>
       </c>
@@ -2500,7 +3139,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" ht="20.1" customHeight="1" spans="3:6">
       <c r="C124" s="1">
         <v>120</v>
       </c>
@@ -2514,7 +3153,7 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="125" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" ht="20.1" customHeight="1" spans="3:6">
       <c r="C125" s="1">
         <v>121</v>
       </c>
@@ -2528,7 +3167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" ht="20.1" customHeight="1" spans="3:6">
       <c r="C126" s="1">
         <v>122</v>
       </c>
@@ -2542,7 +3181,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="127" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" ht="20.1" customHeight="1" spans="3:6">
       <c r="C127" s="1">
         <v>123</v>
       </c>
@@ -2556,7 +3195,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:5">
       <c r="C128" s="1">
         <v>124</v>
       </c>
@@ -2567,18 +3206,18 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:5">
       <c r="C129" s="1">
         <v>125</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E129" s="9">
+      <c r="E129" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:5">
       <c r="C130" s="1">
         <v>126</v>
       </c>
@@ -2589,24 +3228,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:5">
       <c r="C131" s="1">
         <v>127</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="D131" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E131" s="10" t="s">
+      <c r="E131" s="1" t="s">
         <v>180</v>
       </c>
     </row>
+    <row r="132" spans="3:5">
+      <c r="C132" s="1">
+        <v>128</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E132" s="1">
+        <v>10024009</v>
+      </c>
+    </row>
+    <row r="133" spans="3:5">
+      <c r="C133" s="1">
+        <v>129</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E115" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E115" r:id="rId3" display="1000001;100@601800051"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -1645,8 +1645,8 @@
   <sheetPr/>
   <dimension ref="C1:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="E142" sqref="E142"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>

--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -1,43 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AE5C0E-FCDA-4840-A781-2174EBB5FCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalValueProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="D84" authorId="0">
+    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>刷新概率,每天刷新上限,刷新随机列表</t>
@@ -49,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="183">
   <si>
     <t>#</t>
   </si>
@@ -600,32 +594,23 @@
     <r>
       <rPr>
         <i/>
-        <sz val="9.8"/>
+        <sz val="9.8000000000000007"/>
         <color rgb="FF85C46C"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>ID</t>
     </r>
   </si>
   <si>
     <t>捐选随机获得道具</t>
-  </si>
-  <si>
-    <t>10025005;1@10025005;1@10025005;1@10025005;1@10025005;1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,6 +622,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -644,12 +630,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -657,166 +645,31 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF85C46C"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9.8"/>
-      <color rgb="FF85C46C"/>
-      <name val="Courier New"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -829,194 +682,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1024,253 +691,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1292,65 +717,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1637,19 +1018,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G116" sqref="G116"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
@@ -1662,13 +1043,13 @@
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1" spans="4:4">
+    <row r="1" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:8">
+    <row r="3" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1684,7 +1065,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:8">
+    <row r="4" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1698,7 +1079,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:8">
+    <row r="5" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1712,7 +1093,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="6" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1723,7 +1104,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="7" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1734,7 +1115,7 @@
         <v>600000111</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:6">
+    <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1748,7 +1129,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:6">
+    <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1762,7 +1143,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:5">
+    <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="8">
         <v>5</v>
       </c>
@@ -1773,7 +1154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:5">
+    <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1784,7 +1165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:5">
+    <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8">
         <v>7</v>
       </c>
@@ -1795,7 +1176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:5">
+    <row r="13" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="8">
         <v>8</v>
       </c>
@@ -1806,7 +1187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:5">
+    <row r="14" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1817,7 +1198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:6">
+    <row r="15" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1831,7 +1212,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:5">
+    <row r="16" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -1842,7 +1223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:6">
+    <row r="17" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>12</v>
       </c>
@@ -1856,7 +1237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:5">
+    <row r="18" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>13</v>
       </c>
@@ -1867,7 +1248,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:5">
+    <row r="19" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>14</v>
       </c>
@@ -1878,7 +1259,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:5">
+    <row r="20" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -1889,7 +1270,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:5">
+    <row r="21" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -1900,7 +1281,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:5">
+    <row r="22" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -1911,7 +1292,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:5">
+    <row r="23" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -1922,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="24" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="1">
         <v>19</v>
       </c>
@@ -1936,7 +1317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:5">
+    <row r="25" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
         <v>20</v>
       </c>
@@ -1947,7 +1328,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="26" ht="20.1" customHeight="1" spans="3:5">
+    <row r="26" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
         <v>21</v>
       </c>
@@ -1958,7 +1339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="27" spans="3:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="1">
         <v>22</v>
       </c>
@@ -1969,7 +1350,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="28" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
         <v>23</v>
       </c>
@@ -1981,7 +1362,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="29" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>24</v>
       </c>
@@ -1993,7 +1374,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:6">
+    <row r="30" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
         <v>25</v>
       </c>
@@ -2007,7 +1388,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:5">
+    <row r="31" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
         <v>26</v>
       </c>
@@ -2018,7 +1399,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:5">
+    <row r="32" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
         <v>27</v>
       </c>
@@ -2029,7 +1410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:5">
+    <row r="33" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
         <v>28</v>
       </c>
@@ -2040,7 +1421,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:5">
+    <row r="34" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
         <v>29</v>
       </c>
@@ -2051,7 +1432,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:5">
+    <row r="35" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
         <v>30</v>
       </c>
@@ -2062,7 +1443,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" ht="20.1" customHeight="1" spans="3:5">
+    <row r="36" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
         <v>31</v>
       </c>
@@ -2073,7 +1454,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:5">
+    <row r="37" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
         <v>33</v>
       </c>
@@ -2084,7 +1465,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:5">
+    <row r="38" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="1">
         <v>34</v>
       </c>
@@ -2095,7 +1476,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:5">
+    <row r="39" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="1">
         <v>35</v>
       </c>
@@ -2106,7 +1487,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="40" ht="20.1" customHeight="1" spans="3:5">
+    <row r="40" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1">
         <v>36</v>
       </c>
@@ -2117,7 +1498,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:5">
+    <row r="41" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
         <v>37</v>
       </c>
@@ -2128,7 +1509,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="42" ht="20.1" customHeight="1" spans="3:5">
+    <row r="42" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
         <v>38</v>
       </c>
@@ -2139,7 +1520,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" ht="20.1" customHeight="1" spans="3:5">
+    <row r="43" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="1">
         <v>39</v>
       </c>
@@ -2150,7 +1531,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" ht="20.1" customHeight="1" spans="3:5">
+    <row r="44" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="1">
         <v>40</v>
       </c>
@@ -2161,7 +1542,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:6">
+    <row r="45" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="1">
         <v>41</v>
       </c>
@@ -2175,7 +1556,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:5">
+    <row r="46" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="1">
         <v>42</v>
       </c>
@@ -2186,7 +1567,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:7">
+    <row r="47" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="1">
         <v>43</v>
       </c>
@@ -2200,7 +1581,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:6">
+    <row r="48" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="1">
         <v>44</v>
       </c>
@@ -2214,7 +1595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" ht="20.1" customHeight="1" spans="3:6">
+    <row r="49" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="1">
         <v>45</v>
       </c>
@@ -2228,7 +1609,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" ht="20.1" customHeight="1" spans="3:6">
+    <row r="50" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="1">
         <v>46</v>
       </c>
@@ -2242,7 +1623,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" ht="20.1" customHeight="1" spans="3:6">
+    <row r="51" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="1">
         <v>47</v>
       </c>
@@ -2256,7 +1637,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" ht="20.1" customHeight="1" spans="3:5">
+    <row r="52" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="1">
         <v>48</v>
       </c>
@@ -2267,7 +1648,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" ht="20.1" customHeight="1" spans="3:5">
+    <row r="53" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="1">
         <v>49</v>
       </c>
@@ -2278,7 +1659,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" ht="20.1" customHeight="1" spans="3:6">
+    <row r="54" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="1">
         <v>50</v>
       </c>
@@ -2292,7 +1673,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" ht="20.1" customHeight="1" spans="3:5">
+    <row r="55" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="1">
         <v>51</v>
       </c>
@@ -2303,7 +1684,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" ht="20.1" customHeight="1" spans="3:6">
+    <row r="56" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="1">
         <v>52</v>
       </c>
@@ -2315,7 +1696,7 @@
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" ht="20.1" customHeight="1" spans="3:5">
+    <row r="57" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="1">
         <v>53</v>
       </c>
@@ -2326,7 +1707,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" ht="20.1" customHeight="1" spans="3:5">
+    <row r="58" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="1">
         <v>54</v>
       </c>
@@ -2337,7 +1718,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" ht="20.1" customHeight="1" spans="3:6">
+    <row r="59" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="1">
         <v>55</v>
       </c>
@@ -2351,7 +1732,7 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="60" ht="20.1" customHeight="1" spans="3:5">
+    <row r="60" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="1">
         <v>56</v>
       </c>
@@ -2362,7 +1743,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" ht="20.1" customHeight="1" spans="3:6">
+    <row r="61" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="1">
         <v>57</v>
       </c>
@@ -2376,7 +1757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" ht="20.1" customHeight="1" spans="3:6">
+    <row r="62" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="1">
         <v>58</v>
       </c>
@@ -2390,7 +1771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" ht="20.1" customHeight="1" spans="3:6">
+    <row r="63" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="1">
         <v>59</v>
       </c>
@@ -2404,7 +1785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" ht="20.1" customHeight="1" spans="3:6">
+    <row r="64" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="1">
         <v>60</v>
       </c>
@@ -2418,7 +1799,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" ht="20.1" customHeight="1" spans="3:5">
+    <row r="65" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="1">
         <v>61</v>
       </c>
@@ -2429,7 +1810,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" ht="20.1" customHeight="1" spans="3:5">
+    <row r="66" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="1">
         <v>62</v>
       </c>
@@ -2440,7 +1821,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" ht="20.1" customHeight="1" spans="3:5">
+    <row r="67" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="1">
         <v>63</v>
       </c>
@@ -2451,7 +1832,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" ht="20.1" customHeight="1" spans="3:6">
+    <row r="68" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="1">
         <v>64</v>
       </c>
@@ -2465,7 +1846,7 @@
         <v>30000001</v>
       </c>
     </row>
-    <row r="69" ht="20.1" customHeight="1" spans="3:5">
+    <row r="69" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="1">
         <v>65</v>
       </c>
@@ -2476,7 +1857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" ht="20.1" customHeight="1" spans="3:5">
+    <row r="70" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="1">
         <v>66</v>
       </c>
@@ -2487,7 +1868,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" ht="20.1" customHeight="1" spans="3:5">
+    <row r="71" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="1">
         <v>67</v>
       </c>
@@ -2498,7 +1879,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" ht="20.1" customHeight="1" spans="3:5">
+    <row r="72" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="1">
         <v>68</v>
       </c>
@@ -2509,7 +1890,7 @@
         <v>60500101</v>
       </c>
     </row>
-    <row r="73" ht="20.1" customHeight="1" spans="3:5">
+    <row r="73" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="1">
         <v>69</v>
       </c>
@@ -2520,7 +1901,7 @@
         <v>60500201</v>
       </c>
     </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:5">
+    <row r="74" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="1">
         <v>70</v>
       </c>
@@ -2531,7 +1912,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" ht="20.1" customHeight="1" spans="3:5">
+    <row r="75" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="1">
         <v>71</v>
       </c>
@@ -2542,7 +1923,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" ht="20.1" customHeight="1" spans="3:6">
+    <row r="76" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="1">
         <v>72</v>
       </c>
@@ -2556,7 +1937,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" ht="20.1" customHeight="1" spans="3:6">
+    <row r="77" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="1">
         <v>73</v>
       </c>
@@ -2570,7 +1951,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
+    <row r="78" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="1">
         <v>74</v>
       </c>
@@ -2584,7 +1965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" ht="20.1" customHeight="1" spans="3:5">
+    <row r="79" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="1">
         <v>75</v>
       </c>
@@ -2595,7 +1976,7 @@
         <v>601502001</v>
       </c>
     </row>
-    <row r="80" ht="20.1" customHeight="1" spans="3:6">
+    <row r="80" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="1">
         <v>76</v>
       </c>
@@ -2609,7 +1990,7 @@
         <v>40000001</v>
       </c>
     </row>
-    <row r="81" ht="20.1" customHeight="1" spans="3:5">
+    <row r="81" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="1">
         <v>77</v>
       </c>
@@ -2620,7 +2001,7 @@
         <v>601503011</v>
       </c>
     </row>
-    <row r="82" ht="20.1" customHeight="1" spans="3:6">
+    <row r="82" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="1">
         <v>78</v>
       </c>
@@ -2634,7 +2015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" ht="20.1" customHeight="1" spans="3:5">
+    <row r="83" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="1">
         <v>79</v>
       </c>
@@ -2645,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" ht="20.1" customHeight="1" spans="3:5">
+    <row r="84" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="1">
         <v>80</v>
       </c>
@@ -2656,7 +2037,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="85" ht="20.1" customHeight="1" spans="3:5">
+    <row r="85" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="1">
         <v>81</v>
       </c>
@@ -2667,7 +2048,7 @@
         <v>60303101</v>
       </c>
     </row>
-    <row r="86" ht="20.1" customHeight="1" spans="3:5">
+    <row r="86" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="1">
         <v>82</v>
       </c>
@@ -2678,7 +2059,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="87" ht="20.1" customHeight="1" spans="3:5">
+    <row r="87" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="1">
         <v>83</v>
       </c>
@@ -2689,7 +2070,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="88" ht="20.1" customHeight="1" spans="3:6">
+    <row r="88" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="1">
         <v>84</v>
       </c>
@@ -2703,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" ht="20.1" customHeight="1" spans="3:6">
+    <row r="89" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="1">
         <v>85</v>
       </c>
@@ -2717,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" ht="20.1" customHeight="1" spans="3:5">
+    <row r="90" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="1">
         <v>86</v>
       </c>
@@ -2728,7 +2109,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="91" ht="20.1" customHeight="1" spans="3:5">
+    <row r="91" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="1">
         <v>87</v>
       </c>
@@ -2739,7 +2120,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" ht="20.1" customHeight="1" spans="3:5">
+    <row r="92" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="1">
         <v>88</v>
       </c>
@@ -2750,7 +2131,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="93" ht="20.1" customHeight="1" spans="3:5">
+    <row r="93" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="1">
         <v>89</v>
       </c>
@@ -2761,7 +2142,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="94" ht="20.1" customHeight="1" spans="3:5">
+    <row r="94" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="1">
         <v>90</v>
       </c>
@@ -2772,7 +2153,7 @@
         <v>10000158</v>
       </c>
     </row>
-    <row r="95" ht="20.1" customHeight="1" spans="3:5">
+    <row r="95" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="1">
         <v>91</v>
       </c>
@@ -2783,7 +2164,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" ht="20.1" customHeight="1" spans="3:5">
+    <row r="96" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="1">
         <v>92</v>
       </c>
@@ -2794,7 +2175,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="97" ht="20.1" customHeight="1" spans="3:6">
+    <row r="97" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="1">
         <v>93</v>
       </c>
@@ -2808,7 +2189,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" ht="20.1" customHeight="1" spans="3:6">
+    <row r="98" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="1">
         <v>94</v>
       </c>
@@ -2822,7 +2203,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="99" ht="20.1" customHeight="1" spans="3:6">
+    <row r="99" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="1">
         <v>95</v>
       </c>
@@ -2836,7 +2217,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" ht="20.1" customHeight="1" spans="3:5">
+    <row r="100" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="1">
         <v>96</v>
       </c>
@@ -2847,7 +2228,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="101" ht="20.1" customHeight="1" spans="3:5">
+    <row r="101" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="1">
         <v>97</v>
       </c>
@@ -2858,7 +2239,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="102" ht="20.1" customHeight="1" spans="3:6">
+    <row r="102" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="1">
         <v>98</v>
       </c>
@@ -2872,7 +2253,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="103" ht="20.1" customHeight="1" spans="3:6">
+    <row r="103" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="1">
         <v>99</v>
       </c>
@@ -2886,7 +2267,7 @@
         <v>61300001</v>
       </c>
     </row>
-    <row r="104" ht="20.1" customHeight="1" spans="3:5">
+    <row r="104" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="1">
         <v>100</v>
       </c>
@@ -2897,7 +2278,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="105" ht="20.1" customHeight="1" spans="3:5">
+    <row r="105" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="1">
         <v>101</v>
       </c>
@@ -2908,7 +2289,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="106" ht="20.1" customHeight="1" spans="3:5">
+    <row r="106" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="1">
         <v>102</v>
       </c>
@@ -2919,7 +2300,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="107" ht="20.1" customHeight="1" spans="3:6">
+    <row r="107" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="1">
         <v>103</v>
       </c>
@@ -2933,7 +2314,7 @@
         <v>70000001</v>
       </c>
     </row>
-    <row r="108" ht="20.1" customHeight="1" spans="3:5">
+    <row r="108" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="1">
         <v>104</v>
       </c>
@@ -2944,7 +2325,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="109" ht="20.1" customHeight="1" spans="3:6">
+    <row r="109" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="1">
         <v>105</v>
       </c>
@@ -2958,7 +2339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" ht="20.1" customHeight="1" spans="3:6">
+    <row r="110" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="1">
         <v>106</v>
       </c>
@@ -2972,7 +2353,7 @@
         <v>80000001</v>
       </c>
     </row>
-    <row r="111" ht="20.1" customHeight="1" spans="3:5">
+    <row r="111" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="1">
         <v>107</v>
       </c>
@@ -2983,7 +2364,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="112" ht="20.1" customHeight="1" spans="3:6">
+    <row r="112" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C112" s="1">
         <v>108</v>
       </c>
@@ -2997,7 +2378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" ht="20.1" customHeight="1" spans="3:6">
+    <row r="113" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="1">
         <v>109</v>
       </c>
@@ -3011,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" ht="20.1" customHeight="1" spans="3:5">
+    <row r="114" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="1">
         <v>110</v>
       </c>
@@ -3022,7 +2403,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="115" ht="20.1" customHeight="1" spans="3:5">
+    <row r="115" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="1">
         <v>111</v>
       </c>
@@ -3033,7 +2414,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="116" ht="20.1" customHeight="1" spans="3:5">
+    <row r="116" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116" s="1">
         <v>112</v>
       </c>
@@ -3044,7 +2425,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="117" ht="20.1" customHeight="1" spans="3:6">
+    <row r="117" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="1">
         <v>113</v>
       </c>
@@ -3058,7 +2439,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="118" ht="20.1" customHeight="1" spans="3:6">
+    <row r="118" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118" s="1">
         <v>114</v>
       </c>
@@ -3072,7 +2453,7 @@
         <v>90000001</v>
       </c>
     </row>
-    <row r="119" ht="20.1" customHeight="1" spans="3:6">
+    <row r="119" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="1">
         <v>115</v>
       </c>
@@ -3086,7 +2467,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" ht="20.1" customHeight="1" spans="3:5">
+    <row r="120" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="1">
         <v>116</v>
       </c>
@@ -3097,7 +2478,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="121" ht="20.1" customHeight="1" spans="3:6">
+    <row r="121" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="1">
         <v>117</v>
       </c>
@@ -3111,7 +2492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" ht="20.1" customHeight="1" spans="3:6">
+    <row r="122" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="1">
         <v>118</v>
       </c>
@@ -3125,7 +2506,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" ht="20.1" customHeight="1" spans="3:6">
+    <row r="123" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="1">
         <v>119</v>
       </c>
@@ -3139,7 +2520,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" ht="20.1" customHeight="1" spans="3:6">
+    <row r="124" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="1">
         <v>120</v>
       </c>
@@ -3153,7 +2534,7 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="125" ht="20.1" customHeight="1" spans="3:6">
+    <row r="125" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="1">
         <v>121</v>
       </c>
@@ -3167,7 +2548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" ht="20.1" customHeight="1" spans="3:6">
+    <row r="126" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C126" s="1">
         <v>122</v>
       </c>
@@ -3181,7 +2562,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="127" ht="20.1" customHeight="1" spans="3:6">
+    <row r="127" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C127" s="1">
         <v>123</v>
       </c>
@@ -3195,7 +2576,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="128" spans="3:5">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C128" s="1">
         <v>124</v>
       </c>
@@ -3206,7 +2587,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="129" spans="3:5">
+    <row r="129" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C129" s="1">
         <v>125</v>
       </c>
@@ -3217,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:5">
+    <row r="130" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C130" s="1">
         <v>126</v>
       </c>
@@ -3228,7 +2609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="3:5">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C131" s="1">
         <v>127</v>
       </c>
@@ -3239,7 +2620,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="3:5">
+    <row r="132" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C132" s="1">
         <v>128</v>
       </c>
@@ -3247,27 +2628,27 @@
         <v>181</v>
       </c>
       <c r="E132" s="1">
-        <v>10024009</v>
-      </c>
-    </row>
-    <row r="133" spans="3:5">
+        <v>1000022</v>
+      </c>
+    </row>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C133" s="1">
         <v>129</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>183</v>
+      <c r="E133" s="1">
+        <v>61600001</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E115" r:id="rId3" display="1000001;100@601800051"/>
+    <hyperlink ref="E115" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AE5C0E-FCDA-4840-A781-2174EBB5FCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B59A269-2E82-42E3-94EE-D25629B2B97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,9 +414,6 @@
     <t>抓捕道具</t>
   </si>
   <si>
-    <t>1000008;200@1000009;500@1000010;1000</t>
-  </si>
-  <si>
     <t>购买格子消耗</t>
   </si>
   <si>
@@ -604,6 +601,10 @@
   </si>
   <si>
     <t>捐选随机获得道具</t>
+  </si>
+  <si>
+    <t>1000010;1000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1026,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E134" sqref="E134"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2056,7 +2057,7 @@
         <v>122</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2064,10 +2065,10 @@
         <v>83</v>
       </c>
       <c r="D87" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="88" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2075,7 +2076,7 @@
         <v>84</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -2089,7 +2090,7 @@
         <v>85</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E89" s="1">
         <v>0</v>
@@ -2103,10 +2104,10 @@
         <v>86</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="91" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2114,10 +2115,10 @@
         <v>87</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="92" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2125,10 +2126,10 @@
         <v>88</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="93" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2136,7 +2137,7 @@
         <v>89</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E93" s="1">
         <v>520</v>
@@ -2147,7 +2148,7 @@
         <v>90</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E94" s="1">
         <v>10000158</v>
@@ -2158,7 +2159,7 @@
         <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E95" s="1">
         <v>100</v>
@@ -2172,7 +2173,7 @@
         <v>24</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2180,7 +2181,7 @@
         <v>93</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E97" s="1">
         <v>30</v>
@@ -2194,7 +2195,7 @@
         <v>94</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E98" s="1">
         <v>200000</v>
@@ -2208,7 +2209,7 @@
         <v>95</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E99" s="1">
         <v>120</v>
@@ -2222,10 +2223,10 @@
         <v>96</v>
       </c>
       <c r="D100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="101" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2233,10 +2234,10 @@
         <v>97</v>
       </c>
       <c r="D101" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="102" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2244,7 +2245,7 @@
         <v>98</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E102" s="1">
         <v>30000</v>
@@ -2258,7 +2259,7 @@
         <v>99</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E103" s="1">
         <v>61300001</v>
@@ -2272,10 +2273,10 @@
         <v>100</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2283,10 +2284,10 @@
         <v>101</v>
       </c>
       <c r="D105" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="106" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2294,10 +2295,10 @@
         <v>102</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2305,7 +2306,7 @@
         <v>103</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E107" s="1">
         <v>70000001</v>
@@ -2319,7 +2320,7 @@
         <v>104</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E108" s="1">
         <v>300</v>
@@ -2330,7 +2331,7 @@
         <v>105</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E109" s="1">
         <v>30</v>
@@ -2344,7 +2345,7 @@
         <v>106</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E110" s="1">
         <v>80000001</v>
@@ -2358,10 +2359,10 @@
         <v>107</v>
       </c>
       <c r="D111" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="112" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2369,7 +2370,7 @@
         <v>108</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E112" s="1">
         <v>10</v>
@@ -2383,7 +2384,7 @@
         <v>109</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -2397,10 +2398,10 @@
         <v>110</v>
       </c>
       <c r="D114" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="115" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2408,10 +2409,10 @@
         <v>111</v>
       </c>
       <c r="D115" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="116" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2419,10 +2420,10 @@
         <v>112</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2430,7 +2431,7 @@
         <v>113</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E117" s="1">
         <v>198</v>
@@ -2444,7 +2445,7 @@
         <v>114</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E118" s="1">
         <v>90000001</v>
@@ -2458,7 +2459,7 @@
         <v>115</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E119" s="1">
         <v>120</v>
@@ -2472,10 +2473,10 @@
         <v>116</v>
       </c>
       <c r="D120" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="121" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2483,7 +2484,7 @@
         <v>117</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E121" s="1">
         <v>3</v>
@@ -2497,7 +2498,7 @@
         <v>118</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E122" s="1">
         <v>50</v>
@@ -2511,7 +2512,7 @@
         <v>119</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E123" s="1">
         <v>60</v>
@@ -2525,7 +2526,7 @@
         <v>120</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E124" s="1">
         <v>20000001</v>
@@ -2539,7 +2540,7 @@
         <v>121</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E125" s="1">
         <v>10</v>
@@ -2553,7 +2554,7 @@
         <v>122</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E126" s="1">
         <v>300</v>
@@ -2567,7 +2568,7 @@
         <v>123</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E127" s="1">
         <v>300</v>
@@ -2581,7 +2582,7 @@
         <v>124</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E128" s="1">
         <v>0.01</v>
@@ -2592,7 +2593,7 @@
         <v>125</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E129" s="1">
         <v>0</v>
@@ -2603,7 +2604,7 @@
         <v>126</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E130" s="1">
         <v>10</v>
@@ -2614,10 +2615,10 @@
         <v>127</v>
       </c>
       <c r="D131" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="132" spans="3:5" x14ac:dyDescent="0.3">
@@ -2625,7 +2626,7 @@
         <v>128</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E132" s="1">
         <v>1000022</v>
@@ -2636,7 +2637,7 @@
         <v>129</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E133" s="1">
         <v>61600001</v>

--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -1,37 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B59A269-2E82-42E3-94EE-D25629B2B97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalValueProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D84" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>刷新概率,每天刷新上限,刷新随机列表</t>
@@ -43,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="185">
   <si>
     <t>#</t>
   </si>
@@ -57,15 +63,9 @@
     <t>值</t>
   </si>
   <si>
-    <t>值2</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
-    <t>Value2</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -414,6 +414,9 @@
     <t>抓捕道具</t>
   </si>
   <si>
+    <t>1000010;1000</t>
+  </si>
+  <si>
     <t>购买格子消耗</t>
   </si>
   <si>
@@ -586,15 +589,21 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>赛季捐选道具</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="9.8000000000000007"/>
+        <sz val="9.8"/>
         <color rgb="FF85C46C"/>
         <rFont val="Courier New"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -603,15 +612,29 @@
     <t>捐选随机获得道具</t>
   </si>
   <si>
-    <t>1000010;1000</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>单人模式喜从天降免费次数</t>
+  </si>
+  <si>
+    <t>单人模式喜从天降额外次数</t>
+  </si>
+  <si>
+    <t>单人模式喜从天降刷新消耗</t>
+  </si>
+  <si>
+    <t>单人模式喜从天降购买次数消耗</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,7 +646,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -631,14 +653,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -646,31 +666,166 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
-      <sz val="9.8000000000000007"/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8"/>
       <color rgb="FF85C46C"/>
       <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,8 +838,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -692,11 +1033,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -718,21 +1301,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1019,38 +1646,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:H133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="57.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="6" max="6" width="16.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.1" customHeight="1"/>
+    <row r="2" ht="20.1" customHeight="1" spans="4:4">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="20.1" customHeight="1" spans="3:7">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1060,1596 +1686,1493 @@
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="3:7">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="3:7">
+      <c r="C5" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="7">
         <v>100001</v>
       </c>
     </row>
-    <row r="7" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1">
         <v>600000111</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="20.1" customHeight="1" spans="3:5">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1">
         <v>120</v>
       </c>
-      <c r="F8" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" ht="20.1" customHeight="1" spans="3:5">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1">
         <v>25</v>
       </c>
-      <c r="F9" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" ht="20.1" customHeight="1" spans="3:5">
       <c r="C10" s="8">
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="20.1" customHeight="1" spans="3:5">
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="20.1" customHeight="1" spans="3:5">
       <c r="C12" s="8">
         <v>7</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="20.1" customHeight="1" spans="3:5">
       <c r="C13" s="8">
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="20.1" customHeight="1" spans="3:5">
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" ht="20.1" customHeight="1" spans="3:5">
       <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1">
         <v>160</v>
       </c>
-      <c r="F15" s="1">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" ht="20.1" customHeight="1" spans="3:5">
       <c r="C16" s="1">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="20.1" customHeight="1" spans="3:5">
       <c r="C17" s="1">
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
       </c>
-      <c r="F17" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" ht="20.1" customHeight="1" spans="3:5">
       <c r="C18" s="1">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" ht="20.1" customHeight="1" spans="3:5">
       <c r="C19" s="1">
         <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" ht="20.1" customHeight="1" spans="3:5">
       <c r="C20" s="1">
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" ht="20.1" customHeight="1" spans="3:5">
       <c r="C21" s="1">
         <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" ht="20.1" customHeight="1" spans="3:5">
       <c r="C22" s="1">
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E22" s="1">
         <v>880</v>
       </c>
     </row>
-    <row r="23" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" ht="20.1" customHeight="1" spans="3:5">
       <c r="C23" s="1">
         <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C24" s="1">
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
       </c>
-      <c r="F24" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" ht="20.1" customHeight="1" spans="3:5">
       <c r="C25" s="1">
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E25" s="1">
         <v>200000</v>
       </c>
     </row>
-    <row r="26" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" ht="20.1" customHeight="1" spans="3:5">
       <c r="C26" s="1">
         <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="3:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C27" s="1">
         <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E27" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C28" s="1">
         <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E28" s="1">
         <v>50</v>
       </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="3:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C29" s="1">
         <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E29" s="1">
         <v>7</v>
       </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" ht="20.1" customHeight="1" spans="3:5">
       <c r="C30" s="1">
         <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E30" s="1">
         <v>5000</v>
       </c>
-      <c r="F30" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" ht="20.1" customHeight="1" spans="3:5">
       <c r="C31" s="1">
         <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E31" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" ht="20.1" customHeight="1" spans="3:5">
       <c r="C32" s="1">
         <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" ht="20.1" customHeight="1" spans="3:5">
       <c r="C33" s="1">
         <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" ht="20.1" customHeight="1" spans="3:5">
       <c r="C34" s="1">
         <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E34" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="20.1" customHeight="1" spans="3:5">
       <c r="C35" s="1">
         <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E35" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" ht="20.1" customHeight="1" spans="3:5">
       <c r="C36" s="1">
         <v>31</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E36" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="20.1" customHeight="1" spans="3:5">
       <c r="C37" s="1">
         <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" ht="20.1" customHeight="1" spans="3:5">
       <c r="C38" s="1">
         <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" ht="20.1" customHeight="1" spans="3:5">
       <c r="C39" s="1">
         <v>35</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E39" s="1">
         <v>86400</v>
       </c>
     </row>
-    <row r="40" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" ht="20.1" customHeight="1" spans="3:5">
       <c r="C40" s="1">
         <v>36</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E40" s="1">
         <v>259200</v>
       </c>
     </row>
-    <row r="41" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" ht="20.1" customHeight="1" spans="3:5">
       <c r="C41" s="1">
         <v>37</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E41" s="1">
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="20.1" customHeight="1" spans="3:5">
       <c r="C42" s="1">
         <v>38</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" ht="20.1" customHeight="1" spans="3:5">
       <c r="C43" s="1">
         <v>39</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" ht="20.1" customHeight="1" spans="3:5">
       <c r="C44" s="1">
         <v>40</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" ht="20.1" customHeight="1" spans="3:5">
       <c r="C45" s="1">
         <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E45" s="1">
         <v>65</v>
       </c>
-      <c r="F45" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" ht="20.1" customHeight="1" spans="3:5">
       <c r="C46" s="1">
         <v>42</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" ht="20.1" customHeight="1" spans="3:6">
       <c r="C47" s="1">
         <v>43</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" ht="20.1" customHeight="1" spans="3:5">
       <c r="C48" s="1">
         <v>44</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E48" s="1">
         <v>20</v>
       </c>
-      <c r="F48" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" ht="20.1" customHeight="1" spans="3:5">
       <c r="C49" s="1">
         <v>45</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E49" s="1">
         <v>500</v>
       </c>
-      <c r="F49" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" ht="20.1" customHeight="1" spans="3:5">
       <c r="C50" s="1">
         <v>46</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E50" s="1">
         <v>500</v>
       </c>
-      <c r="F50" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" ht="20.1" customHeight="1" spans="3:5">
       <c r="C51" s="1">
         <v>47</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E51" s="1">
         <v>101</v>
       </c>
-      <c r="F51" s="1">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" ht="20.1" customHeight="1" spans="3:5">
       <c r="C52" s="1">
         <v>48</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" ht="20.1" customHeight="1" spans="3:5">
       <c r="C53" s="1">
         <v>49</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" ht="20.1" customHeight="1" spans="3:5">
       <c r="C54" s="1">
         <v>50</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E54" s="1">
         <v>50</v>
       </c>
-      <c r="F54" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" ht="20.1" customHeight="1" spans="3:5">
       <c r="C55" s="1">
         <v>51</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" ht="20.1" customHeight="1" spans="3:5">
       <c r="C56" s="1">
         <v>52</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" ht="20.1" customHeight="1" spans="3:5">
       <c r="C57" s="1">
         <v>53</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" ht="20.1" customHeight="1" spans="3:5">
       <c r="C58" s="1">
         <v>54</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" ht="20.1" customHeight="1" spans="3:5">
       <c r="C59" s="1">
         <v>55</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E59" s="1">
         <v>20000001</v>
       </c>
-      <c r="F59" s="1">
-        <v>20000001</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" ht="20.1" customHeight="1" spans="3:5">
       <c r="C60" s="1">
         <v>56</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" ht="20.1" customHeight="1" spans="3:5">
       <c r="C61" s="1">
         <v>57</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E61" s="1">
         <v>100</v>
       </c>
-      <c r="F61" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" ht="20.1" customHeight="1" spans="3:5">
       <c r="C62" s="1">
         <v>58</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E62" s="1">
         <v>10</v>
       </c>
-      <c r="F62" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" ht="20.1" customHeight="1" spans="3:5">
       <c r="C63" s="1">
         <v>59</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E63" s="1">
         <v>30</v>
       </c>
-      <c r="F63" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" ht="20.1" customHeight="1" spans="3:5">
       <c r="C64" s="1">
         <v>60</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E64" s="1">
         <v>60</v>
       </c>
-      <c r="F64" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" ht="20.1" customHeight="1" spans="3:5">
       <c r="C65" s="1">
         <v>61</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" ht="20.1" customHeight="1" spans="3:5">
       <c r="C66" s="1">
         <v>62</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" ht="20.1" customHeight="1" spans="3:5">
       <c r="C67" s="1">
         <v>63</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" ht="20.1" customHeight="1" spans="3:5">
       <c r="C68" s="1">
         <v>64</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E68" s="1">
         <v>30000001</v>
       </c>
-      <c r="F68" s="1">
-        <v>30000001</v>
-      </c>
-    </row>
-    <row r="69" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" ht="20.1" customHeight="1" spans="3:5">
       <c r="C69" s="1">
         <v>65</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" ht="20.1" customHeight="1" spans="3:5">
       <c r="C70" s="1">
         <v>66</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" ht="20.1" customHeight="1" spans="3:5">
       <c r="C71" s="1">
         <v>67</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" ht="20.1" customHeight="1" spans="3:5">
       <c r="C72" s="1">
         <v>68</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E72" s="7">
         <v>60500101</v>
       </c>
     </row>
-    <row r="73" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" ht="20.1" customHeight="1" spans="3:5">
       <c r="C73" s="1">
         <v>69</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E73" s="7">
         <v>60500201</v>
       </c>
     </row>
-    <row r="74" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" ht="20.1" customHeight="1" spans="3:5">
       <c r="C74" s="1">
         <v>70</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" ht="20.1" customHeight="1" spans="3:5">
       <c r="C75" s="1">
         <v>71</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="76" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" ht="20.1" customHeight="1" spans="3:5">
       <c r="C76" s="1">
         <v>72</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E76" s="1">
         <v>180</v>
       </c>
-      <c r="F76" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="77" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" ht="20.1" customHeight="1" spans="3:5">
       <c r="C77" s="1">
         <v>73</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E77" s="1">
         <v>880</v>
       </c>
-      <c r="F77" s="1">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="78" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C78" s="1">
         <v>74</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E78" s="1">
         <v>3</v>
       </c>
-      <c r="F78" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" ht="20.1" customHeight="1" spans="3:5">
       <c r="C79" s="1">
         <v>75</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E79" s="1">
         <v>601502001</v>
       </c>
     </row>
-    <row r="80" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" ht="20.1" customHeight="1" spans="3:5">
       <c r="C80" s="1">
         <v>76</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E80" s="1">
         <v>40000001</v>
       </c>
-      <c r="F80" s="1">
-        <v>40000001</v>
-      </c>
-    </row>
-    <row r="81" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" ht="20.1" customHeight="1" spans="3:5">
       <c r="C81" s="1">
         <v>77</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E81" s="1">
         <v>601503011</v>
       </c>
     </row>
-    <row r="82" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" ht="20.1" customHeight="1" spans="3:5">
       <c r="C82" s="1">
         <v>78</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E82" s="1">
         <v>100</v>
       </c>
-      <c r="F82" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" ht="20.1" customHeight="1" spans="3:5">
       <c r="C83" s="1">
         <v>79</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" ht="20.1" customHeight="1" spans="3:5">
       <c r="C84" s="1">
         <v>80</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" ht="20.1" customHeight="1" spans="3:5">
       <c r="C85" s="1">
         <v>81</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E85" s="7">
         <v>60303101</v>
       </c>
     </row>
-    <row r="86" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" ht="20.1" customHeight="1" spans="3:5">
       <c r="C86" s="1">
         <v>82</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="87" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" ht="20.1" customHeight="1" spans="3:5">
       <c r="C87" s="1">
         <v>83</v>
       </c>
       <c r="D87" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="88" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" ht="20.1" customHeight="1" spans="3:5">
       <c r="C88" s="1">
         <v>84</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
       </c>
-      <c r="F88" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" ht="20.1" customHeight="1" spans="3:5">
       <c r="C89" s="1">
         <v>85</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E89" s="1">
         <v>0</v>
       </c>
-      <c r="F89" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" ht="20.1" customHeight="1" spans="3:5">
       <c r="C90" s="1">
         <v>86</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="91" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" ht="20.1" customHeight="1" spans="3:5">
       <c r="C91" s="1">
         <v>87</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="92" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" ht="20.1" customHeight="1" spans="3:5">
       <c r="C92" s="1">
         <v>88</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="93" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" ht="20.1" customHeight="1" spans="3:5">
       <c r="C93" s="1">
         <v>89</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E93" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="94" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" ht="20.1" customHeight="1" spans="3:5">
       <c r="C94" s="1">
         <v>90</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E94" s="1">
         <v>10000158</v>
       </c>
     </row>
-    <row r="95" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" ht="20.1" customHeight="1" spans="3:5">
       <c r="C95" s="1">
         <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E95" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" ht="20.1" customHeight="1" spans="3:5">
       <c r="C96" s="1">
         <v>92</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="97" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" ht="20.1" customHeight="1" spans="3:5">
       <c r="C97" s="1">
         <v>93</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E97" s="1">
         <v>30</v>
       </c>
-      <c r="F97" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" ht="20.1" customHeight="1" spans="3:5">
       <c r="C98" s="1">
         <v>94</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E98" s="1">
         <v>200000</v>
       </c>
-      <c r="F98" s="1">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="99" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" ht="20.1" customHeight="1" spans="3:5">
       <c r="C99" s="1">
         <v>95</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E99" s="1">
         <v>120</v>
       </c>
-      <c r="F99" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" ht="20.1" customHeight="1" spans="3:5">
       <c r="C100" s="1">
         <v>96</v>
       </c>
       <c r="D100" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="101" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" ht="20.1" customHeight="1" spans="3:5">
       <c r="C101" s="1">
         <v>97</v>
       </c>
       <c r="D101" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="102" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" ht="20.1" customHeight="1" spans="3:5">
       <c r="C102" s="1">
         <v>98</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E102" s="1">
         <v>30000</v>
       </c>
-      <c r="F102" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="103" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" ht="20.1" customHeight="1" spans="3:5">
       <c r="C103" s="1">
         <v>99</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E103" s="1">
         <v>61300001</v>
       </c>
-      <c r="F103" s="1">
-        <v>61300001</v>
-      </c>
-    </row>
-    <row r="104" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" ht="20.1" customHeight="1" spans="3:5">
       <c r="C104" s="1">
         <v>100</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="105" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" ht="20.1" customHeight="1" spans="3:5">
       <c r="C105" s="1">
         <v>101</v>
       </c>
       <c r="D105" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="106" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" ht="20.1" customHeight="1" spans="3:5">
       <c r="C106" s="1">
         <v>102</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="107" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" ht="20.1" customHeight="1" spans="3:5">
       <c r="C107" s="1">
         <v>103</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E107" s="1">
         <v>70000001</v>
       </c>
-      <c r="F107" s="1">
-        <v>70000001</v>
-      </c>
-    </row>
-    <row r="108" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" ht="20.1" customHeight="1" spans="3:5">
       <c r="C108" s="1">
         <v>104</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E108" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" ht="20.1" customHeight="1" spans="3:5">
       <c r="C109" s="1">
         <v>105</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E109" s="1">
         <v>30</v>
       </c>
-      <c r="F109" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="110" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" ht="20.1" customHeight="1" spans="3:5">
       <c r="C110" s="1">
         <v>106</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E110" s="1">
         <v>80000001</v>
       </c>
-      <c r="F110" s="1">
-        <v>80000001</v>
-      </c>
-    </row>
-    <row r="111" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" ht="20.1" customHeight="1" spans="3:5">
       <c r="C111" s="1">
         <v>107</v>
       </c>
       <c r="D111" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="112" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" ht="20.1" customHeight="1" spans="3:5">
       <c r="C112" s="1">
         <v>108</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E112" s="1">
         <v>10</v>
       </c>
-      <c r="F112" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" ht="20.1" customHeight="1" spans="3:5">
       <c r="C113" s="1">
         <v>109</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
       </c>
-      <c r="F113" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" ht="20.1" customHeight="1" spans="3:5">
       <c r="C114" s="1">
         <v>110</v>
       </c>
       <c r="D114" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="115" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" ht="20.1" customHeight="1" spans="3:5">
       <c r="C115" s="1">
         <v>111</v>
       </c>
       <c r="D115" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="116" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" ht="20.1" customHeight="1" spans="3:5">
       <c r="C116" s="1">
         <v>112</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="117" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" ht="20.1" customHeight="1" spans="3:5">
       <c r="C117" s="1">
         <v>113</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E117" s="1">
         <v>198</v>
       </c>
-      <c r="F117" s="1">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="118" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" ht="20.1" customHeight="1" spans="3:5">
       <c r="C118" s="1">
         <v>114</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E118" s="1">
         <v>90000001</v>
       </c>
-      <c r="F118" s="1">
-        <v>90000001</v>
-      </c>
-    </row>
-    <row r="119" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" ht="20.1" customHeight="1" spans="3:5">
       <c r="C119" s="1">
         <v>115</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E119" s="1">
         <v>120</v>
       </c>
-      <c r="F119" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="120" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" ht="20.1" customHeight="1" spans="3:5">
       <c r="C120" s="1">
         <v>116</v>
       </c>
       <c r="D120" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="121" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" ht="20.1" customHeight="1" spans="3:5">
       <c r="C121" s="1">
         <v>117</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E121" s="1">
         <v>3</v>
       </c>
-      <c r="F121" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" ht="20.1" customHeight="1" spans="3:5">
       <c r="C122" s="1">
         <v>118</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E122" s="1">
         <v>50</v>
       </c>
-      <c r="F122" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="123" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" ht="20.1" customHeight="1" spans="3:5">
       <c r="C123" s="1">
         <v>119</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E123" s="1">
         <v>60</v>
       </c>
-      <c r="F123" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="124" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" ht="20.1" customHeight="1" spans="3:5">
       <c r="C124" s="1">
         <v>120</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E124" s="1">
         <v>20000001</v>
       </c>
-      <c r="F124" s="1">
-        <v>20000001</v>
-      </c>
-    </row>
-    <row r="125" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" ht="20.1" customHeight="1" spans="3:5">
       <c r="C125" s="1">
         <v>121</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E125" s="1">
         <v>10</v>
       </c>
-      <c r="F125" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" ht="20.1" customHeight="1" spans="3:5">
       <c r="C126" s="1">
         <v>122</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E126" s="1">
         <v>300</v>
       </c>
-      <c r="F126" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="127" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" ht="20.1" customHeight="1" spans="3:5">
       <c r="C127" s="1">
         <v>123</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E127" s="1">
         <v>300</v>
       </c>
-      <c r="F127" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="3:5">
       <c r="C128" s="1">
         <v>124</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E128" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:5">
       <c r="C129" s="1">
         <v>125</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E129" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:5">
       <c r="C130" s="1">
         <v>126</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E130" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:5">
       <c r="C131" s="1">
         <v>127</v>
       </c>
       <c r="D131" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="3:5">
       <c r="C132" s="1">
         <v>128</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E132" s="1">
         <v>1000022</v>
       </c>
     </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:5">
       <c r="C133" s="1">
         <v>129</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E133" s="1">
         <v>61600001</v>
       </c>
     </row>
+    <row r="134" spans="3:5">
+      <c r="C134" s="1">
+        <v>130</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E134" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5">
+      <c r="C135" s="1">
+        <v>131</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E135" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="3:5">
+      <c r="C136" s="1">
+        <v>132</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E136" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="137" spans="3:5">
+      <c r="C137" s="1">
+        <v>133</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E137" s="1">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E115" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E115" r:id="rId3" display="1000001;100@601800051"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalValueProto" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="187">
   <si>
     <t>#</t>
   </si>
@@ -622,6 +622,12 @@
   </si>
   <si>
     <t>单人模式喜从天降购买次数消耗</t>
+  </si>
+  <si>
+    <t>宠物孵化开启格子消耗</t>
+  </si>
+  <si>
+    <t>3;0@3;1000@3;3000@3;5000</t>
   </si>
 </sst>
 </file>
@@ -1652,10 +1658,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:G137"/>
+  <dimension ref="C1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="F139" sqref="F139"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3166,6 +3172,17 @@
         <v>200</v>
       </c>
     </row>
+    <row r="138" spans="3:5">
+      <c r="C138" s="1">
+        <v>134</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E115" r:id="rId3" display="1000001;100@601800051"/>

--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="188">
   <si>
     <t>#</t>
   </si>
@@ -628,6 +628,9 @@
   </si>
   <si>
     <t>3;0@3;1000@3;3000@3;5000</t>
+  </si>
+  <si>
+    <t>藏宝图任务每日领取数量</t>
   </si>
 </sst>
 </file>
@@ -1658,10 +1661,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:G138"/>
+  <dimension ref="C1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3183,6 +3186,17 @@
         <v>186</v>
       </c>
     </row>
+    <row r="139" spans="3:5">
+      <c r="C139" s="1">
+        <v>135</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E139" s="1">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E115" r:id="rId3" display="1000001;100@601800051"/>

--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12795"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalValueProto" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="190">
   <si>
     <t>#</t>
   </si>
@@ -622,6 +622,12 @@
   </si>
   <si>
     <t>单人模式喜从天降购买次数消耗</t>
+  </si>
+  <si>
+    <t>单人模式喜从天降掉落</t>
+  </si>
+  <si>
+    <t>1;600010101@2;600010101@3;600010101@5;600010101@7;600010101</t>
   </si>
   <si>
     <t>宠物孵化开启格子消耗</t>
@@ -1661,10 +1667,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:G139"/>
+  <dimension ref="C1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3193,7 +3199,18 @@
       <c r="D139" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E139" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="3:5">
+      <c r="C140" s="1">
+        <v>136</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E140" s="1">
         <v>5</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD72936-54BE-4295-AF9B-A5F752B958D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalValueProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="D84" authorId="0">
+    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -600,10 +593,10 @@
     <r>
       <rPr>
         <i/>
-        <sz val="9.8"/>
+        <sz val="9.8000000000000007"/>
         <color rgb="FF85C46C"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -642,14 +635,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,163 +671,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF85C46C"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9.8"/>
-      <color rgb="FF85C46C"/>
-      <name val="Courier New"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -853,194 +702,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1048,253 +711,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1316,65 +737,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1661,19 +1038,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+      <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
@@ -1685,13 +1062,13 @@
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1" spans="4:4">
+    <row r="1" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:7">
+    <row r="3" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1704,7 +1081,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:7">
+    <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1715,7 +1092,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:7">
+    <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
@@ -1726,7 +1103,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="6" spans="3:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1737,7 +1114,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="7" spans="3:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1748,7 +1125,7 @@
         <v>600000111</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:5">
+    <row r="8" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1759,7 +1136,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:5">
+    <row r="9" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1770,7 +1147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:5">
+    <row r="10" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="8">
         <v>5</v>
       </c>
@@ -1781,7 +1158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:5">
+    <row r="11" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1792,7 +1169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:5">
+    <row r="12" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8">
         <v>7</v>
       </c>
@@ -1803,7 +1180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:5">
+    <row r="13" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="8">
         <v>8</v>
       </c>
@@ -1814,7 +1191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:5">
+    <row r="14" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1825,7 +1202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:5">
+    <row r="15" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1836,7 +1213,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:5">
+    <row r="16" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -1847,7 +1224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:5">
+    <row r="17" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>12</v>
       </c>
@@ -1858,7 +1235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:5">
+    <row r="18" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>13</v>
       </c>
@@ -1869,7 +1246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:5">
+    <row r="19" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>14</v>
       </c>
@@ -1880,7 +1257,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:5">
+    <row r="20" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -1891,7 +1268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:5">
+    <row r="21" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -1902,7 +1279,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:5">
+    <row r="22" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -1913,7 +1290,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:5">
+    <row r="23" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -1924,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="24" spans="3:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="1">
         <v>19</v>
       </c>
@@ -1935,7 +1312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:5">
+    <row r="25" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
         <v>20</v>
       </c>
@@ -1946,7 +1323,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="26" ht="20.1" customHeight="1" spans="3:5">
+    <row r="26" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
         <v>21</v>
       </c>
@@ -1957,7 +1334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="27" spans="3:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="1">
         <v>22</v>
       </c>
@@ -1968,7 +1345,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="28" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
         <v>23</v>
       </c>
@@ -1979,7 +1356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="29" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>24</v>
       </c>
@@ -1990,7 +1367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:5">
+    <row r="30" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
         <v>25</v>
       </c>
@@ -2001,7 +1378,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:5">
+    <row r="31" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
         <v>26</v>
       </c>
@@ -2012,7 +1389,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:5">
+    <row r="32" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
         <v>27</v>
       </c>
@@ -2023,7 +1400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:5">
+    <row r="33" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
         <v>28</v>
       </c>
@@ -2034,7 +1411,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:5">
+    <row r="34" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
         <v>29</v>
       </c>
@@ -2045,7 +1422,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:5">
+    <row r="35" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
         <v>30</v>
       </c>
@@ -2056,7 +1433,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" ht="20.1" customHeight="1" spans="3:5">
+    <row r="36" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
         <v>31</v>
       </c>
@@ -2067,7 +1444,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:5">
+    <row r="37" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
         <v>33</v>
       </c>
@@ -2078,7 +1455,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:5">
+    <row r="38" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="1">
         <v>34</v>
       </c>
@@ -2089,7 +1466,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:5">
+    <row r="39" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="1">
         <v>35</v>
       </c>
@@ -2100,7 +1477,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="40" ht="20.1" customHeight="1" spans="3:5">
+    <row r="40" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1">
         <v>36</v>
       </c>
@@ -2111,7 +1488,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:5">
+    <row r="41" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
         <v>37</v>
       </c>
@@ -2122,7 +1499,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="42" ht="20.1" customHeight="1" spans="3:5">
+    <row r="42" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
         <v>38</v>
       </c>
@@ -2133,7 +1510,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" ht="20.1" customHeight="1" spans="3:5">
+    <row r="43" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="1">
         <v>39</v>
       </c>
@@ -2144,7 +1521,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" ht="20.1" customHeight="1" spans="3:5">
+    <row r="44" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="1">
         <v>40</v>
       </c>
@@ -2155,7 +1532,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:5">
+    <row r="45" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="1">
         <v>41</v>
       </c>
@@ -2166,7 +1543,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:5">
+    <row r="46" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="1">
         <v>42</v>
       </c>
@@ -2177,7 +1554,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:6">
+    <row r="47" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="1">
         <v>43</v>
       </c>
@@ -2191,7 +1568,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:5">
+    <row r="48" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="1">
         <v>44</v>
       </c>
@@ -2202,7 +1579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" ht="20.1" customHeight="1" spans="3:5">
+    <row r="49" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="1">
         <v>45</v>
       </c>
@@ -2213,7 +1590,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" ht="20.1" customHeight="1" spans="3:5">
+    <row r="50" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="1">
         <v>46</v>
       </c>
@@ -2224,7 +1601,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" ht="20.1" customHeight="1" spans="3:5">
+    <row r="51" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="1">
         <v>47</v>
       </c>
@@ -2235,7 +1612,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" ht="20.1" customHeight="1" spans="3:5">
+    <row r="52" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="1">
         <v>48</v>
       </c>
@@ -2246,7 +1623,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" ht="20.1" customHeight="1" spans="3:5">
+    <row r="53" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="1">
         <v>49</v>
       </c>
@@ -2257,7 +1634,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" ht="20.1" customHeight="1" spans="3:5">
+    <row r="54" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="1">
         <v>50</v>
       </c>
@@ -2268,7 +1645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" ht="20.1" customHeight="1" spans="3:5">
+    <row r="55" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="1">
         <v>51</v>
       </c>
@@ -2279,7 +1656,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" ht="20.1" customHeight="1" spans="3:5">
+    <row r="56" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="1">
         <v>52</v>
       </c>
@@ -2290,7 +1667,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" ht="20.1" customHeight="1" spans="3:5">
+    <row r="57" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="1">
         <v>53</v>
       </c>
@@ -2301,7 +1678,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" ht="20.1" customHeight="1" spans="3:5">
+    <row r="58" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="1">
         <v>54</v>
       </c>
@@ -2312,7 +1689,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" ht="20.1" customHeight="1" spans="3:5">
+    <row r="59" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="1">
         <v>55</v>
       </c>
@@ -2323,7 +1700,7 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="60" ht="20.1" customHeight="1" spans="3:5">
+    <row r="60" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="1">
         <v>56</v>
       </c>
@@ -2334,7 +1711,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="61" ht="20.1" customHeight="1" spans="3:5">
+    <row r="61" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="1">
         <v>57</v>
       </c>
@@ -2345,7 +1722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" ht="20.1" customHeight="1" spans="3:5">
+    <row r="62" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="1">
         <v>58</v>
       </c>
@@ -2356,7 +1733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" ht="20.1" customHeight="1" spans="3:5">
+    <row r="63" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="1">
         <v>59</v>
       </c>
@@ -2367,7 +1744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" ht="20.1" customHeight="1" spans="3:5">
+    <row r="64" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="1">
         <v>60</v>
       </c>
@@ -2378,7 +1755,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" ht="20.1" customHeight="1" spans="3:5">
+    <row r="65" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="1">
         <v>61</v>
       </c>
@@ -2389,7 +1766,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" ht="20.1" customHeight="1" spans="3:5">
+    <row r="66" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="1">
         <v>62</v>
       </c>
@@ -2400,7 +1777,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" ht="20.1" customHeight="1" spans="3:5">
+    <row r="67" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="1">
         <v>63</v>
       </c>
@@ -2411,7 +1788,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" ht="20.1" customHeight="1" spans="3:5">
+    <row r="68" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="1">
         <v>64</v>
       </c>
@@ -2422,7 +1799,7 @@
         <v>30000001</v>
       </c>
     </row>
-    <row r="69" ht="20.1" customHeight="1" spans="3:5">
+    <row r="69" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="1">
         <v>65</v>
       </c>
@@ -2433,7 +1810,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" ht="20.1" customHeight="1" spans="3:5">
+    <row r="70" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="1">
         <v>66</v>
       </c>
@@ -2444,7 +1821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" ht="20.1" customHeight="1" spans="3:5">
+    <row r="71" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="1">
         <v>67</v>
       </c>
@@ -2455,7 +1832,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="72" ht="20.1" customHeight="1" spans="3:5">
+    <row r="72" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="1">
         <v>68</v>
       </c>
@@ -2466,7 +1843,7 @@
         <v>60500101</v>
       </c>
     </row>
-    <row r="73" ht="20.1" customHeight="1" spans="3:5">
+    <row r="73" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="1">
         <v>69</v>
       </c>
@@ -2477,7 +1854,7 @@
         <v>60500201</v>
       </c>
     </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:5">
+    <row r="74" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="1">
         <v>70</v>
       </c>
@@ -2488,7 +1865,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" ht="20.1" customHeight="1" spans="3:5">
+    <row r="75" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="1">
         <v>71</v>
       </c>
@@ -2499,7 +1876,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" ht="20.1" customHeight="1" spans="3:5">
+    <row r="76" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="1">
         <v>72</v>
       </c>
@@ -2510,7 +1887,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" ht="20.1" customHeight="1" spans="3:5">
+    <row r="77" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="1">
         <v>73</v>
       </c>
@@ -2521,7 +1898,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
+    <row r="78" spans="3:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="1">
         <v>74</v>
       </c>
@@ -2532,7 +1909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" ht="20.1" customHeight="1" spans="3:5">
+    <row r="79" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="1">
         <v>75</v>
       </c>
@@ -2543,7 +1920,7 @@
         <v>601502001</v>
       </c>
     </row>
-    <row r="80" ht="20.1" customHeight="1" spans="3:5">
+    <row r="80" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="1">
         <v>76</v>
       </c>
@@ -2554,7 +1931,7 @@
         <v>40000001</v>
       </c>
     </row>
-    <row r="81" ht="20.1" customHeight="1" spans="3:5">
+    <row r="81" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="1">
         <v>77</v>
       </c>
@@ -2565,7 +1942,7 @@
         <v>601503011</v>
       </c>
     </row>
-    <row r="82" ht="20.1" customHeight="1" spans="3:5">
+    <row r="82" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="1">
         <v>78</v>
       </c>
@@ -2576,7 +1953,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" ht="20.1" customHeight="1" spans="3:5">
+    <row r="83" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="1">
         <v>79</v>
       </c>
@@ -2587,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" ht="20.1" customHeight="1" spans="3:5">
+    <row r="84" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="1">
         <v>80</v>
       </c>
@@ -2598,7 +1975,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="85" ht="20.1" customHeight="1" spans="3:5">
+    <row r="85" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="1">
         <v>81</v>
       </c>
@@ -2609,7 +1986,7 @@
         <v>60303101</v>
       </c>
     </row>
-    <row r="86" ht="20.1" customHeight="1" spans="3:5">
+    <row r="86" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="1">
         <v>82</v>
       </c>
@@ -2620,7 +1997,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="87" ht="20.1" customHeight="1" spans="3:5">
+    <row r="87" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="1">
         <v>83</v>
       </c>
@@ -2631,7 +2008,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" ht="20.1" customHeight="1" spans="3:5">
+    <row r="88" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="1">
         <v>84</v>
       </c>
@@ -2642,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" ht="20.1" customHeight="1" spans="3:5">
+    <row r="89" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="1">
         <v>85</v>
       </c>
@@ -2653,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" ht="20.1" customHeight="1" spans="3:5">
+    <row r="90" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="1">
         <v>86</v>
       </c>
@@ -2664,7 +2041,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="91" ht="20.1" customHeight="1" spans="3:5">
+    <row r="91" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="1">
         <v>87</v>
       </c>
@@ -2675,7 +2052,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="92" ht="20.1" customHeight="1" spans="3:5">
+    <row r="92" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="1">
         <v>88</v>
       </c>
@@ -2686,7 +2063,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" ht="20.1" customHeight="1" spans="3:5">
+    <row r="93" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="1">
         <v>89</v>
       </c>
@@ -2697,7 +2074,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="94" ht="20.1" customHeight="1" spans="3:5">
+    <row r="94" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="1">
         <v>90</v>
       </c>
@@ -2708,7 +2085,7 @@
         <v>10000158</v>
       </c>
     </row>
-    <row r="95" ht="20.1" customHeight="1" spans="3:5">
+    <row r="95" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="1">
         <v>91</v>
       </c>
@@ -2719,7 +2096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" ht="20.1" customHeight="1" spans="3:5">
+    <row r="96" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="1">
         <v>92</v>
       </c>
@@ -2730,7 +2107,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="97" ht="20.1" customHeight="1" spans="3:5">
+    <row r="97" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="1">
         <v>93</v>
       </c>
@@ -2741,7 +2118,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" ht="20.1" customHeight="1" spans="3:5">
+    <row r="98" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="1">
         <v>94</v>
       </c>
@@ -2752,7 +2129,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="99" ht="20.1" customHeight="1" spans="3:5">
+    <row r="99" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="1">
         <v>95</v>
       </c>
@@ -2763,7 +2140,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" ht="20.1" customHeight="1" spans="3:5">
+    <row r="100" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="1">
         <v>96</v>
       </c>
@@ -2774,7 +2151,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="101" ht="20.1" customHeight="1" spans="3:5">
+    <row r="101" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="1">
         <v>97</v>
       </c>
@@ -2785,7 +2162,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="102" ht="20.1" customHeight="1" spans="3:5">
+    <row r="102" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="1">
         <v>98</v>
       </c>
@@ -2796,7 +2173,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="103" ht="20.1" customHeight="1" spans="3:5">
+    <row r="103" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="1">
         <v>99</v>
       </c>
@@ -2807,7 +2184,7 @@
         <v>61300001</v>
       </c>
     </row>
-    <row r="104" ht="20.1" customHeight="1" spans="3:5">
+    <row r="104" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="1">
         <v>100</v>
       </c>
@@ -2818,7 +2195,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="105" ht="20.1" customHeight="1" spans="3:5">
+    <row r="105" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="1">
         <v>101</v>
       </c>
@@ -2829,7 +2206,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" ht="20.1" customHeight="1" spans="3:5">
+    <row r="106" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="1">
         <v>102</v>
       </c>
@@ -2840,7 +2217,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="107" ht="20.1" customHeight="1" spans="3:5">
+    <row r="107" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="1">
         <v>103</v>
       </c>
@@ -2851,7 +2228,7 @@
         <v>70000001</v>
       </c>
     </row>
-    <row r="108" ht="20.1" customHeight="1" spans="3:5">
+    <row r="108" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="1">
         <v>104</v>
       </c>
@@ -2862,7 +2239,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="109" ht="20.1" customHeight="1" spans="3:5">
+    <row r="109" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="1">
         <v>105</v>
       </c>
@@ -2873,7 +2250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" ht="20.1" customHeight="1" spans="3:5">
+    <row r="110" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="1">
         <v>106</v>
       </c>
@@ -2884,7 +2261,7 @@
         <v>80000001</v>
       </c>
     </row>
-    <row r="111" ht="20.1" customHeight="1" spans="3:5">
+    <row r="111" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="1">
         <v>107</v>
       </c>
@@ -2895,7 +2272,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="112" ht="20.1" customHeight="1" spans="3:5">
+    <row r="112" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C112" s="1">
         <v>108</v>
       </c>
@@ -2906,7 +2283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" ht="20.1" customHeight="1" spans="3:5">
+    <row r="113" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="1">
         <v>109</v>
       </c>
@@ -2917,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" ht="20.1" customHeight="1" spans="3:5">
+    <row r="114" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="1">
         <v>110</v>
       </c>
@@ -2928,7 +2305,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="115" ht="20.1" customHeight="1" spans="3:5">
+    <row r="115" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="1">
         <v>111</v>
       </c>
@@ -2939,7 +2316,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="116" ht="20.1" customHeight="1" spans="3:5">
+    <row r="116" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116" s="1">
         <v>112</v>
       </c>
@@ -2950,7 +2327,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="117" ht="20.1" customHeight="1" spans="3:5">
+    <row r="117" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="1">
         <v>113</v>
       </c>
@@ -2961,7 +2338,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="118" ht="20.1" customHeight="1" spans="3:5">
+    <row r="118" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118" s="1">
         <v>114</v>
       </c>
@@ -2972,7 +2349,7 @@
         <v>90000001</v>
       </c>
     </row>
-    <row r="119" ht="20.1" customHeight="1" spans="3:5">
+    <row r="119" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="1">
         <v>115</v>
       </c>
@@ -2983,7 +2360,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" ht="20.1" customHeight="1" spans="3:5">
+    <row r="120" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="1">
         <v>116</v>
       </c>
@@ -2994,7 +2371,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="121" ht="20.1" customHeight="1" spans="3:5">
+    <row r="121" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="1">
         <v>117</v>
       </c>
@@ -3005,7 +2382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" ht="20.1" customHeight="1" spans="3:5">
+    <row r="122" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="1">
         <v>118</v>
       </c>
@@ -3016,7 +2393,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" ht="20.1" customHeight="1" spans="3:5">
+    <row r="123" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="1">
         <v>119</v>
       </c>
@@ -3027,7 +2404,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" ht="20.1" customHeight="1" spans="3:5">
+    <row r="124" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="1">
         <v>120</v>
       </c>
@@ -3038,7 +2415,7 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="125" ht="20.1" customHeight="1" spans="3:5">
+    <row r="125" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="1">
         <v>121</v>
       </c>
@@ -3049,7 +2426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" ht="20.1" customHeight="1" spans="3:5">
+    <row r="126" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C126" s="1">
         <v>122</v>
       </c>
@@ -3060,7 +2437,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="127" ht="20.1" customHeight="1" spans="3:5">
+    <row r="127" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C127" s="1">
         <v>123</v>
       </c>
@@ -3071,7 +2448,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="128" spans="3:5">
+    <row r="128" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C128" s="1">
         <v>124</v>
       </c>
@@ -3082,7 +2459,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="129" spans="3:5">
+    <row r="129" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C129" s="1">
         <v>125</v>
       </c>
@@ -3093,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:5">
+    <row r="130" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C130" s="1">
         <v>126</v>
       </c>
@@ -3104,7 +2481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="3:5">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C131" s="1">
         <v>127</v>
       </c>
@@ -3115,7 +2492,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="132" spans="3:5">
+    <row r="132" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C132" s="1">
         <v>128</v>
       </c>
@@ -3126,7 +2503,7 @@
         <v>1000022</v>
       </c>
     </row>
-    <row r="133" spans="3:5">
+    <row r="133" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C133" s="1">
         <v>129</v>
       </c>
@@ -3137,7 +2514,7 @@
         <v>61600001</v>
       </c>
     </row>
-    <row r="134" spans="3:5">
+    <row r="134" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C134" s="1">
         <v>130</v>
       </c>
@@ -3145,10 +2522,10 @@
         <v>181</v>
       </c>
       <c r="E134" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="135" spans="3:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C135" s="1">
         <v>131</v>
       </c>
@@ -3156,10 +2533,10 @@
         <v>182</v>
       </c>
       <c r="E135" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="3:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C136" s="1">
         <v>132</v>
       </c>
@@ -3167,10 +2544,10 @@
         <v>183</v>
       </c>
       <c r="E136" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="137" spans="3:5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="137" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C137" s="1">
         <v>133</v>
       </c>
@@ -3178,10 +2555,10 @@
         <v>184</v>
       </c>
       <c r="E137" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="138" spans="3:5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="138" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C138" s="1">
         <v>134</v>
       </c>
@@ -3192,7 +2569,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="139" spans="3:5">
+    <row r="139" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C139" s="1">
         <v>135</v>
       </c>
@@ -3203,7 +2580,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="140" spans="3:5">
+    <row r="140" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C140" s="1">
         <v>136</v>
       </c>
@@ -3215,12 +2592,12 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E115" r:id="rId3" display="1000001;100@601800051"/>
+    <hyperlink ref="E115" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD72936-54BE-4295-AF9B-A5F752B958D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalValueProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="191">
   <si>
     <t>#</t>
   </si>
@@ -593,10 +600,10 @@
     <r>
       <rPr>
         <i/>
-        <sz val="9.8000000000000007"/>
+        <sz val="9.8"/>
         <color rgb="FF85C46C"/>
         <rFont val="Courier New"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -605,16 +612,19 @@
     <t>捐选随机获得道具</t>
   </si>
   <si>
-    <t>单人模式喜从天降免费次数</t>
-  </si>
-  <si>
-    <t>单人模式喜从天降额外次数</t>
+    <t>单人模式喜从天降初始次数</t>
+  </si>
+  <si>
+    <t>单人模式喜从天降恢复时间</t>
   </si>
   <si>
     <t>单人模式喜从天降刷新消耗</t>
   </si>
   <si>
     <t>单人模式喜从天降购买次数消耗</t>
+  </si>
+  <si>
+    <t>420;5;10</t>
   </si>
   <si>
     <t>单人模式喜从天降掉落</t>
@@ -635,8 +645,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,25 +687,163 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
-      <sz val="9.8000000000000007"/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8"/>
       <color rgb="FF85C46C"/>
       <name val="Courier New"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -702,8 +856,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -711,11 +1051,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -737,21 +1319,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1038,37 +1664,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E137" sqref="E137"/>
+      <selection activeCell="A137" sqref="$A137:$XFD137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="57.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="4" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.1" customHeight="1"/>
+    <row r="2" ht="20.1" customHeight="1" spans="4:4">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="20.1" customHeight="1" spans="3:7">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1081,7 +1707,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="20.1" customHeight="1" spans="3:7">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1092,7 +1718,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="20.1" customHeight="1" spans="3:7">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
@@ -1103,7 +1729,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="3:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1114,7 +1740,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="7" spans="3:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1125,7 +1751,7 @@
         <v>600000111</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="20.1" customHeight="1" spans="3:5">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1136,7 +1762,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="20.1" customHeight="1" spans="3:5">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1147,7 +1773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="20.1" customHeight="1" spans="3:5">
       <c r="C10" s="8">
         <v>5</v>
       </c>
@@ -1158,7 +1784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="20.1" customHeight="1" spans="3:5">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1169,7 +1795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="20.1" customHeight="1" spans="3:5">
       <c r="C12" s="8">
         <v>7</v>
       </c>
@@ -1180,7 +1806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="20.1" customHeight="1" spans="3:5">
       <c r="C13" s="8">
         <v>8</v>
       </c>
@@ -1191,7 +1817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="20.1" customHeight="1" spans="3:5">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1202,7 +1828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="20.1" customHeight="1" spans="3:5">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1213,7 +1839,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="20.1" customHeight="1" spans="3:5">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -1224,7 +1850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="20.1" customHeight="1" spans="3:5">
       <c r="C17" s="1">
         <v>12</v>
       </c>
@@ -1235,7 +1861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="20.1" customHeight="1" spans="3:5">
       <c r="C18" s="1">
         <v>13</v>
       </c>
@@ -1246,7 +1872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" ht="20.1" customHeight="1" spans="3:5">
       <c r="C19" s="1">
         <v>14</v>
       </c>
@@ -1257,7 +1883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" ht="20.1" customHeight="1" spans="3:5">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -1268,7 +1894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" ht="20.1" customHeight="1" spans="3:5">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -1279,7 +1905,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" ht="20.1" customHeight="1" spans="3:5">
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -1290,7 +1916,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" ht="20.1" customHeight="1" spans="3:5">
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -1301,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C24" s="1">
         <v>19</v>
       </c>
@@ -1312,7 +1938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" ht="20.1" customHeight="1" spans="3:5">
       <c r="C25" s="1">
         <v>20</v>
       </c>
@@ -1323,7 +1949,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="26" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" ht="20.1" customHeight="1" spans="3:5">
       <c r="C26" s="1">
         <v>21</v>
       </c>
@@ -1334,7 +1960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="3:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C27" s="1">
         <v>22</v>
       </c>
@@ -1345,7 +1971,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C28" s="1">
         <v>23</v>
       </c>
@@ -1356,7 +1982,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="3:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C29" s="1">
         <v>24</v>
       </c>
@@ -1367,7 +1993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" ht="20.1" customHeight="1" spans="3:5">
       <c r="C30" s="1">
         <v>25</v>
       </c>
@@ -1378,7 +2004,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" ht="20.1" customHeight="1" spans="3:5">
       <c r="C31" s="1">
         <v>26</v>
       </c>
@@ -1389,7 +2015,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" ht="20.1" customHeight="1" spans="3:5">
       <c r="C32" s="1">
         <v>27</v>
       </c>
@@ -1400,7 +2026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" ht="20.1" customHeight="1" spans="3:5">
       <c r="C33" s="1">
         <v>28</v>
       </c>
@@ -1411,7 +2037,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" ht="20.1" customHeight="1" spans="3:5">
       <c r="C34" s="1">
         <v>29</v>
       </c>
@@ -1422,7 +2048,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="20.1" customHeight="1" spans="3:5">
       <c r="C35" s="1">
         <v>30</v>
       </c>
@@ -1433,7 +2059,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" ht="20.1" customHeight="1" spans="3:5">
       <c r="C36" s="1">
         <v>31</v>
       </c>
@@ -1444,7 +2070,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="20.1" customHeight="1" spans="3:5">
       <c r="C37" s="1">
         <v>33</v>
       </c>
@@ -1455,7 +2081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" ht="20.1" customHeight="1" spans="3:5">
       <c r="C38" s="1">
         <v>34</v>
       </c>
@@ -1466,7 +2092,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" ht="20.1" customHeight="1" spans="3:5">
       <c r="C39" s="1">
         <v>35</v>
       </c>
@@ -1477,7 +2103,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" ht="20.1" customHeight="1" spans="3:5">
       <c r="C40" s="1">
         <v>36</v>
       </c>
@@ -1488,7 +2114,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="41" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" ht="20.1" customHeight="1" spans="3:5">
       <c r="C41" s="1">
         <v>37</v>
       </c>
@@ -1499,7 +2125,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="20.1" customHeight="1" spans="3:5">
       <c r="C42" s="1">
         <v>38</v>
       </c>
@@ -1510,7 +2136,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" ht="20.1" customHeight="1" spans="3:5">
       <c r="C43" s="1">
         <v>39</v>
       </c>
@@ -1521,7 +2147,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" ht="20.1" customHeight="1" spans="3:5">
       <c r="C44" s="1">
         <v>40</v>
       </c>
@@ -1532,7 +2158,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" ht="20.1" customHeight="1" spans="3:5">
       <c r="C45" s="1">
         <v>41</v>
       </c>
@@ -1543,7 +2169,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" ht="20.1" customHeight="1" spans="3:5">
       <c r="C46" s="1">
         <v>42</v>
       </c>
@@ -1554,7 +2180,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" ht="20.1" customHeight="1" spans="3:6">
       <c r="C47" s="1">
         <v>43</v>
       </c>
@@ -1568,7 +2194,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" ht="20.1" customHeight="1" spans="3:5">
       <c r="C48" s="1">
         <v>44</v>
       </c>
@@ -1579,7 +2205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" ht="20.1" customHeight="1" spans="3:5">
       <c r="C49" s="1">
         <v>45</v>
       </c>
@@ -1590,7 +2216,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" ht="20.1" customHeight="1" spans="3:5">
       <c r="C50" s="1">
         <v>46</v>
       </c>
@@ -1601,7 +2227,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" ht="20.1" customHeight="1" spans="3:5">
       <c r="C51" s="1">
         <v>47</v>
       </c>
@@ -1612,7 +2238,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" ht="20.1" customHeight="1" spans="3:5">
       <c r="C52" s="1">
         <v>48</v>
       </c>
@@ -1623,7 +2249,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" ht="20.1" customHeight="1" spans="3:5">
       <c r="C53" s="1">
         <v>49</v>
       </c>
@@ -1634,7 +2260,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" ht="20.1" customHeight="1" spans="3:5">
       <c r="C54" s="1">
         <v>50</v>
       </c>
@@ -1645,7 +2271,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" ht="20.1" customHeight="1" spans="3:5">
       <c r="C55" s="1">
         <v>51</v>
       </c>
@@ -1656,7 +2282,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" ht="20.1" customHeight="1" spans="3:5">
       <c r="C56" s="1">
         <v>52</v>
       </c>
@@ -1667,7 +2293,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" ht="20.1" customHeight="1" spans="3:5">
       <c r="C57" s="1">
         <v>53</v>
       </c>
@@ -1678,7 +2304,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" ht="20.1" customHeight="1" spans="3:5">
       <c r="C58" s="1">
         <v>54</v>
       </c>
@@ -1689,7 +2315,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" ht="20.1" customHeight="1" spans="3:5">
       <c r="C59" s="1">
         <v>55</v>
       </c>
@@ -1700,7 +2326,7 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="60" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" ht="20.1" customHeight="1" spans="3:5">
       <c r="C60" s="1">
         <v>56</v>
       </c>
@@ -1711,7 +2337,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" ht="20.1" customHeight="1" spans="3:5">
       <c r="C61" s="1">
         <v>57</v>
       </c>
@@ -1722,7 +2348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" ht="20.1" customHeight="1" spans="3:5">
       <c r="C62" s="1">
         <v>58</v>
       </c>
@@ -1733,7 +2359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" ht="20.1" customHeight="1" spans="3:5">
       <c r="C63" s="1">
         <v>59</v>
       </c>
@@ -1744,7 +2370,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" ht="20.1" customHeight="1" spans="3:5">
       <c r="C64" s="1">
         <v>60</v>
       </c>
@@ -1755,7 +2381,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" ht="20.1" customHeight="1" spans="3:5">
       <c r="C65" s="1">
         <v>61</v>
       </c>
@@ -1766,7 +2392,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" ht="20.1" customHeight="1" spans="3:5">
       <c r="C66" s="1">
         <v>62</v>
       </c>
@@ -1777,7 +2403,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" ht="20.1" customHeight="1" spans="3:5">
       <c r="C67" s="1">
         <v>63</v>
       </c>
@@ -1788,7 +2414,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" ht="20.1" customHeight="1" spans="3:5">
       <c r="C68" s="1">
         <v>64</v>
       </c>
@@ -1799,7 +2425,7 @@
         <v>30000001</v>
       </c>
     </row>
-    <row r="69" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" ht="20.1" customHeight="1" spans="3:5">
       <c r="C69" s="1">
         <v>65</v>
       </c>
@@ -1810,7 +2436,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" ht="20.1" customHeight="1" spans="3:5">
       <c r="C70" s="1">
         <v>66</v>
       </c>
@@ -1821,7 +2447,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" ht="20.1" customHeight="1" spans="3:5">
       <c r="C71" s="1">
         <v>67</v>
       </c>
@@ -1832,7 +2458,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" ht="20.1" customHeight="1" spans="3:5">
       <c r="C72" s="1">
         <v>68</v>
       </c>
@@ -1843,7 +2469,7 @@
         <v>60500101</v>
       </c>
     </row>
-    <row r="73" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" ht="20.1" customHeight="1" spans="3:5">
       <c r="C73" s="1">
         <v>69</v>
       </c>
@@ -1854,7 +2480,7 @@
         <v>60500201</v>
       </c>
     </row>
-    <row r="74" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" ht="20.1" customHeight="1" spans="3:5">
       <c r="C74" s="1">
         <v>70</v>
       </c>
@@ -1865,7 +2491,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" ht="20.1" customHeight="1" spans="3:5">
       <c r="C75" s="1">
         <v>71</v>
       </c>
@@ -1876,7 +2502,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" ht="20.1" customHeight="1" spans="3:5">
       <c r="C76" s="1">
         <v>72</v>
       </c>
@@ -1887,7 +2513,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" ht="20.1" customHeight="1" spans="3:5">
       <c r="C77" s="1">
         <v>73</v>
       </c>
@@ -1898,7 +2524,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="78" spans="3:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:5">
       <c r="C78" s="1">
         <v>74</v>
       </c>
@@ -1909,7 +2535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" ht="20.1" customHeight="1" spans="3:5">
       <c r="C79" s="1">
         <v>75</v>
       </c>
@@ -1920,7 +2546,7 @@
         <v>601502001</v>
       </c>
     </row>
-    <row r="80" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" ht="20.1" customHeight="1" spans="3:5">
       <c r="C80" s="1">
         <v>76</v>
       </c>
@@ -1931,7 +2557,7 @@
         <v>40000001</v>
       </c>
     </row>
-    <row r="81" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" ht="20.1" customHeight="1" spans="3:5">
       <c r="C81" s="1">
         <v>77</v>
       </c>
@@ -1942,7 +2568,7 @@
         <v>601503011</v>
       </c>
     </row>
-    <row r="82" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" ht="20.1" customHeight="1" spans="3:5">
       <c r="C82" s="1">
         <v>78</v>
       </c>
@@ -1953,7 +2579,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" ht="20.1" customHeight="1" spans="3:5">
       <c r="C83" s="1">
         <v>79</v>
       </c>
@@ -1964,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" ht="20.1" customHeight="1" spans="3:5">
       <c r="C84" s="1">
         <v>80</v>
       </c>
@@ -1975,7 +2601,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" ht="20.1" customHeight="1" spans="3:5">
       <c r="C85" s="1">
         <v>81</v>
       </c>
@@ -1986,7 +2612,7 @@
         <v>60303101</v>
       </c>
     </row>
-    <row r="86" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" ht="20.1" customHeight="1" spans="3:5">
       <c r="C86" s="1">
         <v>82</v>
       </c>
@@ -1997,7 +2623,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" ht="20.1" customHeight="1" spans="3:5">
       <c r="C87" s="1">
         <v>83</v>
       </c>
@@ -2008,7 +2634,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" ht="20.1" customHeight="1" spans="3:5">
       <c r="C88" s="1">
         <v>84</v>
       </c>
@@ -2019,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" ht="20.1" customHeight="1" spans="3:5">
       <c r="C89" s="1">
         <v>85</v>
       </c>
@@ -2030,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" ht="20.1" customHeight="1" spans="3:5">
       <c r="C90" s="1">
         <v>86</v>
       </c>
@@ -2041,7 +2667,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" ht="20.1" customHeight="1" spans="3:5">
       <c r="C91" s="1">
         <v>87</v>
       </c>
@@ -2052,7 +2678,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="92" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" ht="20.1" customHeight="1" spans="3:5">
       <c r="C92" s="1">
         <v>88</v>
       </c>
@@ -2063,7 +2689,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" ht="20.1" customHeight="1" spans="3:5">
       <c r="C93" s="1">
         <v>89</v>
       </c>
@@ -2074,7 +2700,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="94" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" ht="20.1" customHeight="1" spans="3:5">
       <c r="C94" s="1">
         <v>90</v>
       </c>
@@ -2085,7 +2711,7 @@
         <v>10000158</v>
       </c>
     </row>
-    <row r="95" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" ht="20.1" customHeight="1" spans="3:5">
       <c r="C95" s="1">
         <v>91</v>
       </c>
@@ -2096,7 +2722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" ht="20.1" customHeight="1" spans="3:5">
       <c r="C96" s="1">
         <v>92</v>
       </c>
@@ -2107,7 +2733,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" ht="20.1" customHeight="1" spans="3:5">
       <c r="C97" s="1">
         <v>93</v>
       </c>
@@ -2118,7 +2744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" ht="20.1" customHeight="1" spans="3:5">
       <c r="C98" s="1">
         <v>94</v>
       </c>
@@ -2129,7 +2755,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="99" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" ht="20.1" customHeight="1" spans="3:5">
       <c r="C99" s="1">
         <v>95</v>
       </c>
@@ -2140,7 +2766,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" ht="20.1" customHeight="1" spans="3:5">
       <c r="C100" s="1">
         <v>96</v>
       </c>
@@ -2151,7 +2777,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="101" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" ht="20.1" customHeight="1" spans="3:5">
       <c r="C101" s="1">
         <v>97</v>
       </c>
@@ -2162,7 +2788,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="102" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" ht="20.1" customHeight="1" spans="3:5">
       <c r="C102" s="1">
         <v>98</v>
       </c>
@@ -2173,7 +2799,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="103" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" ht="20.1" customHeight="1" spans="3:5">
       <c r="C103" s="1">
         <v>99</v>
       </c>
@@ -2184,7 +2810,7 @@
         <v>61300001</v>
       </c>
     </row>
-    <row r="104" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" ht="20.1" customHeight="1" spans="3:5">
       <c r="C104" s="1">
         <v>100</v>
       </c>
@@ -2195,7 +2821,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="105" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" ht="20.1" customHeight="1" spans="3:5">
       <c r="C105" s="1">
         <v>101</v>
       </c>
@@ -2206,7 +2832,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" ht="20.1" customHeight="1" spans="3:5">
       <c r="C106" s="1">
         <v>102</v>
       </c>
@@ -2217,7 +2843,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="107" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" ht="20.1" customHeight="1" spans="3:5">
       <c r="C107" s="1">
         <v>103</v>
       </c>
@@ -2228,7 +2854,7 @@
         <v>70000001</v>
       </c>
     </row>
-    <row r="108" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" ht="20.1" customHeight="1" spans="3:5">
       <c r="C108" s="1">
         <v>104</v>
       </c>
@@ -2239,7 +2865,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" ht="20.1" customHeight="1" spans="3:5">
       <c r="C109" s="1">
         <v>105</v>
       </c>
@@ -2250,7 +2876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" ht="20.1" customHeight="1" spans="3:5">
       <c r="C110" s="1">
         <v>106</v>
       </c>
@@ -2261,7 +2887,7 @@
         <v>80000001</v>
       </c>
     </row>
-    <row r="111" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" ht="20.1" customHeight="1" spans="3:5">
       <c r="C111" s="1">
         <v>107</v>
       </c>
@@ -2272,7 +2898,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="112" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" ht="20.1" customHeight="1" spans="3:5">
       <c r="C112" s="1">
         <v>108</v>
       </c>
@@ -2283,7 +2909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" ht="20.1" customHeight="1" spans="3:5">
       <c r="C113" s="1">
         <v>109</v>
       </c>
@@ -2294,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" ht="20.1" customHeight="1" spans="3:5">
       <c r="C114" s="1">
         <v>110</v>
       </c>
@@ -2305,7 +2931,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" ht="20.1" customHeight="1" spans="3:5">
       <c r="C115" s="1">
         <v>111</v>
       </c>
@@ -2316,7 +2942,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" ht="20.1" customHeight="1" spans="3:5">
       <c r="C116" s="1">
         <v>112</v>
       </c>
@@ -2327,7 +2953,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="117" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" ht="20.1" customHeight="1" spans="3:5">
       <c r="C117" s="1">
         <v>113</v>
       </c>
@@ -2338,7 +2964,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="118" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" ht="20.1" customHeight="1" spans="3:5">
       <c r="C118" s="1">
         <v>114</v>
       </c>
@@ -2349,7 +2975,7 @@
         <v>90000001</v>
       </c>
     </row>
-    <row r="119" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" ht="20.1" customHeight="1" spans="3:5">
       <c r="C119" s="1">
         <v>115</v>
       </c>
@@ -2360,7 +2986,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" ht="20.1" customHeight="1" spans="3:5">
       <c r="C120" s="1">
         <v>116</v>
       </c>
@@ -2371,7 +2997,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="121" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" ht="20.1" customHeight="1" spans="3:5">
       <c r="C121" s="1">
         <v>117</v>
       </c>
@@ -2382,7 +3008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" ht="20.1" customHeight="1" spans="3:5">
       <c r="C122" s="1">
         <v>118</v>
       </c>
@@ -2393,7 +3019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" ht="20.1" customHeight="1" spans="3:5">
       <c r="C123" s="1">
         <v>119</v>
       </c>
@@ -2404,7 +3030,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" ht="20.1" customHeight="1" spans="3:5">
       <c r="C124" s="1">
         <v>120</v>
       </c>
@@ -2415,7 +3041,7 @@
         <v>20000001</v>
       </c>
     </row>
-    <row r="125" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" ht="20.1" customHeight="1" spans="3:5">
       <c r="C125" s="1">
         <v>121</v>
       </c>
@@ -2426,7 +3052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" ht="20.1" customHeight="1" spans="3:5">
       <c r="C126" s="1">
         <v>122</v>
       </c>
@@ -2437,7 +3063,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="127" spans="3:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" ht="20.1" customHeight="1" spans="3:5">
       <c r="C127" s="1">
         <v>123</v>
       </c>
@@ -2448,7 +3074,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:5">
       <c r="C128" s="1">
         <v>124</v>
       </c>
@@ -2459,7 +3085,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:5">
       <c r="C129" s="1">
         <v>125</v>
       </c>
@@ -2470,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:5">
       <c r="C130" s="1">
         <v>126</v>
       </c>
@@ -2481,7 +3107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:5">
       <c r="C131" s="1">
         <v>127</v>
       </c>
@@ -2492,7 +3118,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:5">
       <c r="C132" s="1">
         <v>128</v>
       </c>
@@ -2503,7 +3129,7 @@
         <v>1000022</v>
       </c>
     </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:5">
       <c r="C133" s="1">
         <v>129</v>
       </c>
@@ -2514,7 +3140,7 @@
         <v>61600001</v>
       </c>
     </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:5">
       <c r="C134" s="1">
         <v>130</v>
       </c>
@@ -2525,7 +3151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:5">
       <c r="C135" s="1">
         <v>131</v>
       </c>
@@ -2533,10 +3159,10 @@
         <v>182</v>
       </c>
       <c r="E135" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="3:5">
       <c r="C136" s="1">
         <v>132</v>
       </c>
@@ -2547,57 +3173,57 @@
         <v>150</v>
       </c>
     </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:5">
       <c r="C137" s="1">
         <v>133</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E137" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E137" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="3:5">
       <c r="C138" s="1">
         <v>134</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="3:5">
       <c r="C139" s="1">
         <v>135</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="140" spans="3:5">
       <c r="C140" s="1">
         <v>136</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E140" s="1">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E115" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E115" r:id="rId3" display="1000001;100@601800051"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -630,7 +630,7 @@
     <t>单人模式喜从天降掉落</t>
   </si>
   <si>
-    <t>1;600010101@2;600010101@3;600010101@5;600010101@7;600010101</t>
+    <t>1;61201001,61200001@19;61202001,61200001@30;61203001,61200001@40;61204001,61200001@50;61205001,61200001</t>
   </si>
   <si>
     <t>宠物孵化开启格子消耗</t>
@@ -1673,7 +1673,7 @@
   <dimension ref="C1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A137" sqref="$A137:$XFD137"/>
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1682,7 +1682,7 @@
     <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="57.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="89.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="4" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>

--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -630,7 +630,7 @@
     <t>单人模式喜从天降掉落</t>
   </si>
   <si>
-    <t>1;61201001,61200001@19;61202001,61200001@30;61203001,61200001@40;61204001,61200001@50;61205001,61200001</t>
+    <t>1;61201001@19;61202001@30;61203001@40;61204001@50;61205001</t>
   </si>
   <si>
     <t>宠物孵化开启格子消耗</t>

--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalValueProto" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="194">
   <si>
     <t>#</t>
   </si>
@@ -640,6 +640,15 @@
   </si>
   <si>
     <t>藏宝图任务每日领取数量</t>
+  </si>
+  <si>
+    <t>宠物抽奖消耗</t>
+  </si>
+  <si>
+    <t>1000027;10</t>
+  </si>
+  <si>
+    <t>宠物抽奖掉落ConfigId</t>
   </si>
 </sst>
 </file>
@@ -1670,10 +1679,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:G140"/>
+  <dimension ref="C1:G142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3217,6 +3226,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="141" spans="3:5">
+      <c r="C141" s="1">
+        <v>137</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="142" spans="3:5">
+      <c r="C142" s="1">
+        <v>138</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E142" s="1">
+        <v>61700001</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E115" r:id="rId3" display="1000001;100@601800051"/>

--- a/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GlobalValueConfig.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="196">
   <si>
     <t>#</t>
   </si>
@@ -649,6 +649,12 @@
   </si>
   <si>
     <t>宠物抽奖掉落ConfigId</t>
+  </si>
+  <si>
+    <t>重置天赋</t>
+  </si>
+  <si>
+    <t>3;200</t>
   </si>
 </sst>
 </file>
@@ -1679,10 +1685,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:G142"/>
+  <dimension ref="C1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E142" sqref="E142"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3248,6 +3254,17 @@
         <v>61700001</v>
       </c>
     </row>
+    <row r="143" ht="20.1" customHeight="1" spans="3:5">
+      <c r="C143" s="1">
+        <v>139</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E115" r:id="rId3" display="1000001;100@601800051"/>
